--- a/Data/Lighting_Efficacy_Data.xlsx
+++ b/Data/Lighting_Efficacy_Data.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LightingPaper2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{743E413F-E4B5-44E4-9F29-C7CCEB08A233}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FECE7C5-51B8-4CB3-A0C8-77287EF885BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16632" yWindow="5556" windowWidth="12528" windowHeight="9420" tabRatio="712" activeTab="6" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="712" activeTab="5" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Inc" sheetId="15" r:id="rId1"/>
-    <sheet name="Hal" sheetId="18" r:id="rId2"/>
-    <sheet name="CFL" sheetId="16" r:id="rId3"/>
-    <sheet name="Fl" sheetId="17" r:id="rId4"/>
-    <sheet name="LED" sheetId="19" r:id="rId5"/>
-    <sheet name="HID" sheetId="20" r:id="rId6"/>
+    <sheet name="le_Inc" sheetId="15" r:id="rId1"/>
+    <sheet name="le_Hal" sheetId="18" r:id="rId2"/>
+    <sheet name="le_CFL" sheetId="16" r:id="rId3"/>
+    <sheet name="le_Fl" sheetId="17" r:id="rId4"/>
+    <sheet name="le_LED" sheetId="19" r:id="rId5"/>
+    <sheet name="le_HID" sheetId="20" r:id="rId6"/>
     <sheet name="Figures" sheetId="21" r:id="rId7"/>
     <sheet name="Long-Run" sheetId="2" r:id="rId8"/>
     <sheet name="Short-Run" sheetId="7" r:id="rId9"/>
@@ -2049,7 +2049,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Inc!$A$2:$A$142</c:f>
+              <c:f>le_Inc!$A$2:$A$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -2481,7 +2481,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Inc!$D$2:$D$142</c:f>
+              <c:f>le_Inc!$D$2:$D$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -2612,7 +2612,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hal!$A$2:$A$142</c:f>
+              <c:f>le_Hal!$A$2:$A$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -3044,7 +3044,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hal!$D$2:$D$142</c:f>
+              <c:f>le_Hal!$D$2:$D$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -3148,7 +3148,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>CFL!$A$2:$A$142</c:f>
+              <c:f>le_CFL!$A$2:$A$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -3580,7 +3580,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CFL!$D$2:$D$142</c:f>
+              <c:f>le_CFL!$D$2:$D$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -3672,7 +3672,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Fl!$A$2:$A$142</c:f>
+              <c:f>le_Fl!$A$2:$A$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -4104,7 +4104,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Fl!$D$2:$D$142</c:f>
+              <c:f>le_Fl!$D$2:$D$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -4190,7 +4190,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>LED!$A$2:$A$142</c:f>
+              <c:f>le_LED!$A$2:$A$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -4622,7 +4622,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>LED!$C$2:$C$142</c:f>
+              <c:f>le_LED!$C$2:$C$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -4702,7 +4702,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>HID!$A$2:$A$142</c:f>
+              <c:f>le_HID!$A$2:$A$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -5134,7 +5134,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>HID!$D$2:$D$142</c:f>
+              <c:f>le_HID!$D$2:$D$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -27826,7 +27826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0149D0B9-E1D4-4002-B3E6-86AD6A91C712}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -28575,7 +28575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7714C633-CAE6-4DA1-8F46-706D531B61FC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>

--- a/Data/Lighting_Efficacy_Data.xlsx
+++ b/Data/Lighting_Efficacy_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LightingPaper2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7CF1AD-D6B6-4419-A723-35F05ACB4182}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65A3718-5C2F-4666-B508-B859C0D19E93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="712" activeTab="5" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
+    <workbookView xWindow="5400" yWindow="0" windowWidth="12528" windowHeight="9420" tabRatio="712" activeTab="5" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
   </bookViews>
   <sheets>
     <sheet name="le_Inc" sheetId="15" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="le_CFL" sheetId="16" r:id="rId3"/>
     <sheet name="le_Fl" sheetId="17" r:id="rId4"/>
     <sheet name="le_LED" sheetId="19" r:id="rId5"/>
-    <sheet name="le_HID" sheetId="20" r:id="rId6"/>
+    <sheet name="le_HPS200+" sheetId="20" r:id="rId6"/>
     <sheet name="Figures" sheetId="21" r:id="rId7"/>
     <sheet name="Long-Run" sheetId="2" r:id="rId8"/>
     <sheet name="Short-Run" sheetId="7" r:id="rId9"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3760" uniqueCount="392">
   <si>
     <t>Tallow</t>
   </si>
@@ -1105,6 +1105,141 @@
   <si>
     <t>Technology</t>
   </si>
+  <si>
+    <t>GE Lucalox High Pressure Sodium Prototype</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20GE%20LU500.htm</t>
+  </si>
+  <si>
+    <t>Standard Lamps</t>
+  </si>
+  <si>
+    <t>GE Lucalox LU400/BD with External Amalgam Reservoir</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20GE%20LU400BD.htm</t>
+  </si>
+  <si>
+    <t>GE Lucalox LU250 Universal with Butterfly Crimp</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20GE%20LU250.htm</t>
+  </si>
+  <si>
+    <t>GE Lucalox LU1000 S52 with Voltage Fuse</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20GE%20LU1000.htm</t>
+  </si>
+  <si>
+    <t>Tesla SHC 400W Original HPS Design</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20Tesla%20SHC400%20Nb-cup.htm</t>
+  </si>
+  <si>
+    <t>Stellox High Pressure Sodium</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20Atlas%20SON250.htm</t>
+  </si>
+  <si>
+    <t>Tungsram TC400 2nd Generation</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20Orion%20TC400.htm</t>
+  </si>
+  <si>
+    <t>Polamp WLS 400W 1st Generation</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20Polamp%20WLS400.htm</t>
+  </si>
+  <si>
+    <t>Sylvania Lumalux LU200 HPS</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20Sylvania%20LU200.htm</t>
+  </si>
+  <si>
+    <t>Tungsram LU250 with Double Wire Seals</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20Tungsram%20LU250.htm</t>
+  </si>
+  <si>
+    <t>SON-T 1000W with Narrow Bore Nb Seals</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20Thorn%20SONT1000.htm</t>
+  </si>
+  <si>
+    <t>High Pressure Sodium (&gt;200W)</t>
+  </si>
+  <si>
+    <t>Reflector Style</t>
+  </si>
+  <si>
+    <t>Osram Vialox NAV-R 310/360W</t>
+  </si>
+  <si>
+    <t>Reflux High Pressure Sodium with Reflector</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20Reflux.htm</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20Osram%20SONR310.htm</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20Thorn%20SONTD1000.htm</t>
+  </si>
+  <si>
+    <t>Quartzray SON-TD 1000W-400V</t>
+  </si>
+  <si>
+    <t>Linear Style</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20Osram%20SONL250.htm</t>
+  </si>
+  <si>
+    <t>Solarstream Linear Sodium SON-L 250W</t>
+  </si>
+  <si>
+    <t>Quartzray SON-TD 400W</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20Thorn%20SONTD400.htm</t>
+  </si>
+  <si>
+    <t>Vialox Linear Sodium NAV-TS 400W</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20Osram%20NAVTS400.htm</t>
+  </si>
+  <si>
+    <t>COBR Polam - WLS 400W Linear HP Sodium</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20COBR%20WLSTC400.htm</t>
+  </si>
+  <si>
+    <t>Philips Master GreenPower 1000W TD</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20Philips%20SONTD%20GreenPower%201000.htm</t>
+  </si>
+  <si>
+    <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20GE%20LU250-BD-S.htm</t>
+  </si>
+  <si>
+    <t>GE Lucalox LU250/BD/S with Superior Performance</t>
+  </si>
+  <si>
+    <t>Enhanced Efficacy Designs</t>
+  </si>
 </sst>
 </file>
 
@@ -4705,7 +4840,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>le_HID!$A$2:$A$142</c:f>
+              <c:f>'le_HPS200+'!$A$2:$A$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -5137,10 +5272,70 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>le_HID!$E$2:$E$142</c:f>
+              <c:f>'le_HPS200+'!$E$2:$E$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
+                <c:pt idx="85">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>117.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>137.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>139</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -29967,16 +30162,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0149D0B9-E1D4-4002-B3E6-86AD6A91C712}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.77734375" customWidth="1"/>
     <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="69.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -30010,7 +30207,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -30018,7 +30215,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -30026,7 +30223,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -30034,7 +30231,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -30042,7 +30239,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
       <c r="E6" s="120"/>
     </row>
@@ -30051,7 +30248,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -30059,7 +30256,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -30067,7 +30264,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -30075,7 +30272,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -30083,7 +30280,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -30091,7 +30288,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -30099,7 +30296,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -30107,7 +30304,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -30115,7 +30312,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -30123,7 +30320,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -30131,7 +30328,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -30139,7 +30336,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -30147,7 +30344,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -30155,7 +30352,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -30163,7 +30360,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -30171,7 +30368,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -30179,7 +30376,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -30187,7 +30384,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -30195,7 +30392,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -30203,7 +30400,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -30211,7 +30408,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -30219,7 +30416,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -30227,7 +30424,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -30235,7 +30432,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -30243,7 +30440,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -30251,7 +30448,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -30259,7 +30456,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -30267,7 +30464,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -30275,7 +30472,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -30283,7 +30480,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -30291,7 +30488,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -30299,7 +30496,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -30307,7 +30504,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -30315,7 +30512,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -30323,7 +30520,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -30331,7 +30528,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -30339,7 +30536,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -30347,7 +30544,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -30355,7 +30552,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -30363,7 +30560,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -30371,7 +30568,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -30379,7 +30576,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -30387,7 +30584,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -30395,7 +30592,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -30403,7 +30600,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -30411,7 +30608,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -30419,7 +30616,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -30427,7 +30624,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -30435,7 +30632,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -30443,7 +30640,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -30451,7 +30648,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -30459,7 +30656,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -30467,7 +30664,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -30475,7 +30672,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -30483,7 +30680,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -30491,7 +30688,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -30499,7 +30696,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -30507,7 +30704,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -30515,7 +30712,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -30523,7 +30720,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -30531,7 +30728,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -30539,7 +30736,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -30547,7 +30744,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -30555,7 +30752,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -30563,7 +30760,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -30571,7 +30768,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -30579,7 +30776,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -30587,7 +30784,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -30595,7 +30792,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -30603,7 +30800,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -30611,7 +30808,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -30619,7 +30816,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -30627,7 +30824,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -30635,391 +30832,691 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C87" t="s">
+        <v>349</v>
+      </c>
+      <c r="D87" t="s">
+        <v>347</v>
+      </c>
+      <c r="E87">
+        <v>100</v>
+      </c>
+      <c r="F87">
+        <v>500</v>
+      </c>
+      <c r="G87" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C89" t="s">
+        <v>349</v>
+      </c>
+      <c r="D89" t="s">
+        <v>356</v>
+      </c>
+      <c r="E89">
+        <v>110</v>
+      </c>
+      <c r="F89">
+        <v>400</v>
+      </c>
+      <c r="G89" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C91" t="s">
+        <v>349</v>
+      </c>
+      <c r="D91" t="s">
+        <v>358</v>
+      </c>
+      <c r="E91">
+        <v>100</v>
+      </c>
+      <c r="F91">
+        <v>250</v>
+      </c>
+      <c r="G91" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C93" t="s">
+        <v>349</v>
+      </c>
+      <c r="D93" t="s">
+        <v>350</v>
+      </c>
+      <c r="E93">
+        <v>117.5</v>
+      </c>
+      <c r="F93">
+        <v>400</v>
+      </c>
+      <c r="G93" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C97" t="s">
+        <v>349</v>
+      </c>
+      <c r="D97" t="s">
+        <v>360</v>
+      </c>
+      <c r="E97">
+        <v>110</v>
+      </c>
+      <c r="F97">
+        <v>400</v>
+      </c>
+      <c r="G97" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C99" t="s">
+        <v>391</v>
+      </c>
+      <c r="D99" t="s">
+        <v>390</v>
+      </c>
+      <c r="E99">
+        <v>120</v>
+      </c>
+      <c r="F99">
+        <v>250</v>
+      </c>
+      <c r="G99" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C100" t="s">
+        <v>349</v>
+      </c>
+      <c r="D100" t="s">
+        <v>362</v>
+      </c>
+      <c r="E100">
+        <v>110</v>
+      </c>
+      <c r="F100">
+        <v>400</v>
+      </c>
+      <c r="G100" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C102" t="s">
+        <v>349</v>
+      </c>
+      <c r="D102" t="s">
+        <v>354</v>
+      </c>
+      <c r="E102">
+        <v>140</v>
+      </c>
+      <c r="F102">
+        <v>1000</v>
+      </c>
+      <c r="G102" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C104" t="s">
+        <v>349</v>
+      </c>
+      <c r="D104" t="s">
+        <v>364</v>
+      </c>
+      <c r="E104">
+        <v>110</v>
+      </c>
+      <c r="F104">
+        <v>200</v>
+      </c>
+      <c r="G104" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C105" t="s">
+        <v>349</v>
+      </c>
+      <c r="D105" t="s">
+        <v>352</v>
+      </c>
+      <c r="E105">
+        <v>110</v>
+      </c>
+      <c r="F105">
+        <v>250</v>
+      </c>
+      <c r="G105" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C107" t="s">
+        <v>349</v>
+      </c>
+      <c r="D107" t="s">
+        <v>366</v>
+      </c>
+      <c r="E107">
+        <v>108</v>
+      </c>
+      <c r="F107">
+        <v>250</v>
+      </c>
+      <c r="G107" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C109" t="s">
+        <v>378</v>
+      </c>
+      <c r="D109" t="s">
+        <v>381</v>
+      </c>
+      <c r="E109">
+        <v>120</v>
+      </c>
+      <c r="F109">
+        <v>400</v>
+      </c>
+      <c r="G109" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C110" t="s">
+        <v>349</v>
+      </c>
+      <c r="D110" t="s">
+        <v>368</v>
+      </c>
+      <c r="E110">
+        <v>130</v>
+      </c>
+      <c r="F110">
+        <v>1000</v>
+      </c>
+      <c r="G110" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C111" t="s">
+        <v>378</v>
+      </c>
+      <c r="D111" t="s">
+        <v>383</v>
+      </c>
+      <c r="E111">
+        <v>120</v>
+      </c>
+      <c r="F111">
+        <v>400</v>
+      </c>
+      <c r="G111" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C112" t="s">
+        <v>378</v>
+      </c>
+      <c r="D112" t="s">
+        <v>377</v>
+      </c>
+      <c r="E112">
+        <v>137.5</v>
+      </c>
+      <c r="F112">
+        <v>1000</v>
+      </c>
+      <c r="G112" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C114" t="s">
+        <v>378</v>
+      </c>
+      <c r="D114" t="s">
+        <v>380</v>
+      </c>
+      <c r="E114">
+        <v>116</v>
+      </c>
+      <c r="F114">
+        <v>250</v>
+      </c>
+      <c r="G114" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C119" t="s">
+        <v>378</v>
+      </c>
+      <c r="D119" t="s">
+        <v>385</v>
+      </c>
+      <c r="E119">
+        <v>110</v>
+      </c>
+      <c r="F119">
+        <v>400</v>
+      </c>
+      <c r="G119" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>1998</v>
       </c>
       <c r="B120" t="s">
+        <v>370</v>
+      </c>
+      <c r="C120" t="s">
+        <v>371</v>
+      </c>
+      <c r="D120" t="s">
+        <v>372</v>
+      </c>
+      <c r="E120">
         <v>102</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="F120">
+        <v>360</v>
+      </c>
+      <c r="G120" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C125" t="s">
+        <v>371</v>
+      </c>
+      <c r="D125" t="s">
+        <v>373</v>
+      </c>
+      <c r="E125">
+        <v>104</v>
+      </c>
+      <c r="F125">
+        <v>250</v>
+      </c>
+      <c r="G125" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>370</v>
+      </c>
+      <c r="C127" t="s">
+        <v>378</v>
+      </c>
+      <c r="D127" t="s">
+        <v>387</v>
+      </c>
+      <c r="E127">
+        <v>139</v>
+      </c>
+      <c r="F127">
+        <v>1000</v>
+      </c>
+      <c r="G127" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -31027,7 +31524,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -31035,7 +31532,7 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -31043,7 +31540,7 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -31051,7 +31548,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -31059,7 +31556,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -31067,7 +31564,7 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -31075,7 +31572,7 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -31083,7 +31580,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -31091,7 +31588,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -31099,7 +31596,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -31107,7 +31604,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -31115,7 +31612,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -31123,7 +31620,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -31131,7 +31628,7 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>102</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Lighting_Efficacy_Data.xlsx
+++ b/Data/Lighting_Efficacy_Data.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LightingPaper2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65A3718-5C2F-4666-B508-B859C0D19E93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4736C5-867E-42E3-B503-5152DD525FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="0" windowWidth="12528" windowHeight="9420" tabRatio="712" activeTab="5" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="712" activeTab="5" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
   </bookViews>
   <sheets>
     <sheet name="le_Inc" sheetId="15" r:id="rId1"/>
-    <sheet name="le_Hal" sheetId="18" r:id="rId2"/>
+    <sheet name="le_HPS200+" sheetId="20" r:id="rId2"/>
     <sheet name="le_CFL" sheetId="16" r:id="rId3"/>
-    <sheet name="le_Fl" sheetId="17" r:id="rId4"/>
-    <sheet name="le_LED" sheetId="19" r:id="rId5"/>
-    <sheet name="le_HPS200+" sheetId="20" r:id="rId6"/>
+    <sheet name="le_LED" sheetId="19" r:id="rId4"/>
+    <sheet name="Hal" sheetId="18" r:id="rId5"/>
+    <sheet name="Fl" sheetId="17" r:id="rId6"/>
     <sheet name="Figures" sheetId="21" r:id="rId7"/>
     <sheet name="Long-Run" sheetId="2" r:id="rId8"/>
     <sheet name="Short-Run" sheetId="7" r:id="rId9"/>
@@ -36,7 +36,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3760" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3768" uniqueCount="401">
   <si>
     <t>Tallow</t>
   </si>
@@ -1240,6 +1242,33 @@
   <si>
     <t>Enhanced Efficacy Designs</t>
   </si>
+  <si>
+    <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2536</t>
+  </si>
+  <si>
+    <t>Phillips Helios</t>
+  </si>
+  <si>
+    <t>Streetlight</t>
+  </si>
+  <si>
+    <t>Globe Twister Energy Saver</t>
+  </si>
+  <si>
+    <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2533</t>
+  </si>
+  <si>
+    <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2550</t>
+  </si>
+  <si>
+    <t>Globe A19</t>
+  </si>
+  <si>
+    <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2512</t>
+  </si>
+  <si>
+    <t>Phillips A19</t>
+  </si>
 </sst>
 </file>
 
@@ -2707,6 +2736,9 @@
                 <c:pt idx="130">
                   <c:v>12.9</c:v>
                 </c:pt>
+                <c:pt idx="133">
+                  <c:v>8.1</c:v>
+                </c:pt>
                 <c:pt idx="135">
                   <c:v>10.3</c:v>
                 </c:pt>
@@ -2750,7 +2782,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>le_Hal!$A$2:$A$142</c:f>
+              <c:f>Hal!$A$2:$A$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -3182,7 +3214,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>le_Hal!$E$2:$E$142</c:f>
+              <c:f>Hal!$E$2:$E$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -3761,6 +3793,9 @@
                 <c:pt idx="130">
                   <c:v>68.599999999999994</c:v>
                 </c:pt>
+                <c:pt idx="132">
+                  <c:v>61.1</c:v>
+                </c:pt>
                 <c:pt idx="135">
                   <c:v>73.400000000000006</c:v>
                 </c:pt>
@@ -3810,7 +3845,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>le_Fl!$A$2:$A$142</c:f>
+              <c:f>Fl!$A$2:$A$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -4242,7 +4277,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>le_Fl!$E$2:$E$142</c:f>
+              <c:f>Fl!$E$2:$E$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -4780,7 +4815,7 @@
                   <c:v>55.8</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>79.2</c:v>
+                  <c:v>75.5</c:v>
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>106.8</c:v>
@@ -5335,6 +5370,9 @@
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12129,7 +12167,7 @@
   <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView topLeftCell="A108" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13637,6 +13675,21 @@
       </c>
       <c r="B135" t="s">
         <v>42</v>
+      </c>
+      <c r="C135" t="s">
+        <v>272</v>
+      </c>
+      <c r="D135" t="s">
+        <v>398</v>
+      </c>
+      <c r="E135">
+        <v>8.1</v>
+      </c>
+      <c r="F135">
+        <v>40</v>
+      </c>
+      <c r="G135" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -24586,6 +24639,4225 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0149D0B9-E1D4-4002-B3E6-86AD6A91C712}">
+  <dimension ref="A1:H142"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1880</v>
+      </c>
+      <c r="B2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1881</v>
+      </c>
+      <c r="B3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1882</v>
+      </c>
+      <c r="B4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>1883</v>
+      </c>
+      <c r="B5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>1884</v>
+      </c>
+      <c r="B6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E6" s="120"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>1885</v>
+      </c>
+      <c r="B7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>1886</v>
+      </c>
+      <c r="B8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>1887</v>
+      </c>
+      <c r="B9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>1888</v>
+      </c>
+      <c r="B10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>1889</v>
+      </c>
+      <c r="B11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>1890</v>
+      </c>
+      <c r="B12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>1891</v>
+      </c>
+      <c r="B13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>1892</v>
+      </c>
+      <c r="B14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>1893</v>
+      </c>
+      <c r="B15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>1894</v>
+      </c>
+      <c r="B16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1895</v>
+      </c>
+      <c r="B17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1896</v>
+      </c>
+      <c r="B18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1897</v>
+      </c>
+      <c r="B19" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1898</v>
+      </c>
+      <c r="B20" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1899</v>
+      </c>
+      <c r="B21" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1900</v>
+      </c>
+      <c r="B22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>1901</v>
+      </c>
+      <c r="B23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1902</v>
+      </c>
+      <c r="B24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1903</v>
+      </c>
+      <c r="B25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>1904</v>
+      </c>
+      <c r="B26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>1905</v>
+      </c>
+      <c r="B27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1906</v>
+      </c>
+      <c r="B28" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1907</v>
+      </c>
+      <c r="B29" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>1908</v>
+      </c>
+      <c r="B30" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>1909</v>
+      </c>
+      <c r="B31" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>1910</v>
+      </c>
+      <c r="B32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>1911</v>
+      </c>
+      <c r="B33" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>1912</v>
+      </c>
+      <c r="B34" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>1913</v>
+      </c>
+      <c r="B35" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>1914</v>
+      </c>
+      <c r="B36" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>1915</v>
+      </c>
+      <c r="B37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>1916</v>
+      </c>
+      <c r="B38" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>1917</v>
+      </c>
+      <c r="B39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>1918</v>
+      </c>
+      <c r="B40" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>1919</v>
+      </c>
+      <c r="B41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>1920</v>
+      </c>
+      <c r="B42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>1921</v>
+      </c>
+      <c r="B43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>1922</v>
+      </c>
+      <c r="B44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>1923</v>
+      </c>
+      <c r="B45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>1924</v>
+      </c>
+      <c r="B46" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>1925</v>
+      </c>
+      <c r="B47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>1926</v>
+      </c>
+      <c r="B48" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>1927</v>
+      </c>
+      <c r="B49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>1928</v>
+      </c>
+      <c r="B50" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>1929</v>
+      </c>
+      <c r="B51" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>1930</v>
+      </c>
+      <c r="B52" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>1931</v>
+      </c>
+      <c r="B53" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>1932</v>
+      </c>
+      <c r="B54" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>1933</v>
+      </c>
+      <c r="B55" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>1934</v>
+      </c>
+      <c r="B56" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>1935</v>
+      </c>
+      <c r="B57" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>1936</v>
+      </c>
+      <c r="B58" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>1937</v>
+      </c>
+      <c r="B59" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>1938</v>
+      </c>
+      <c r="B60" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>1939</v>
+      </c>
+      <c r="B61" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>1940</v>
+      </c>
+      <c r="B62" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>1941</v>
+      </c>
+      <c r="B63" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>1942</v>
+      </c>
+      <c r="B64" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>1943</v>
+      </c>
+      <c r="B65" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>1944</v>
+      </c>
+      <c r="B66" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>1945</v>
+      </c>
+      <c r="B67" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>1946</v>
+      </c>
+      <c r="B68" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>1947</v>
+      </c>
+      <c r="B69" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>1948</v>
+      </c>
+      <c r="B70" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>1949</v>
+      </c>
+      <c r="B71" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>1950</v>
+      </c>
+      <c r="B72" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>1951</v>
+      </c>
+      <c r="B73" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>1952</v>
+      </c>
+      <c r="B74" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>1953</v>
+      </c>
+      <c r="B75" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>1954</v>
+      </c>
+      <c r="B76" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>1955</v>
+      </c>
+      <c r="B77" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>1956</v>
+      </c>
+      <c r="B78" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>1957</v>
+      </c>
+      <c r="B79" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>1958</v>
+      </c>
+      <c r="B80" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>1959</v>
+      </c>
+      <c r="B81" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>1960</v>
+      </c>
+      <c r="B82" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>1961</v>
+      </c>
+      <c r="B83" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>1962</v>
+      </c>
+      <c r="B84" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>1963</v>
+      </c>
+      <c r="B85" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>1964</v>
+      </c>
+      <c r="B86" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>1965</v>
+      </c>
+      <c r="B87" t="s">
+        <v>370</v>
+      </c>
+      <c r="C87" t="s">
+        <v>349</v>
+      </c>
+      <c r="D87" t="s">
+        <v>347</v>
+      </c>
+      <c r="E87">
+        <v>100</v>
+      </c>
+      <c r="F87">
+        <v>500</v>
+      </c>
+      <c r="G87" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>1966</v>
+      </c>
+      <c r="B88" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>1967</v>
+      </c>
+      <c r="B89" t="s">
+        <v>370</v>
+      </c>
+      <c r="C89" t="s">
+        <v>349</v>
+      </c>
+      <c r="D89" t="s">
+        <v>356</v>
+      </c>
+      <c r="E89">
+        <v>110</v>
+      </c>
+      <c r="F89">
+        <v>400</v>
+      </c>
+      <c r="G89" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>1968</v>
+      </c>
+      <c r="B90" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>1969</v>
+      </c>
+      <c r="B91" t="s">
+        <v>370</v>
+      </c>
+      <c r="C91" t="s">
+        <v>349</v>
+      </c>
+      <c r="D91" t="s">
+        <v>358</v>
+      </c>
+      <c r="E91">
+        <v>100</v>
+      </c>
+      <c r="F91">
+        <v>250</v>
+      </c>
+      <c r="G91" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>1970</v>
+      </c>
+      <c r="B92" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>1971</v>
+      </c>
+      <c r="B93" t="s">
+        <v>370</v>
+      </c>
+      <c r="C93" t="s">
+        <v>349</v>
+      </c>
+      <c r="D93" t="s">
+        <v>350</v>
+      </c>
+      <c r="E93">
+        <v>117.5</v>
+      </c>
+      <c r="F93">
+        <v>400</v>
+      </c>
+      <c r="G93" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>1972</v>
+      </c>
+      <c r="B94" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>1973</v>
+      </c>
+      <c r="B95" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>1974</v>
+      </c>
+      <c r="B96" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>1975</v>
+      </c>
+      <c r="B97" t="s">
+        <v>370</v>
+      </c>
+      <c r="C97" t="s">
+        <v>349</v>
+      </c>
+      <c r="D97" t="s">
+        <v>360</v>
+      </c>
+      <c r="E97">
+        <v>110</v>
+      </c>
+      <c r="F97">
+        <v>400</v>
+      </c>
+      <c r="G97" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>1976</v>
+      </c>
+      <c r="B98" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>1977</v>
+      </c>
+      <c r="B99" t="s">
+        <v>370</v>
+      </c>
+      <c r="C99" t="s">
+        <v>391</v>
+      </c>
+      <c r="D99" t="s">
+        <v>390</v>
+      </c>
+      <c r="E99">
+        <v>120</v>
+      </c>
+      <c r="F99">
+        <v>250</v>
+      </c>
+      <c r="G99" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>1978</v>
+      </c>
+      <c r="B100" t="s">
+        <v>370</v>
+      </c>
+      <c r="C100" t="s">
+        <v>349</v>
+      </c>
+      <c r="D100" t="s">
+        <v>362</v>
+      </c>
+      <c r="E100">
+        <v>110</v>
+      </c>
+      <c r="F100">
+        <v>400</v>
+      </c>
+      <c r="G100" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>1979</v>
+      </c>
+      <c r="B101" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>1980</v>
+      </c>
+      <c r="B102" t="s">
+        <v>370</v>
+      </c>
+      <c r="C102" t="s">
+        <v>349</v>
+      </c>
+      <c r="D102" t="s">
+        <v>354</v>
+      </c>
+      <c r="E102">
+        <v>140</v>
+      </c>
+      <c r="F102">
+        <v>1000</v>
+      </c>
+      <c r="G102" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>1981</v>
+      </c>
+      <c r="B103" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>1982</v>
+      </c>
+      <c r="B104" t="s">
+        <v>370</v>
+      </c>
+      <c r="C104" t="s">
+        <v>349</v>
+      </c>
+      <c r="D104" t="s">
+        <v>364</v>
+      </c>
+      <c r="E104">
+        <v>110</v>
+      </c>
+      <c r="F104">
+        <v>200</v>
+      </c>
+      <c r="G104" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>1983</v>
+      </c>
+      <c r="B105" t="s">
+        <v>370</v>
+      </c>
+      <c r="C105" t="s">
+        <v>349</v>
+      </c>
+      <c r="D105" t="s">
+        <v>352</v>
+      </c>
+      <c r="E105">
+        <v>110</v>
+      </c>
+      <c r="F105">
+        <v>250</v>
+      </c>
+      <c r="G105" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>1984</v>
+      </c>
+      <c r="B106" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>1985</v>
+      </c>
+      <c r="B107" t="s">
+        <v>370</v>
+      </c>
+      <c r="C107" t="s">
+        <v>349</v>
+      </c>
+      <c r="D107" t="s">
+        <v>366</v>
+      </c>
+      <c r="E107">
+        <v>108</v>
+      </c>
+      <c r="F107">
+        <v>250</v>
+      </c>
+      <c r="G107" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>1986</v>
+      </c>
+      <c r="B108" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>1987</v>
+      </c>
+      <c r="B109" t="s">
+        <v>370</v>
+      </c>
+      <c r="C109" t="s">
+        <v>378</v>
+      </c>
+      <c r="D109" t="s">
+        <v>381</v>
+      </c>
+      <c r="E109">
+        <v>120</v>
+      </c>
+      <c r="F109">
+        <v>400</v>
+      </c>
+      <c r="G109" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>1988</v>
+      </c>
+      <c r="B110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C110" t="s">
+        <v>349</v>
+      </c>
+      <c r="D110" t="s">
+        <v>368</v>
+      </c>
+      <c r="E110">
+        <v>130</v>
+      </c>
+      <c r="F110">
+        <v>1000</v>
+      </c>
+      <c r="G110" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>1989</v>
+      </c>
+      <c r="B111" t="s">
+        <v>370</v>
+      </c>
+      <c r="C111" t="s">
+        <v>378</v>
+      </c>
+      <c r="D111" t="s">
+        <v>383</v>
+      </c>
+      <c r="E111">
+        <v>120</v>
+      </c>
+      <c r="F111">
+        <v>400</v>
+      </c>
+      <c r="G111" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>1990</v>
+      </c>
+      <c r="B112" t="s">
+        <v>370</v>
+      </c>
+      <c r="C112" t="s">
+        <v>378</v>
+      </c>
+      <c r="D112" t="s">
+        <v>377</v>
+      </c>
+      <c r="E112">
+        <v>137.5</v>
+      </c>
+      <c r="F112">
+        <v>1000</v>
+      </c>
+      <c r="G112" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>1991</v>
+      </c>
+      <c r="B113" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>1992</v>
+      </c>
+      <c r="B114" t="s">
+        <v>370</v>
+      </c>
+      <c r="C114" t="s">
+        <v>378</v>
+      </c>
+      <c r="D114" t="s">
+        <v>380</v>
+      </c>
+      <c r="E114">
+        <v>116</v>
+      </c>
+      <c r="F114">
+        <v>250</v>
+      </c>
+      <c r="G114" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>1993</v>
+      </c>
+      <c r="B115" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>1994</v>
+      </c>
+      <c r="B116" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>1995</v>
+      </c>
+      <c r="B117" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>1996</v>
+      </c>
+      <c r="B118" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>1997</v>
+      </c>
+      <c r="B119" t="s">
+        <v>370</v>
+      </c>
+      <c r="C119" t="s">
+        <v>378</v>
+      </c>
+      <c r="D119" t="s">
+        <v>385</v>
+      </c>
+      <c r="E119">
+        <v>110</v>
+      </c>
+      <c r="F119">
+        <v>400</v>
+      </c>
+      <c r="G119" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>1998</v>
+      </c>
+      <c r="B120" t="s">
+        <v>370</v>
+      </c>
+      <c r="C120" t="s">
+        <v>371</v>
+      </c>
+      <c r="D120" t="s">
+        <v>372</v>
+      </c>
+      <c r="E120">
+        <v>102</v>
+      </c>
+      <c r="F120">
+        <v>360</v>
+      </c>
+      <c r="G120" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>1999</v>
+      </c>
+      <c r="B121" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>2000</v>
+      </c>
+      <c r="B122" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>2001</v>
+      </c>
+      <c r="B123" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>2002</v>
+      </c>
+      <c r="B124" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>2003</v>
+      </c>
+      <c r="B125" t="s">
+        <v>370</v>
+      </c>
+      <c r="C125" t="s">
+        <v>371</v>
+      </c>
+      <c r="D125" t="s">
+        <v>373</v>
+      </c>
+      <c r="E125">
+        <v>104</v>
+      </c>
+      <c r="F125">
+        <v>250</v>
+      </c>
+      <c r="G125" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>2004</v>
+      </c>
+      <c r="B126" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>2005</v>
+      </c>
+      <c r="B127" t="s">
+        <v>370</v>
+      </c>
+      <c r="C127" t="s">
+        <v>378</v>
+      </c>
+      <c r="D127" t="s">
+        <v>387</v>
+      </c>
+      <c r="E127">
+        <v>139</v>
+      </c>
+      <c r="F127">
+        <v>1000</v>
+      </c>
+      <c r="G127" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>2006</v>
+      </c>
+      <c r="B128" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>2007</v>
+      </c>
+      <c r="B129" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>2008</v>
+      </c>
+      <c r="B130" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>2009</v>
+      </c>
+      <c r="B131" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>2010</v>
+      </c>
+      <c r="B132" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>2011</v>
+      </c>
+      <c r="B133" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>2012</v>
+      </c>
+      <c r="B134" t="s">
+        <v>370</v>
+      </c>
+      <c r="C134" t="s">
+        <v>394</v>
+      </c>
+      <c r="D134" t="s">
+        <v>393</v>
+      </c>
+      <c r="E134">
+        <v>85</v>
+      </c>
+      <c r="F134">
+        <v>100</v>
+      </c>
+      <c r="G134" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>2013</v>
+      </c>
+      <c r="B135" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>2014</v>
+      </c>
+      <c r="B136" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>2015</v>
+      </c>
+      <c r="B137" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>2016</v>
+      </c>
+      <c r="B138" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>2017</v>
+      </c>
+      <c r="B139" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>2018</v>
+      </c>
+      <c r="B140" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>2019</v>
+      </c>
+      <c r="B141" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>2020</v>
+      </c>
+      <c r="B142" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892130B0-4D3E-4381-8355-A56FEEA0ADAB}">
+  <dimension ref="A1:H142"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G134" sqref="G134"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1880</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1881</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1882</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>1883</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>1884</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="120"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>1885</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>1886</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>1887</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>1888</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>1889</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>1890</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>1891</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>1892</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>1893</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>1894</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1895</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1896</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1897</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1898</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1899</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1900</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>1901</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1902</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1903</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>1904</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>1905</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1906</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1907</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>1908</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>1909</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>1910</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>1911</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>1912</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>1913</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>1914</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>1915</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>1916</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>1917</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>1918</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>1919</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>1920</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>1921</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>1922</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>1923</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>1924</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>1925</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>1926</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>1927</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>1928</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>1929</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>1930</v>
+      </c>
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>1931</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>1932</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>1933</v>
+      </c>
+      <c r="B55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>1934</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>1935</v>
+      </c>
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>1936</v>
+      </c>
+      <c r="B58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>1937</v>
+      </c>
+      <c r="B59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>1938</v>
+      </c>
+      <c r="B60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>1939</v>
+      </c>
+      <c r="B61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>1940</v>
+      </c>
+      <c r="B62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>1941</v>
+      </c>
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>1942</v>
+      </c>
+      <c r="B64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>1943</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>1944</v>
+      </c>
+      <c r="B66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>1945</v>
+      </c>
+      <c r="B67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>1946</v>
+      </c>
+      <c r="B68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>1947</v>
+      </c>
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>1948</v>
+      </c>
+      <c r="B70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>1949</v>
+      </c>
+      <c r="B71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>1950</v>
+      </c>
+      <c r="B72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>1951</v>
+      </c>
+      <c r="B73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>1952</v>
+      </c>
+      <c r="B74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>1953</v>
+      </c>
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>1954</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>1955</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>1956</v>
+      </c>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>1957</v>
+      </c>
+      <c r="B79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>1958</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>1959</v>
+      </c>
+      <c r="B81" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>1960</v>
+      </c>
+      <c r="B82" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>1961</v>
+      </c>
+      <c r="B83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>1962</v>
+      </c>
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>1963</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>1964</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>1965</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>1966</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>1967</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>1968</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>1969</v>
+      </c>
+      <c r="B91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>1970</v>
+      </c>
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>1971</v>
+      </c>
+      <c r="B93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>1972</v>
+      </c>
+      <c r="B94" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>1973</v>
+      </c>
+      <c r="B95" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>1974</v>
+      </c>
+      <c r="B96" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>1975</v>
+      </c>
+      <c r="B97" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>1976</v>
+      </c>
+      <c r="B98" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" t="s">
+        <v>247</v>
+      </c>
+      <c r="D98" t="s">
+        <v>248</v>
+      </c>
+      <c r="E98">
+        <v>47.2</v>
+      </c>
+      <c r="F98">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>1977</v>
+      </c>
+      <c r="B99" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>1978</v>
+      </c>
+      <c r="B100" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>1979</v>
+      </c>
+      <c r="B101" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>1980</v>
+      </c>
+      <c r="B102" t="s">
+        <v>90</v>
+      </c>
+      <c r="C102" t="s">
+        <v>247</v>
+      </c>
+      <c r="D102" t="s">
+        <v>250</v>
+      </c>
+      <c r="E102">
+        <v>50</v>
+      </c>
+      <c r="F102">
+        <v>18</v>
+      </c>
+      <c r="G102" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>1981</v>
+      </c>
+      <c r="B103" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>1982</v>
+      </c>
+      <c r="B104" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D104" t="s">
+        <v>251</v>
+      </c>
+      <c r="E104">
+        <v>50</v>
+      </c>
+      <c r="F104">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>1983</v>
+      </c>
+      <c r="B105" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>1984</v>
+      </c>
+      <c r="B106" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>1985</v>
+      </c>
+      <c r="B107" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>1986</v>
+      </c>
+      <c r="B108" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>1987</v>
+      </c>
+      <c r="B109" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>1988</v>
+      </c>
+      <c r="B110" t="s">
+        <v>90</v>
+      </c>
+      <c r="C110" t="s">
+        <v>244</v>
+      </c>
+      <c r="D110" t="s">
+        <v>233</v>
+      </c>
+      <c r="E110">
+        <v>57</v>
+      </c>
+      <c r="F110">
+        <v>7</v>
+      </c>
+      <c r="G110" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>1989</v>
+      </c>
+      <c r="B111" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>1990</v>
+      </c>
+      <c r="B112" t="s">
+        <v>90</v>
+      </c>
+      <c r="C112" t="s">
+        <v>247</v>
+      </c>
+      <c r="D112" t="s">
+        <v>245</v>
+      </c>
+      <c r="E112">
+        <v>46.4</v>
+      </c>
+      <c r="F112">
+        <v>14</v>
+      </c>
+      <c r="G112" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>1991</v>
+      </c>
+      <c r="B113" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>1992</v>
+      </c>
+      <c r="B114" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>1993</v>
+      </c>
+      <c r="B115" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>1994</v>
+      </c>
+      <c r="B116" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>1995</v>
+      </c>
+      <c r="B117" t="s">
+        <v>90</v>
+      </c>
+      <c r="C117" t="s">
+        <v>244</v>
+      </c>
+      <c r="D117" t="s">
+        <v>235</v>
+      </c>
+      <c r="E117">
+        <v>42.7</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>1996</v>
+      </c>
+      <c r="B118" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>1997</v>
+      </c>
+      <c r="B119" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>1998</v>
+      </c>
+      <c r="B120" t="s">
+        <v>90</v>
+      </c>
+      <c r="C120" t="s">
+        <v>244</v>
+      </c>
+      <c r="D120" t="s">
+        <v>237</v>
+      </c>
+      <c r="E120">
+        <v>54.5</v>
+      </c>
+      <c r="F120">
+        <v>11</v>
+      </c>
+      <c r="G120" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="10" customFormat="1">
+      <c r="A121" s="10">
+        <v>1999</v>
+      </c>
+      <c r="B121" t="s">
+        <v>90</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E121" s="10">
+        <v>30</v>
+      </c>
+      <c r="F121" s="10">
+        <v>5</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>2000</v>
+      </c>
+      <c r="B122" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>2001</v>
+      </c>
+      <c r="B123" t="s">
+        <v>90</v>
+      </c>
+      <c r="D123" t="s">
+        <v>218</v>
+      </c>
+      <c r="E123">
+        <v>60</v>
+      </c>
+      <c r="G123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>2002</v>
+      </c>
+      <c r="B124" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>2003</v>
+      </c>
+      <c r="B125" t="s">
+        <v>90</v>
+      </c>
+      <c r="C125" t="s">
+        <v>244</v>
+      </c>
+      <c r="D125" t="s">
+        <v>241</v>
+      </c>
+      <c r="E125">
+        <v>54.5</v>
+      </c>
+      <c r="F125">
+        <v>11</v>
+      </c>
+      <c r="G125" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>2004</v>
+      </c>
+      <c r="B126" t="s">
+        <v>90</v>
+      </c>
+      <c r="C126" t="s">
+        <v>244</v>
+      </c>
+      <c r="D126" t="s">
+        <v>232</v>
+      </c>
+      <c r="E126">
+        <v>63</v>
+      </c>
+      <c r="F126">
+        <v>23</v>
+      </c>
+      <c r="G126" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>2005</v>
+      </c>
+      <c r="B127" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" t="s">
+        <v>244</v>
+      </c>
+      <c r="D127" t="s">
+        <v>230</v>
+      </c>
+      <c r="E127">
+        <v>63.1</v>
+      </c>
+      <c r="F127">
+        <v>42</v>
+      </c>
+      <c r="G127" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>2006</v>
+      </c>
+      <c r="B128" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>2007</v>
+      </c>
+      <c r="B129" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>2008</v>
+      </c>
+      <c r="B130" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>2009</v>
+      </c>
+      <c r="B131" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>2010</v>
+      </c>
+      <c r="B132" t="s">
+        <v>90</v>
+      </c>
+      <c r="C132" t="s">
+        <v>120</v>
+      </c>
+      <c r="D132" t="s">
+        <v>218</v>
+      </c>
+      <c r="E132">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="G132" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>2011</v>
+      </c>
+      <c r="B133" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>2012</v>
+      </c>
+      <c r="B134" t="s">
+        <v>90</v>
+      </c>
+      <c r="D134" t="s">
+        <v>395</v>
+      </c>
+      <c r="E134">
+        <v>61.1</v>
+      </c>
+      <c r="F134">
+        <v>9</v>
+      </c>
+      <c r="G134" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>2013</v>
+      </c>
+      <c r="B135" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>2014</v>
+      </c>
+      <c r="B136" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>2015</v>
+      </c>
+      <c r="B137" t="s">
+        <v>90</v>
+      </c>
+      <c r="C137" t="s">
+        <v>120</v>
+      </c>
+      <c r="D137" t="s">
+        <v>218</v>
+      </c>
+      <c r="E137">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="G137" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>2016</v>
+      </c>
+      <c r="B138" t="s">
+        <v>90</v>
+      </c>
+      <c r="D138" t="s">
+        <v>218</v>
+      </c>
+      <c r="E138">
+        <v>80</v>
+      </c>
+      <c r="F138">
+        <v>32.5</v>
+      </c>
+      <c r="G138" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>2017</v>
+      </c>
+      <c r="B139" t="s">
+        <v>90</v>
+      </c>
+      <c r="D139" t="s">
+        <v>218</v>
+      </c>
+      <c r="E139">
+        <v>81.2</v>
+      </c>
+      <c r="F139">
+        <v>32.5</v>
+      </c>
+      <c r="G139" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>2018</v>
+      </c>
+      <c r="B140" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>2019</v>
+      </c>
+      <c r="B141" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>2020</v>
+      </c>
+      <c r="B142" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDB671D-7717-4C97-9193-8C24EFD9DC8A}">
+  <dimension ref="A1:H142"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="6" width="24.77734375" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1880</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1881</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1882</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>1883</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>1884</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="120"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>1885</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>1886</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>1887</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>1888</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>1889</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>1890</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>1891</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>1892</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>1893</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>1894</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1895</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1896</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1897</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1898</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1899</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1900</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>1901</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1902</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1903</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>1904</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>1905</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1906</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1907</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>1908</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>1909</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>1910</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>1911</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>1912</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>1913</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>1914</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>1915</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>1916</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>1917</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>1918</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>1919</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>1920</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>1921</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>1922</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>1923</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>1924</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>1925</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>1926</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>1927</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>1928</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>1929</v>
+      </c>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>1930</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>1931</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>1932</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>1933</v>
+      </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>1934</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>1935</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>1936</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>1937</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>1938</v>
+      </c>
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>1939</v>
+      </c>
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>1940</v>
+      </c>
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>1941</v>
+      </c>
+      <c r="B63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>1942</v>
+      </c>
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>1943</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>1944</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>1945</v>
+      </c>
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>1946</v>
+      </c>
+      <c r="B68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>1947</v>
+      </c>
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>1948</v>
+      </c>
+      <c r="B70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>1949</v>
+      </c>
+      <c r="B71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>1950</v>
+      </c>
+      <c r="B72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>1951</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>1952</v>
+      </c>
+      <c r="B74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>1953</v>
+      </c>
+      <c r="B75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>1954</v>
+      </c>
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>1955</v>
+      </c>
+      <c r="B77" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>1956</v>
+      </c>
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>1957</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>1958</v>
+      </c>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>1959</v>
+      </c>
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>1960</v>
+      </c>
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>1961</v>
+      </c>
+      <c r="B83" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>1962</v>
+      </c>
+      <c r="B84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>1963</v>
+      </c>
+      <c r="B85" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>1964</v>
+      </c>
+      <c r="B86" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>1965</v>
+      </c>
+      <c r="B87" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>1966</v>
+      </c>
+      <c r="B88" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>1967</v>
+      </c>
+      <c r="B89" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>1968</v>
+      </c>
+      <c r="B90" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>1969</v>
+      </c>
+      <c r="B91" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>1970</v>
+      </c>
+      <c r="B92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>1971</v>
+      </c>
+      <c r="B93" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>1972</v>
+      </c>
+      <c r="B94" t="s">
+        <v>46</v>
+      </c>
+      <c r="D94" t="s">
+        <v>221</v>
+      </c>
+      <c r="E94">
+        <v>0.03</v>
+      </c>
+      <c r="G94" t="s">
+        <v>222</v>
+      </c>
+      <c r="H94" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>1973</v>
+      </c>
+      <c r="B95" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" t="s">
+        <v>223</v>
+      </c>
+      <c r="E95">
+        <v>0.03</v>
+      </c>
+      <c r="G95" t="s">
+        <v>224</v>
+      </c>
+      <c r="H95" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>1974</v>
+      </c>
+      <c r="B96" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>1975</v>
+      </c>
+      <c r="B97" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>1976</v>
+      </c>
+      <c r="B98" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>1977</v>
+      </c>
+      <c r="B99" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>1978</v>
+      </c>
+      <c r="B100" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>1979</v>
+      </c>
+      <c r="B101" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>1980</v>
+      </c>
+      <c r="B102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>1981</v>
+      </c>
+      <c r="B103" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>1982</v>
+      </c>
+      <c r="B104" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>1983</v>
+      </c>
+      <c r="B105" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>1984</v>
+      </c>
+      <c r="B106" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>1985</v>
+      </c>
+      <c r="B107" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>1986</v>
+      </c>
+      <c r="B108" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>1987</v>
+      </c>
+      <c r="B109" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>1988</v>
+      </c>
+      <c r="B110" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>1989</v>
+      </c>
+      <c r="B111" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>1990</v>
+      </c>
+      <c r="B112" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>1991</v>
+      </c>
+      <c r="B113" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>1992</v>
+      </c>
+      <c r="B114" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>1993</v>
+      </c>
+      <c r="B115" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>1994</v>
+      </c>
+      <c r="B116" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>1995</v>
+      </c>
+      <c r="B117" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>1996</v>
+      </c>
+      <c r="B118" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>1997</v>
+      </c>
+      <c r="B119" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>1998</v>
+      </c>
+      <c r="B120" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>1999</v>
+      </c>
+      <c r="B121" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>2000</v>
+      </c>
+      <c r="B122" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>2001</v>
+      </c>
+      <c r="B123" t="s">
+        <v>46</v>
+      </c>
+      <c r="D123" t="s">
+        <v>218</v>
+      </c>
+      <c r="E123">
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>2002</v>
+      </c>
+      <c r="B124" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>2003</v>
+      </c>
+      <c r="B125" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>2004</v>
+      </c>
+      <c r="B126" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>2005</v>
+      </c>
+      <c r="B127" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>2006</v>
+      </c>
+      <c r="B128" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>2007</v>
+      </c>
+      <c r="B129" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>2008</v>
+      </c>
+      <c r="B130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>2009</v>
+      </c>
+      <c r="B131" t="s">
+        <v>46</v>
+      </c>
+      <c r="D131" t="s">
+        <v>220</v>
+      </c>
+      <c r="E131">
+        <v>53</v>
+      </c>
+      <c r="F131">
+        <v>7</v>
+      </c>
+      <c r="G131" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>2010</v>
+      </c>
+      <c r="B132" t="s">
+        <v>46</v>
+      </c>
+      <c r="D132" t="s">
+        <v>218</v>
+      </c>
+      <c r="E132">
+        <v>55.8</v>
+      </c>
+      <c r="G132" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>2011</v>
+      </c>
+      <c r="B133" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>2012</v>
+      </c>
+      <c r="B134" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>2013</v>
+      </c>
+      <c r="B135" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>2014</v>
+      </c>
+      <c r="B136" t="s">
+        <v>46</v>
+      </c>
+      <c r="D136" t="s">
+        <v>400</v>
+      </c>
+      <c r="E136">
+        <v>75.5</v>
+      </c>
+      <c r="F136">
+        <v>11</v>
+      </c>
+      <c r="G136" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>2015</v>
+      </c>
+      <c r="B137" t="s">
+        <v>46</v>
+      </c>
+      <c r="D137" t="s">
+        <v>218</v>
+      </c>
+      <c r="E137">
+        <v>106.8</v>
+      </c>
+      <c r="G137" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>2016</v>
+      </c>
+      <c r="B138" t="s">
+        <v>46</v>
+      </c>
+      <c r="D138" t="s">
+        <v>218</v>
+      </c>
+      <c r="E138">
+        <v>114.3</v>
+      </c>
+      <c r="F138">
+        <v>7</v>
+      </c>
+      <c r="G138" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>2017</v>
+      </c>
+      <c r="B139" t="s">
+        <v>46</v>
+      </c>
+      <c r="D139" t="s">
+        <v>218</v>
+      </c>
+      <c r="E139">
+        <v>139</v>
+      </c>
+      <c r="F139">
+        <v>7</v>
+      </c>
+      <c r="G139" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>2018</v>
+      </c>
+      <c r="B140" t="s">
+        <v>46</v>
+      </c>
+      <c r="D140" t="s">
+        <v>218</v>
+      </c>
+      <c r="E140">
+        <v>154.5</v>
+      </c>
+      <c r="F140">
+        <v>5.5</v>
+      </c>
+      <c r="G140" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>2019</v>
+      </c>
+      <c r="B141" t="s">
+        <v>46</v>
+      </c>
+      <c r="D141" t="s">
+        <v>218</v>
+      </c>
+      <c r="E141">
+        <v>150</v>
+      </c>
+      <c r="F141">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>2020</v>
+      </c>
+      <c r="B142" t="s">
+        <v>46</v>
+      </c>
+      <c r="D142" t="s">
+        <v>218</v>
+      </c>
+      <c r="E142">
+        <v>147.1</v>
+      </c>
+      <c r="F142">
+        <v>34</v>
+      </c>
+      <c r="G142" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727D1E04-31A3-4998-85D9-AF32A9D150AF}">
   <dimension ref="A1:H142"/>
   <sheetViews>
@@ -26059,1413 +30331,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892130B0-4D3E-4381-8355-A56FEEA0ADAB}">
-  <dimension ref="A1:H142"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="24.77734375" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1880</v>
-      </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>1881</v>
-      </c>
-      <c r="B3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>1882</v>
-      </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>1883</v>
-      </c>
-      <c r="B5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>1884</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="120"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>1885</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>1886</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>1887</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>1888</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>1889</v>
-      </c>
-      <c r="B11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>1890</v>
-      </c>
-      <c r="B12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>1891</v>
-      </c>
-      <c r="B13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>1892</v>
-      </c>
-      <c r="B14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>1893</v>
-      </c>
-      <c r="B15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>1894</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>1895</v>
-      </c>
-      <c r="B17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>1896</v>
-      </c>
-      <c r="B18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1897</v>
-      </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1898</v>
-      </c>
-      <c r="B20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>1899</v>
-      </c>
-      <c r="B21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1900</v>
-      </c>
-      <c r="B22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1901</v>
-      </c>
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>1902</v>
-      </c>
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>1903</v>
-      </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>1904</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>1905</v>
-      </c>
-      <c r="B27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>1906</v>
-      </c>
-      <c r="B28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>1907</v>
-      </c>
-      <c r="B29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>1908</v>
-      </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>1909</v>
-      </c>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>1910</v>
-      </c>
-      <c r="B32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>1911</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>1912</v>
-      </c>
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>1913</v>
-      </c>
-      <c r="B35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>1914</v>
-      </c>
-      <c r="B36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>1915</v>
-      </c>
-      <c r="B37" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>1916</v>
-      </c>
-      <c r="B38" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>1917</v>
-      </c>
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>1918</v>
-      </c>
-      <c r="B40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>1919</v>
-      </c>
-      <c r="B41" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>1920</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>1921</v>
-      </c>
-      <c r="B43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>1922</v>
-      </c>
-      <c r="B44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>1923</v>
-      </c>
-      <c r="B45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>1924</v>
-      </c>
-      <c r="B46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>1925</v>
-      </c>
-      <c r="B47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>1926</v>
-      </c>
-      <c r="B48" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>1927</v>
-      </c>
-      <c r="B49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>1928</v>
-      </c>
-      <c r="B50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>1929</v>
-      </c>
-      <c r="B51" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>1930</v>
-      </c>
-      <c r="B52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>1931</v>
-      </c>
-      <c r="B53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>1932</v>
-      </c>
-      <c r="B54" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>1933</v>
-      </c>
-      <c r="B55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>1934</v>
-      </c>
-      <c r="B56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>1935</v>
-      </c>
-      <c r="B57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>1936</v>
-      </c>
-      <c r="B58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>1937</v>
-      </c>
-      <c r="B59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>1938</v>
-      </c>
-      <c r="B60" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>1939</v>
-      </c>
-      <c r="B61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>1940</v>
-      </c>
-      <c r="B62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>1941</v>
-      </c>
-      <c r="B63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>1942</v>
-      </c>
-      <c r="B64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>1943</v>
-      </c>
-      <c r="B65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>1944</v>
-      </c>
-      <c r="B66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>1945</v>
-      </c>
-      <c r="B67" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>1946</v>
-      </c>
-      <c r="B68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>1947</v>
-      </c>
-      <c r="B69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>1948</v>
-      </c>
-      <c r="B70" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>1949</v>
-      </c>
-      <c r="B71" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>1950</v>
-      </c>
-      <c r="B72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>1951</v>
-      </c>
-      <c r="B73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>1952</v>
-      </c>
-      <c r="B74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>1953</v>
-      </c>
-      <c r="B75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>1954</v>
-      </c>
-      <c r="B76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>1955</v>
-      </c>
-      <c r="B77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>1956</v>
-      </c>
-      <c r="B78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <v>1957</v>
-      </c>
-      <c r="B79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>1958</v>
-      </c>
-      <c r="B80" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
-        <v>1959</v>
-      </c>
-      <c r="B81" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
-        <v>1960</v>
-      </c>
-      <c r="B82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
-        <v>1961</v>
-      </c>
-      <c r="B83" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
-        <v>1962</v>
-      </c>
-      <c r="B84" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
-        <v>1963</v>
-      </c>
-      <c r="B85" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86">
-        <v>1964</v>
-      </c>
-      <c r="B86" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
-        <v>1965</v>
-      </c>
-      <c r="B87" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88">
-        <v>1966</v>
-      </c>
-      <c r="B88" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
-        <v>1967</v>
-      </c>
-      <c r="B89" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
-        <v>1968</v>
-      </c>
-      <c r="B90" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
-        <v>1969</v>
-      </c>
-      <c r="B91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
-        <v>1970</v>
-      </c>
-      <c r="B92" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
-        <v>1971</v>
-      </c>
-      <c r="B93" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
-        <v>1972</v>
-      </c>
-      <c r="B94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
-        <v>1973</v>
-      </c>
-      <c r="B95" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
-        <v>1974</v>
-      </c>
-      <c r="B96" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97">
-        <v>1975</v>
-      </c>
-      <c r="B97" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98">
-        <v>1976</v>
-      </c>
-      <c r="B98" t="s">
-        <v>90</v>
-      </c>
-      <c r="C98" t="s">
-        <v>247</v>
-      </c>
-      <c r="D98" t="s">
-        <v>248</v>
-      </c>
-      <c r="E98">
-        <v>47.2</v>
-      </c>
-      <c r="F98">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99">
-        <v>1977</v>
-      </c>
-      <c r="B99" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100">
-        <v>1978</v>
-      </c>
-      <c r="B100" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101">
-        <v>1979</v>
-      </c>
-      <c r="B101" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102">
-        <v>1980</v>
-      </c>
-      <c r="B102" t="s">
-        <v>90</v>
-      </c>
-      <c r="C102" t="s">
-        <v>247</v>
-      </c>
-      <c r="D102" t="s">
-        <v>250</v>
-      </c>
-      <c r="E102">
-        <v>50</v>
-      </c>
-      <c r="F102">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103">
-        <v>1981</v>
-      </c>
-      <c r="B103" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104">
-        <v>1982</v>
-      </c>
-      <c r="B104" t="s">
-        <v>90</v>
-      </c>
-      <c r="C104" t="s">
-        <v>247</v>
-      </c>
-      <c r="D104" t="s">
-        <v>251</v>
-      </c>
-      <c r="E104">
-        <v>50</v>
-      </c>
-      <c r="F104">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105">
-        <v>1983</v>
-      </c>
-      <c r="B105" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106">
-        <v>1984</v>
-      </c>
-      <c r="B106" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107">
-        <v>1985</v>
-      </c>
-      <c r="B107" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108">
-        <v>1986</v>
-      </c>
-      <c r="B108" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109">
-        <v>1987</v>
-      </c>
-      <c r="B109" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110">
-        <v>1988</v>
-      </c>
-      <c r="B110" t="s">
-        <v>90</v>
-      </c>
-      <c r="C110" t="s">
-        <v>244</v>
-      </c>
-      <c r="D110" t="s">
-        <v>233</v>
-      </c>
-      <c r="E110">
-        <v>57</v>
-      </c>
-      <c r="F110">
-        <v>7</v>
-      </c>
-      <c r="G110" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111">
-        <v>1989</v>
-      </c>
-      <c r="B111" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112">
-        <v>1990</v>
-      </c>
-      <c r="B112" t="s">
-        <v>90</v>
-      </c>
-      <c r="C112" t="s">
-        <v>247</v>
-      </c>
-      <c r="D112" t="s">
-        <v>245</v>
-      </c>
-      <c r="E112">
-        <v>46.4</v>
-      </c>
-      <c r="F112">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113">
-        <v>1991</v>
-      </c>
-      <c r="B113" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114">
-        <v>1992</v>
-      </c>
-      <c r="B114" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115">
-        <v>1993</v>
-      </c>
-      <c r="B115" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116">
-        <v>1994</v>
-      </c>
-      <c r="B116" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117">
-        <v>1995</v>
-      </c>
-      <c r="B117" t="s">
-        <v>90</v>
-      </c>
-      <c r="C117" t="s">
-        <v>244</v>
-      </c>
-      <c r="D117" t="s">
-        <v>235</v>
-      </c>
-      <c r="E117">
-        <v>42.7</v>
-      </c>
-      <c r="F117">
-        <v>15</v>
-      </c>
-      <c r="G117" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118">
-        <v>1996</v>
-      </c>
-      <c r="B118" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119">
-        <v>1997</v>
-      </c>
-      <c r="B119" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120">
-        <v>1998</v>
-      </c>
-      <c r="B120" t="s">
-        <v>90</v>
-      </c>
-      <c r="C120" t="s">
-        <v>244</v>
-      </c>
-      <c r="D120" t="s">
-        <v>237</v>
-      </c>
-      <c r="E120">
-        <v>54.5</v>
-      </c>
-      <c r="F120">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="10" customFormat="1">
-      <c r="A121" s="10">
-        <v>1999</v>
-      </c>
-      <c r="B121" t="s">
-        <v>90</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E121" s="10">
-        <v>30</v>
-      </c>
-      <c r="F121" s="10">
-        <v>5</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122">
-        <v>2000</v>
-      </c>
-      <c r="B122" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123">
-        <v>2001</v>
-      </c>
-      <c r="B123" t="s">
-        <v>90</v>
-      </c>
-      <c r="D123" t="s">
-        <v>218</v>
-      </c>
-      <c r="E123">
-        <v>60</v>
-      </c>
-      <c r="G123" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124">
-        <v>2002</v>
-      </c>
-      <c r="B124" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125">
-        <v>2003</v>
-      </c>
-      <c r="B125" t="s">
-        <v>90</v>
-      </c>
-      <c r="C125" t="s">
-        <v>244</v>
-      </c>
-      <c r="D125" t="s">
-        <v>241</v>
-      </c>
-      <c r="E125">
-        <v>54.5</v>
-      </c>
-      <c r="F125">
-        <v>11</v>
-      </c>
-      <c r="G125" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126">
-        <v>2004</v>
-      </c>
-      <c r="B126" t="s">
-        <v>90</v>
-      </c>
-      <c r="C126" t="s">
-        <v>244</v>
-      </c>
-      <c r="D126" t="s">
-        <v>232</v>
-      </c>
-      <c r="E126">
-        <v>63</v>
-      </c>
-      <c r="F126">
-        <v>23</v>
-      </c>
-      <c r="G126" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127">
-        <v>2005</v>
-      </c>
-      <c r="B127" t="s">
-        <v>90</v>
-      </c>
-      <c r="C127" t="s">
-        <v>244</v>
-      </c>
-      <c r="D127" t="s">
-        <v>230</v>
-      </c>
-      <c r="E127">
-        <v>63.1</v>
-      </c>
-      <c r="F127">
-        <v>42</v>
-      </c>
-      <c r="G127" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128">
-        <v>2006</v>
-      </c>
-      <c r="B128" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129">
-        <v>2007</v>
-      </c>
-      <c r="B129" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130">
-        <v>2008</v>
-      </c>
-      <c r="B130" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131">
-        <v>2009</v>
-      </c>
-      <c r="B131" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132">
-        <v>2010</v>
-      </c>
-      <c r="B132" t="s">
-        <v>90</v>
-      </c>
-      <c r="C132" t="s">
-        <v>120</v>
-      </c>
-      <c r="D132" t="s">
-        <v>218</v>
-      </c>
-      <c r="E132">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="G132" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133">
-        <v>2011</v>
-      </c>
-      <c r="B133" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134">
-        <v>2012</v>
-      </c>
-      <c r="B134" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135">
-        <v>2013</v>
-      </c>
-      <c r="B135" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136">
-        <v>2014</v>
-      </c>
-      <c r="B136" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137">
-        <v>2015</v>
-      </c>
-      <c r="B137" t="s">
-        <v>90</v>
-      </c>
-      <c r="C137" t="s">
-        <v>120</v>
-      </c>
-      <c r="D137" t="s">
-        <v>218</v>
-      </c>
-      <c r="E137">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="G137" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138">
-        <v>2016</v>
-      </c>
-      <c r="B138" t="s">
-        <v>90</v>
-      </c>
-      <c r="D138" t="s">
-        <v>218</v>
-      </c>
-      <c r="E138">
-        <v>80</v>
-      </c>
-      <c r="F138">
-        <v>32.5</v>
-      </c>
-      <c r="G138" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139">
-        <v>2017</v>
-      </c>
-      <c r="B139" t="s">
-        <v>90</v>
-      </c>
-      <c r="D139" t="s">
-        <v>218</v>
-      </c>
-      <c r="E139">
-        <v>81.2</v>
-      </c>
-      <c r="F139">
-        <v>32.5</v>
-      </c>
-      <c r="G139" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140">
-        <v>2018</v>
-      </c>
-      <c r="B140" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141">
-        <v>2019</v>
-      </c>
-      <c r="B141" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142">
-        <v>2020</v>
-      </c>
-      <c r="B142" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0293270E-AF53-4651-A405-EC07D674C941}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28841,2797 +31712,6 @@
     <hyperlink ref="G109" r:id="rId6" xr:uid="{32C564A0-5280-4FEA-B035-EE943120ADF6}"/>
     <hyperlink ref="G85" r:id="rId7" xr:uid="{F83E7EA5-2F46-4B54-8DB3-0AAE0548AAB7}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDB671D-7717-4C97-9193-8C24EFD9DC8A}">
-  <dimension ref="A1:H142"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E148" sqref="E148"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="6" width="24.77734375" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1880</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>1881</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>1882</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>1883</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>1884</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="120"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>1885</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>1886</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>1887</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>1888</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>1889</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>1890</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>1891</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>1892</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>1893</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>1894</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>1895</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>1896</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1897</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1898</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>1899</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1900</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1901</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>1902</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>1903</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>1904</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>1905</v>
-      </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>1906</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>1907</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>1908</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>1909</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>1910</v>
-      </c>
-      <c r="B32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>1911</v>
-      </c>
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>1912</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>1913</v>
-      </c>
-      <c r="B35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>1914</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>1915</v>
-      </c>
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>1916</v>
-      </c>
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>1917</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>1918</v>
-      </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>1919</v>
-      </c>
-      <c r="B41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>1920</v>
-      </c>
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>1921</v>
-      </c>
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>1922</v>
-      </c>
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>1923</v>
-      </c>
-      <c r="B45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>1924</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>1925</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>1926</v>
-      </c>
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>1927</v>
-      </c>
-      <c r="B49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>1928</v>
-      </c>
-      <c r="B50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>1929</v>
-      </c>
-      <c r="B51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>1930</v>
-      </c>
-      <c r="B52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>1931</v>
-      </c>
-      <c r="B53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>1932</v>
-      </c>
-      <c r="B54" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>1933</v>
-      </c>
-      <c r="B55" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>1934</v>
-      </c>
-      <c r="B56" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>1935</v>
-      </c>
-      <c r="B57" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>1936</v>
-      </c>
-      <c r="B58" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>1937</v>
-      </c>
-      <c r="B59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>1938</v>
-      </c>
-      <c r="B60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>1939</v>
-      </c>
-      <c r="B61" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>1940</v>
-      </c>
-      <c r="B62" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>1941</v>
-      </c>
-      <c r="B63" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>1942</v>
-      </c>
-      <c r="B64" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>1943</v>
-      </c>
-      <c r="B65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>1944</v>
-      </c>
-      <c r="B66" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>1945</v>
-      </c>
-      <c r="B67" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>1946</v>
-      </c>
-      <c r="B68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>1947</v>
-      </c>
-      <c r="B69" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>1948</v>
-      </c>
-      <c r="B70" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>1949</v>
-      </c>
-      <c r="B71" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>1950</v>
-      </c>
-      <c r="B72" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>1951</v>
-      </c>
-      <c r="B73" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>1952</v>
-      </c>
-      <c r="B74" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>1953</v>
-      </c>
-      <c r="B75" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>1954</v>
-      </c>
-      <c r="B76" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>1955</v>
-      </c>
-      <c r="B77" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>1956</v>
-      </c>
-      <c r="B78" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <v>1957</v>
-      </c>
-      <c r="B79" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>1958</v>
-      </c>
-      <c r="B80" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81">
-        <v>1959</v>
-      </c>
-      <c r="B81" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82">
-        <v>1960</v>
-      </c>
-      <c r="B82" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83">
-        <v>1961</v>
-      </c>
-      <c r="B83" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84">
-        <v>1962</v>
-      </c>
-      <c r="B84" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85">
-        <v>1963</v>
-      </c>
-      <c r="B85" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86">
-        <v>1964</v>
-      </c>
-      <c r="B86" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87">
-        <v>1965</v>
-      </c>
-      <c r="B87" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88">
-        <v>1966</v>
-      </c>
-      <c r="B88" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89">
-        <v>1967</v>
-      </c>
-      <c r="B89" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90">
-        <v>1968</v>
-      </c>
-      <c r="B90" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91">
-        <v>1969</v>
-      </c>
-      <c r="B91" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92">
-        <v>1970</v>
-      </c>
-      <c r="B92" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93">
-        <v>1971</v>
-      </c>
-      <c r="B93" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94">
-        <v>1972</v>
-      </c>
-      <c r="B94" t="s">
-        <v>46</v>
-      </c>
-      <c r="D94" t="s">
-        <v>221</v>
-      </c>
-      <c r="E94">
-        <v>0.03</v>
-      </c>
-      <c r="G94" t="s">
-        <v>222</v>
-      </c>
-      <c r="H94" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95">
-        <v>1973</v>
-      </c>
-      <c r="B95" t="s">
-        <v>46</v>
-      </c>
-      <c r="D95" t="s">
-        <v>223</v>
-      </c>
-      <c r="E95">
-        <v>0.03</v>
-      </c>
-      <c r="G95" t="s">
-        <v>224</v>
-      </c>
-      <c r="H95" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96">
-        <v>1974</v>
-      </c>
-      <c r="B96" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
-        <v>1975</v>
-      </c>
-      <c r="B97" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98">
-        <v>1976</v>
-      </c>
-      <c r="B98" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99">
-        <v>1977</v>
-      </c>
-      <c r="B99" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100">
-        <v>1978</v>
-      </c>
-      <c r="B100" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101">
-        <v>1979</v>
-      </c>
-      <c r="B101" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102">
-        <v>1980</v>
-      </c>
-      <c r="B102" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103">
-        <v>1981</v>
-      </c>
-      <c r="B103" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104">
-        <v>1982</v>
-      </c>
-      <c r="B104" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105">
-        <v>1983</v>
-      </c>
-      <c r="B105" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106">
-        <v>1984</v>
-      </c>
-      <c r="B106" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107">
-        <v>1985</v>
-      </c>
-      <c r="B107" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108">
-        <v>1986</v>
-      </c>
-      <c r="B108" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109">
-        <v>1987</v>
-      </c>
-      <c r="B109" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110">
-        <v>1988</v>
-      </c>
-      <c r="B110" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111">
-        <v>1989</v>
-      </c>
-      <c r="B111" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112">
-        <v>1990</v>
-      </c>
-      <c r="B112" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113">
-        <v>1991</v>
-      </c>
-      <c r="B113" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114">
-        <v>1992</v>
-      </c>
-      <c r="B114" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115">
-        <v>1993</v>
-      </c>
-      <c r="B115" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116">
-        <v>1994</v>
-      </c>
-      <c r="B116" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117">
-        <v>1995</v>
-      </c>
-      <c r="B117" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118">
-        <v>1996</v>
-      </c>
-      <c r="B118" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119">
-        <v>1997</v>
-      </c>
-      <c r="B119" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120">
-        <v>1998</v>
-      </c>
-      <c r="B120" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121">
-        <v>1999</v>
-      </c>
-      <c r="B121" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122">
-        <v>2000</v>
-      </c>
-      <c r="B122" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123">
-        <v>2001</v>
-      </c>
-      <c r="B123" t="s">
-        <v>46</v>
-      </c>
-      <c r="D123" t="s">
-        <v>218</v>
-      </c>
-      <c r="E123">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124">
-        <v>2002</v>
-      </c>
-      <c r="B124" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125">
-        <v>2003</v>
-      </c>
-      <c r="B125" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126">
-        <v>2004</v>
-      </c>
-      <c r="B126" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127">
-        <v>2005</v>
-      </c>
-      <c r="B127" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128">
-        <v>2006</v>
-      </c>
-      <c r="B128" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129">
-        <v>2007</v>
-      </c>
-      <c r="B129" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130">
-        <v>2008</v>
-      </c>
-      <c r="B130" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131">
-        <v>2009</v>
-      </c>
-      <c r="B131" t="s">
-        <v>46</v>
-      </c>
-      <c r="D131" t="s">
-        <v>220</v>
-      </c>
-      <c r="E131">
-        <v>53</v>
-      </c>
-      <c r="F131">
-        <v>7</v>
-      </c>
-      <c r="G131" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132">
-        <v>2010</v>
-      </c>
-      <c r="B132" t="s">
-        <v>46</v>
-      </c>
-      <c r="D132" t="s">
-        <v>218</v>
-      </c>
-      <c r="E132">
-        <v>55.8</v>
-      </c>
-      <c r="G132" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133">
-        <v>2011</v>
-      </c>
-      <c r="B133" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134">
-        <v>2012</v>
-      </c>
-      <c r="B134" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135">
-        <v>2013</v>
-      </c>
-      <c r="B135" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136">
-        <v>2014</v>
-      </c>
-      <c r="B136" t="s">
-        <v>46</v>
-      </c>
-      <c r="D136" t="s">
-        <v>218</v>
-      </c>
-      <c r="E136">
-        <v>79.2</v>
-      </c>
-      <c r="F136">
-        <v>12</v>
-      </c>
-      <c r="G136" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137">
-        <v>2015</v>
-      </c>
-      <c r="B137" t="s">
-        <v>46</v>
-      </c>
-      <c r="D137" t="s">
-        <v>218</v>
-      </c>
-      <c r="E137">
-        <v>106.8</v>
-      </c>
-      <c r="G137" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138">
-        <v>2016</v>
-      </c>
-      <c r="B138" t="s">
-        <v>46</v>
-      </c>
-      <c r="D138" t="s">
-        <v>218</v>
-      </c>
-      <c r="E138">
-        <v>114.3</v>
-      </c>
-      <c r="F138">
-        <v>7</v>
-      </c>
-      <c r="G138" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139">
-        <v>2017</v>
-      </c>
-      <c r="B139" t="s">
-        <v>46</v>
-      </c>
-      <c r="D139" t="s">
-        <v>218</v>
-      </c>
-      <c r="E139">
-        <v>139</v>
-      </c>
-      <c r="F139">
-        <v>7</v>
-      </c>
-      <c r="G139" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140">
-        <v>2018</v>
-      </c>
-      <c r="B140" t="s">
-        <v>46</v>
-      </c>
-      <c r="D140" t="s">
-        <v>218</v>
-      </c>
-      <c r="E140">
-        <v>154.5</v>
-      </c>
-      <c r="F140">
-        <v>5.5</v>
-      </c>
-      <c r="G140" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141">
-        <v>2019</v>
-      </c>
-      <c r="B141" t="s">
-        <v>46</v>
-      </c>
-      <c r="D141" t="s">
-        <v>218</v>
-      </c>
-      <c r="E141">
-        <v>150</v>
-      </c>
-      <c r="F141">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142">
-        <v>2020</v>
-      </c>
-      <c r="B142" t="s">
-        <v>46</v>
-      </c>
-      <c r="D142" t="s">
-        <v>218</v>
-      </c>
-      <c r="E142">
-        <v>147.1</v>
-      </c>
-      <c r="F142">
-        <v>34</v>
-      </c>
-      <c r="G142" t="s">
-        <v>217</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0149D0B9-E1D4-4002-B3E6-86AD6A91C712}">
-  <dimension ref="A1:H142"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1880</v>
-      </c>
-      <c r="B2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>1881</v>
-      </c>
-      <c r="B3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>1882</v>
-      </c>
-      <c r="B4" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>1883</v>
-      </c>
-      <c r="B5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>1884</v>
-      </c>
-      <c r="B6" t="s">
-        <v>370</v>
-      </c>
-      <c r="E6" s="120"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>1885</v>
-      </c>
-      <c r="B7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>1886</v>
-      </c>
-      <c r="B8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>1887</v>
-      </c>
-      <c r="B9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>1888</v>
-      </c>
-      <c r="B10" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>1889</v>
-      </c>
-      <c r="B11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>1890</v>
-      </c>
-      <c r="B12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>1891</v>
-      </c>
-      <c r="B13" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>1892</v>
-      </c>
-      <c r="B14" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>1893</v>
-      </c>
-      <c r="B15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>1894</v>
-      </c>
-      <c r="B16" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>1895</v>
-      </c>
-      <c r="B17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>1896</v>
-      </c>
-      <c r="B18" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1897</v>
-      </c>
-      <c r="B19" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1898</v>
-      </c>
-      <c r="B20" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>1899</v>
-      </c>
-      <c r="B21" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1900</v>
-      </c>
-      <c r="B22" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1901</v>
-      </c>
-      <c r="B23" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>1902</v>
-      </c>
-      <c r="B24" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>1903</v>
-      </c>
-      <c r="B25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>1904</v>
-      </c>
-      <c r="B26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>1905</v>
-      </c>
-      <c r="B27" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>1906</v>
-      </c>
-      <c r="B28" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>1907</v>
-      </c>
-      <c r="B29" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>1908</v>
-      </c>
-      <c r="B30" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>1909</v>
-      </c>
-      <c r="B31" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>1910</v>
-      </c>
-      <c r="B32" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>1911</v>
-      </c>
-      <c r="B33" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>1912</v>
-      </c>
-      <c r="B34" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>1913</v>
-      </c>
-      <c r="B35" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>1914</v>
-      </c>
-      <c r="B36" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>1915</v>
-      </c>
-      <c r="B37" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>1916</v>
-      </c>
-      <c r="B38" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>1917</v>
-      </c>
-      <c r="B39" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>1918</v>
-      </c>
-      <c r="B40" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>1919</v>
-      </c>
-      <c r="B41" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>1920</v>
-      </c>
-      <c r="B42" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>1921</v>
-      </c>
-      <c r="B43" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>1922</v>
-      </c>
-      <c r="B44" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>1923</v>
-      </c>
-      <c r="B45" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>1924</v>
-      </c>
-      <c r="B46" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>1925</v>
-      </c>
-      <c r="B47" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>1926</v>
-      </c>
-      <c r="B48" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>1927</v>
-      </c>
-      <c r="B49" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>1928</v>
-      </c>
-      <c r="B50" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>1929</v>
-      </c>
-      <c r="B51" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>1930</v>
-      </c>
-      <c r="B52" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>1931</v>
-      </c>
-      <c r="B53" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>1932</v>
-      </c>
-      <c r="B54" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>1933</v>
-      </c>
-      <c r="B55" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>1934</v>
-      </c>
-      <c r="B56" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>1935</v>
-      </c>
-      <c r="B57" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>1936</v>
-      </c>
-      <c r="B58" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>1937</v>
-      </c>
-      <c r="B59" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>1938</v>
-      </c>
-      <c r="B60" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>1939</v>
-      </c>
-      <c r="B61" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>1940</v>
-      </c>
-      <c r="B62" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>1941</v>
-      </c>
-      <c r="B63" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>1942</v>
-      </c>
-      <c r="B64" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>1943</v>
-      </c>
-      <c r="B65" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>1944</v>
-      </c>
-      <c r="B66" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>1945</v>
-      </c>
-      <c r="B67" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>1946</v>
-      </c>
-      <c r="B68" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>1947</v>
-      </c>
-      <c r="B69" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>1948</v>
-      </c>
-      <c r="B70" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>1949</v>
-      </c>
-      <c r="B71" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>1950</v>
-      </c>
-      <c r="B72" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>1951</v>
-      </c>
-      <c r="B73" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>1952</v>
-      </c>
-      <c r="B74" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>1953</v>
-      </c>
-      <c r="B75" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>1954</v>
-      </c>
-      <c r="B76" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>1955</v>
-      </c>
-      <c r="B77" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>1956</v>
-      </c>
-      <c r="B78" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <v>1957</v>
-      </c>
-      <c r="B79" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>1958</v>
-      </c>
-      <c r="B80" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81">
-        <v>1959</v>
-      </c>
-      <c r="B81" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82">
-        <v>1960</v>
-      </c>
-      <c r="B82" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83">
-        <v>1961</v>
-      </c>
-      <c r="B83" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84">
-        <v>1962</v>
-      </c>
-      <c r="B84" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85">
-        <v>1963</v>
-      </c>
-      <c r="B85" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86">
-        <v>1964</v>
-      </c>
-      <c r="B86" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87">
-        <v>1965</v>
-      </c>
-      <c r="B87" t="s">
-        <v>370</v>
-      </c>
-      <c r="C87" t="s">
-        <v>349</v>
-      </c>
-      <c r="D87" t="s">
-        <v>347</v>
-      </c>
-      <c r="E87">
-        <v>100</v>
-      </c>
-      <c r="F87">
-        <v>500</v>
-      </c>
-      <c r="G87" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88">
-        <v>1966</v>
-      </c>
-      <c r="B88" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89">
-        <v>1967</v>
-      </c>
-      <c r="B89" t="s">
-        <v>370</v>
-      </c>
-      <c r="C89" t="s">
-        <v>349</v>
-      </c>
-      <c r="D89" t="s">
-        <v>356</v>
-      </c>
-      <c r="E89">
-        <v>110</v>
-      </c>
-      <c r="F89">
-        <v>400</v>
-      </c>
-      <c r="G89" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90">
-        <v>1968</v>
-      </c>
-      <c r="B90" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91">
-        <v>1969</v>
-      </c>
-      <c r="B91" t="s">
-        <v>370</v>
-      </c>
-      <c r="C91" t="s">
-        <v>349</v>
-      </c>
-      <c r="D91" t="s">
-        <v>358</v>
-      </c>
-      <c r="E91">
-        <v>100</v>
-      </c>
-      <c r="F91">
-        <v>250</v>
-      </c>
-      <c r="G91" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92">
-        <v>1970</v>
-      </c>
-      <c r="B92" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93">
-        <v>1971</v>
-      </c>
-      <c r="B93" t="s">
-        <v>370</v>
-      </c>
-      <c r="C93" t="s">
-        <v>349</v>
-      </c>
-      <c r="D93" t="s">
-        <v>350</v>
-      </c>
-      <c r="E93">
-        <v>117.5</v>
-      </c>
-      <c r="F93">
-        <v>400</v>
-      </c>
-      <c r="G93" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94">
-        <v>1972</v>
-      </c>
-      <c r="B94" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95">
-        <v>1973</v>
-      </c>
-      <c r="B95" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96">
-        <v>1974</v>
-      </c>
-      <c r="B96" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97">
-        <v>1975</v>
-      </c>
-      <c r="B97" t="s">
-        <v>370</v>
-      </c>
-      <c r="C97" t="s">
-        <v>349</v>
-      </c>
-      <c r="D97" t="s">
-        <v>360</v>
-      </c>
-      <c r="E97">
-        <v>110</v>
-      </c>
-      <c r="F97">
-        <v>400</v>
-      </c>
-      <c r="G97" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98">
-        <v>1976</v>
-      </c>
-      <c r="B98" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99">
-        <v>1977</v>
-      </c>
-      <c r="B99" t="s">
-        <v>370</v>
-      </c>
-      <c r="C99" t="s">
-        <v>391</v>
-      </c>
-      <c r="D99" t="s">
-        <v>390</v>
-      </c>
-      <c r="E99">
-        <v>120</v>
-      </c>
-      <c r="F99">
-        <v>250</v>
-      </c>
-      <c r="G99" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100">
-        <v>1978</v>
-      </c>
-      <c r="B100" t="s">
-        <v>370</v>
-      </c>
-      <c r="C100" t="s">
-        <v>349</v>
-      </c>
-      <c r="D100" t="s">
-        <v>362</v>
-      </c>
-      <c r="E100">
-        <v>110</v>
-      </c>
-      <c r="F100">
-        <v>400</v>
-      </c>
-      <c r="G100" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101">
-        <v>1979</v>
-      </c>
-      <c r="B101" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102">
-        <v>1980</v>
-      </c>
-      <c r="B102" t="s">
-        <v>370</v>
-      </c>
-      <c r="C102" t="s">
-        <v>349</v>
-      </c>
-      <c r="D102" t="s">
-        <v>354</v>
-      </c>
-      <c r="E102">
-        <v>140</v>
-      </c>
-      <c r="F102">
-        <v>1000</v>
-      </c>
-      <c r="G102" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103">
-        <v>1981</v>
-      </c>
-      <c r="B103" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104">
-        <v>1982</v>
-      </c>
-      <c r="B104" t="s">
-        <v>370</v>
-      </c>
-      <c r="C104" t="s">
-        <v>349</v>
-      </c>
-      <c r="D104" t="s">
-        <v>364</v>
-      </c>
-      <c r="E104">
-        <v>110</v>
-      </c>
-      <c r="F104">
-        <v>200</v>
-      </c>
-      <c r="G104" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105">
-        <v>1983</v>
-      </c>
-      <c r="B105" t="s">
-        <v>370</v>
-      </c>
-      <c r="C105" t="s">
-        <v>349</v>
-      </c>
-      <c r="D105" t="s">
-        <v>352</v>
-      </c>
-      <c r="E105">
-        <v>110</v>
-      </c>
-      <c r="F105">
-        <v>250</v>
-      </c>
-      <c r="G105" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106">
-        <v>1984</v>
-      </c>
-      <c r="B106" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107">
-        <v>1985</v>
-      </c>
-      <c r="B107" t="s">
-        <v>370</v>
-      </c>
-      <c r="C107" t="s">
-        <v>349</v>
-      </c>
-      <c r="D107" t="s">
-        <v>366</v>
-      </c>
-      <c r="E107">
-        <v>108</v>
-      </c>
-      <c r="F107">
-        <v>250</v>
-      </c>
-      <c r="G107" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108">
-        <v>1986</v>
-      </c>
-      <c r="B108" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109">
-        <v>1987</v>
-      </c>
-      <c r="B109" t="s">
-        <v>370</v>
-      </c>
-      <c r="C109" t="s">
-        <v>378</v>
-      </c>
-      <c r="D109" t="s">
-        <v>381</v>
-      </c>
-      <c r="E109">
-        <v>120</v>
-      </c>
-      <c r="F109">
-        <v>400</v>
-      </c>
-      <c r="G109" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110">
-        <v>1988</v>
-      </c>
-      <c r="B110" t="s">
-        <v>370</v>
-      </c>
-      <c r="C110" t="s">
-        <v>349</v>
-      </c>
-      <c r="D110" t="s">
-        <v>368</v>
-      </c>
-      <c r="E110">
-        <v>130</v>
-      </c>
-      <c r="F110">
-        <v>1000</v>
-      </c>
-      <c r="G110" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111">
-        <v>1989</v>
-      </c>
-      <c r="B111" t="s">
-        <v>370</v>
-      </c>
-      <c r="C111" t="s">
-        <v>378</v>
-      </c>
-      <c r="D111" t="s">
-        <v>383</v>
-      </c>
-      <c r="E111">
-        <v>120</v>
-      </c>
-      <c r="F111">
-        <v>400</v>
-      </c>
-      <c r="G111" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112">
-        <v>1990</v>
-      </c>
-      <c r="B112" t="s">
-        <v>370</v>
-      </c>
-      <c r="C112" t="s">
-        <v>378</v>
-      </c>
-      <c r="D112" t="s">
-        <v>377</v>
-      </c>
-      <c r="E112">
-        <v>137.5</v>
-      </c>
-      <c r="F112">
-        <v>1000</v>
-      </c>
-      <c r="G112" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113">
-        <v>1991</v>
-      </c>
-      <c r="B113" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114">
-        <v>1992</v>
-      </c>
-      <c r="B114" t="s">
-        <v>370</v>
-      </c>
-      <c r="C114" t="s">
-        <v>378</v>
-      </c>
-      <c r="D114" t="s">
-        <v>380</v>
-      </c>
-      <c r="E114">
-        <v>116</v>
-      </c>
-      <c r="F114">
-        <v>250</v>
-      </c>
-      <c r="G114" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115">
-        <v>1993</v>
-      </c>
-      <c r="B115" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116">
-        <v>1994</v>
-      </c>
-      <c r="B116" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117">
-        <v>1995</v>
-      </c>
-      <c r="B117" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118">
-        <v>1996</v>
-      </c>
-      <c r="B118" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119">
-        <v>1997</v>
-      </c>
-      <c r="B119" t="s">
-        <v>370</v>
-      </c>
-      <c r="C119" t="s">
-        <v>378</v>
-      </c>
-      <c r="D119" t="s">
-        <v>385</v>
-      </c>
-      <c r="E119">
-        <v>110</v>
-      </c>
-      <c r="F119">
-        <v>400</v>
-      </c>
-      <c r="G119" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120">
-        <v>1998</v>
-      </c>
-      <c r="B120" t="s">
-        <v>370</v>
-      </c>
-      <c r="C120" t="s">
-        <v>371</v>
-      </c>
-      <c r="D120" t="s">
-        <v>372</v>
-      </c>
-      <c r="E120">
-        <v>102</v>
-      </c>
-      <c r="F120">
-        <v>360</v>
-      </c>
-      <c r="G120" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121">
-        <v>1999</v>
-      </c>
-      <c r="B121" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122">
-        <v>2000</v>
-      </c>
-      <c r="B122" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123">
-        <v>2001</v>
-      </c>
-      <c r="B123" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124">
-        <v>2002</v>
-      </c>
-      <c r="B124" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125">
-        <v>2003</v>
-      </c>
-      <c r="B125" t="s">
-        <v>370</v>
-      </c>
-      <c r="C125" t="s">
-        <v>371</v>
-      </c>
-      <c r="D125" t="s">
-        <v>373</v>
-      </c>
-      <c r="E125">
-        <v>104</v>
-      </c>
-      <c r="F125">
-        <v>250</v>
-      </c>
-      <c r="G125" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126">
-        <v>2004</v>
-      </c>
-      <c r="B126" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127">
-        <v>2005</v>
-      </c>
-      <c r="B127" t="s">
-        <v>370</v>
-      </c>
-      <c r="C127" t="s">
-        <v>378</v>
-      </c>
-      <c r="D127" t="s">
-        <v>387</v>
-      </c>
-      <c r="E127">
-        <v>139</v>
-      </c>
-      <c r="F127">
-        <v>1000</v>
-      </c>
-      <c r="G127" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128">
-        <v>2006</v>
-      </c>
-      <c r="B128" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129">
-        <v>2007</v>
-      </c>
-      <c r="B129" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130">
-        <v>2008</v>
-      </c>
-      <c r="B130" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131">
-        <v>2009</v>
-      </c>
-      <c r="B131" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132">
-        <v>2010</v>
-      </c>
-      <c r="B132" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133">
-        <v>2011</v>
-      </c>
-      <c r="B133" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134">
-        <v>2012</v>
-      </c>
-      <c r="B134" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135">
-        <v>2013</v>
-      </c>
-      <c r="B135" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136">
-        <v>2014</v>
-      </c>
-      <c r="B136" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137">
-        <v>2015</v>
-      </c>
-      <c r="B137" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138">
-        <v>2016</v>
-      </c>
-      <c r="B138" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139">
-        <v>2017</v>
-      </c>
-      <c r="B139" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140">
-        <v>2018</v>
-      </c>
-      <c r="B140" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141">
-        <v>2019</v>
-      </c>
-      <c r="B141" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142">
-        <v>2020</v>
-      </c>
-      <c r="B142" t="s">
-        <v>370</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data/Lighting_Efficacy_Data.xlsx
+++ b/Data/Lighting_Efficacy_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LightingPaper2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4736C5-867E-42E3-B503-5152DD525FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2494971-5E89-49EB-B091-E663617D852F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="712" activeTab="5" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="712" activeTab="3" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
   </bookViews>
   <sheets>
     <sheet name="le_Inc" sheetId="15" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3768" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3770" uniqueCount="401">
   <si>
     <t>Tallow</t>
   </si>
@@ -1249,9 +1249,6 @@
     <t>Phillips Helios</t>
   </si>
   <si>
-    <t>Streetlight</t>
-  </si>
-  <si>
     <t>Globe Twister Energy Saver</t>
   </si>
   <si>
@@ -1268,6 +1265,9 @@
   </si>
   <si>
     <t>Phillips A19</t>
+  </si>
+  <si>
+    <t>LSPDD</t>
   </si>
 </sst>
 </file>
@@ -12167,7 +12167,7 @@
   <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView topLeftCell="A108" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D138" sqref="D138"/>
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13677,10 +13677,10 @@
         <v>42</v>
       </c>
       <c r="C135" t="s">
-        <v>272</v>
+        <v>400</v>
       </c>
       <c r="D135" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E135">
         <v>8.1</v>
@@ -13689,7 +13689,7 @@
         <v>40</v>
       </c>
       <c r="G135" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -24644,7 +24644,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
+      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -26047,7 +26047,7 @@
         <v>370</v>
       </c>
       <c r="C134" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D134" t="s">
         <v>393</v>
@@ -26137,7 +26137,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G134" sqref="G134"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27426,8 +27426,11 @@
       <c r="B134" t="s">
         <v>90</v>
       </c>
+      <c r="C134" t="s">
+        <v>400</v>
+      </c>
       <c r="D134" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E134">
         <v>61.1</v>
@@ -27436,7 +27439,7 @@
         <v>9</v>
       </c>
       <c r="G134" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -27548,9 +27551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDB671D-7717-4C97-9193-8C24EFD9DC8A}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
+      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28722,8 +28725,11 @@
       <c r="B136" t="s">
         <v>46</v>
       </c>
+      <c r="C136" t="s">
+        <v>400</v>
+      </c>
       <c r="D136" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E136">
         <v>75.5</v>
@@ -28732,7 +28738,7 @@
         <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -30335,7 +30341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0293270E-AF53-4651-A405-EC07D674C941}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>

--- a/Data/Lighting_Efficacy_Data.xlsx
+++ b/Data/Lighting_Efficacy_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LightingPaper2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2494971-5E89-49EB-B091-E663617D852F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E1745D-C17E-45B3-B8D4-55F13DA11177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="712" activeTab="3" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3770" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3781" uniqueCount="401">
   <si>
     <t>Tallow</t>
   </si>
@@ -27553,7 +27553,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
+      <selection pane="bottomLeft" activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -28335,6 +28335,9 @@
       <c r="B94" t="s">
         <v>46</v>
       </c>
+      <c r="C94" t="s">
+        <v>226</v>
+      </c>
       <c r="D94" t="s">
         <v>221</v>
       </c>
@@ -28355,6 +28358,9 @@
       <c r="B95" t="s">
         <v>46</v>
       </c>
+      <c r="C95" t="s">
+        <v>226</v>
+      </c>
       <c r="D95" t="s">
         <v>223</v>
       </c>
@@ -28591,6 +28597,9 @@
       <c r="B123" t="s">
         <v>46</v>
       </c>
+      <c r="C123" t="s">
+        <v>46</v>
+      </c>
       <c r="D123" t="s">
         <v>218</v>
       </c>
@@ -28664,6 +28673,9 @@
       <c r="B131" t="s">
         <v>46</v>
       </c>
+      <c r="C131" t="s">
+        <v>46</v>
+      </c>
       <c r="D131" t="s">
         <v>220</v>
       </c>
@@ -28684,6 +28696,9 @@
       <c r="B132" t="s">
         <v>46</v>
       </c>
+      <c r="C132" t="s">
+        <v>46</v>
+      </c>
       <c r="D132" t="s">
         <v>218</v>
       </c>
@@ -28748,6 +28763,9 @@
       <c r="B137" t="s">
         <v>46</v>
       </c>
+      <c r="C137" t="s">
+        <v>46</v>
+      </c>
       <c r="D137" t="s">
         <v>218</v>
       </c>
@@ -28765,6 +28783,9 @@
       <c r="B138" t="s">
         <v>46</v>
       </c>
+      <c r="C138" t="s">
+        <v>46</v>
+      </c>
       <c r="D138" t="s">
         <v>218</v>
       </c>
@@ -28785,6 +28806,9 @@
       <c r="B139" t="s">
         <v>46</v>
       </c>
+      <c r="C139" t="s">
+        <v>46</v>
+      </c>
       <c r="D139" t="s">
         <v>218</v>
       </c>
@@ -28805,6 +28829,9 @@
       <c r="B140" t="s">
         <v>46</v>
       </c>
+      <c r="C140" t="s">
+        <v>46</v>
+      </c>
       <c r="D140" t="s">
         <v>218</v>
       </c>
@@ -28825,6 +28852,9 @@
       <c r="B141" t="s">
         <v>46</v>
       </c>
+      <c r="C141" t="s">
+        <v>46</v>
+      </c>
       <c r="D141" t="s">
         <v>218</v>
       </c>
@@ -28843,6 +28873,9 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
+        <v>46</v>
+      </c>
+      <c r="C142" t="s">
         <v>46</v>
       </c>
       <c r="D142" t="s">

--- a/Data/Lighting_Efficacy_Data.xlsx
+++ b/Data/Lighting_Efficacy_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LightingPaper2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E1745D-C17E-45B3-B8D4-55F13DA11177}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF43BA5-A7CE-480C-8476-1D48C7CAA984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="712" activeTab="3" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3781" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3784" uniqueCount="401">
   <si>
     <t>Tallow</t>
   </si>
@@ -12166,7 +12166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB9D9AE-BEA5-4CF9-A363-2955BA21CAB2}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
@@ -26135,9 +26135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892130B0-4D3E-4381-8355-A56FEEA0ADAB}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -27272,6 +27272,9 @@
       <c r="B123" t="s">
         <v>90</v>
       </c>
+      <c r="C123" t="s">
+        <v>120</v>
+      </c>
       <c r="D123" t="s">
         <v>218</v>
       </c>
@@ -27485,6 +27488,9 @@
       <c r="B138" t="s">
         <v>90</v>
       </c>
+      <c r="C138" t="s">
+        <v>47</v>
+      </c>
       <c r="D138" t="s">
         <v>218</v>
       </c>
@@ -27504,6 +27510,9 @@
       </c>
       <c r="B139" t="s">
         <v>90</v>
+      </c>
+      <c r="C139" t="s">
+        <v>47</v>
       </c>
       <c r="D139" t="s">
         <v>218</v>
@@ -27552,7 +27561,7 @@
   <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>

--- a/Data/Lighting_Efficacy_Data.xlsx
+++ b/Data/Lighting_Efficacy_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LightingPaper2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF43BA5-A7CE-480C-8476-1D48C7CAA984}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF64186-2EE5-4432-9F61-51606511B46D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="712" activeTab="3" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3784" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3784" uniqueCount="404">
   <si>
     <t>Tallow</t>
   </si>
@@ -1177,9 +1177,6 @@
     <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20Thorn%20SONT1000.htm</t>
   </si>
   <si>
-    <t>High Pressure Sodium (&gt;200W)</t>
-  </si>
-  <si>
     <t>Reflector Style</t>
   </si>
   <si>
@@ -1268,6 +1265,18 @@
   </si>
   <si>
     <t>LSPDD</t>
+  </si>
+  <si>
+    <t>Incandescent (INC)</t>
+  </si>
+  <si>
+    <t>High Pressure Sodium (HPS) (&gt;200W)</t>
+  </si>
+  <si>
+    <t>Compact Fluorescent (CFL)</t>
+  </si>
+  <si>
+    <t>Light-emitting Diode (LED)</t>
   </si>
 </sst>
 </file>
@@ -12167,12 +12176,12 @@
   <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.77734375" customWidth="1"/>
     <col min="4" max="4" width="38.109375" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" customWidth="1"/>
@@ -12211,7 +12220,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C2" t="s">
         <v>253</v>
@@ -12231,7 +12240,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -12239,7 +12248,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C4" t="s">
         <v>253</v>
@@ -12262,7 +12271,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C5" t="s">
         <v>253</v>
@@ -12285,7 +12294,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C6" t="s">
         <v>253</v>
@@ -12308,7 +12317,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C7" t="s">
         <v>253</v>
@@ -12331,7 +12340,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -12339,7 +12348,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -12347,7 +12356,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -12355,7 +12364,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -12363,7 +12372,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -12371,7 +12380,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -12379,7 +12388,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C14" t="s">
         <v>253</v>
@@ -12402,7 +12411,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C15" t="s">
         <v>253</v>
@@ -12425,7 +12434,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -12433,7 +12442,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -12441,7 +12450,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -12449,7 +12458,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C19" t="s">
         <v>253</v>
@@ -12472,7 +12481,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -12480,7 +12489,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -12488,7 +12497,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -12496,7 +12505,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C23" t="s">
         <v>253</v>
@@ -12519,7 +12528,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -12527,7 +12536,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -12535,7 +12544,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -12543,7 +12552,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -12551,7 +12560,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -12559,7 +12568,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C29" t="s">
         <v>262</v>
@@ -12582,7 +12591,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C30" t="s">
         <v>262</v>
@@ -12605,7 +12614,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C31" t="s">
         <v>262</v>
@@ -12628,7 +12637,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -12636,7 +12645,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C33" t="s">
         <v>308</v>
@@ -12659,7 +12668,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C34" t="s">
         <v>262</v>
@@ -12679,7 +12688,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C35" t="s">
         <v>262</v>
@@ -12702,7 +12711,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -12710,7 +12719,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C37" t="s">
         <v>310</v>
@@ -12730,7 +12739,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -12738,7 +12747,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -12746,7 +12755,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -12754,7 +12763,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C41" t="s">
         <v>308</v>
@@ -12774,7 +12783,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -12782,7 +12791,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -12790,7 +12799,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -12798,7 +12807,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -12806,7 +12815,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -12814,7 +12823,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C47" t="s">
         <v>341</v>
@@ -12837,7 +12846,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -12845,7 +12854,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -12853,7 +12862,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -12861,7 +12870,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -12869,7 +12878,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -12877,7 +12886,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -12885,7 +12894,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -12893,7 +12902,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -12901,7 +12910,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -12909,7 +12918,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C57" t="s">
         <v>302</v>
@@ -12932,7 +12941,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -12940,7 +12949,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -12948,7 +12957,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -12956,7 +12965,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C61" t="s">
         <v>302</v>
@@ -12979,7 +12988,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -12987,7 +12996,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -12995,7 +13004,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -13003,7 +13012,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -13011,7 +13020,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -13019,7 +13028,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -13027,7 +13036,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -13035,7 +13044,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -13043,7 +13052,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -13051,7 +13060,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -13059,7 +13068,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C72" t="s">
         <v>341</v>
@@ -13082,7 +13091,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -13090,7 +13099,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -13098,7 +13107,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -13106,7 +13115,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -13114,7 +13123,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C77" t="s">
         <v>303</v>
@@ -13137,7 +13146,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -13145,7 +13154,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -13153,7 +13162,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -13161,7 +13170,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -13169,7 +13178,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -13177,7 +13186,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -13185,7 +13194,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -13193,7 +13202,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -13201,7 +13210,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -13209,7 +13218,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -13217,7 +13226,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -13225,7 +13234,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -13233,7 +13242,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -13241,7 +13250,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -13249,7 +13258,7 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -13257,7 +13266,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -13265,7 +13274,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -13273,7 +13282,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -13281,7 +13290,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C96" t="s">
         <v>341</v>
@@ -13304,7 +13313,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -13312,7 +13321,7 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -13320,7 +13329,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -13328,7 +13337,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -13336,7 +13345,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C101" t="s">
         <v>308</v>
@@ -13356,7 +13365,7 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -13364,7 +13373,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -13372,7 +13381,7 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -13380,7 +13389,7 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -13388,7 +13397,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -13396,7 +13405,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -13404,7 +13413,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -13412,7 +13421,7 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -13420,7 +13429,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -13428,7 +13437,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -13436,7 +13445,7 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C112" t="s">
         <v>302</v>
@@ -13459,7 +13468,7 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -13467,7 +13476,7 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -13475,7 +13484,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -13483,7 +13492,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C116" t="s">
         <v>303</v>
@@ -13506,7 +13515,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -13514,7 +13523,7 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -13522,7 +13531,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -13530,7 +13539,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -13538,7 +13547,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -13546,7 +13555,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -13554,7 +13563,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C123" t="s">
         <v>271</v>
@@ -13574,7 +13583,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -13582,7 +13591,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -13590,7 +13599,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -13598,7 +13607,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -13606,7 +13615,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -13614,7 +13623,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -13622,7 +13631,7 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -13630,7 +13639,7 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -13638,7 +13647,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C132" t="s">
         <v>272</v>
@@ -13658,7 +13667,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -13666,7 +13675,7 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -13674,13 +13683,13 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C135" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D135" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E135">
         <v>8.1</v>
@@ -13689,7 +13698,7 @@
         <v>40</v>
       </c>
       <c r="G135" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -13697,7 +13706,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -13705,7 +13714,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="C137" t="s">
         <v>273</v>
@@ -13725,7 +13734,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -13733,7 +13742,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -13741,7 +13750,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -13749,7 +13758,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -13757,7 +13766,7 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -24642,14 +24651,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0149D0B9-E1D4-4002-B3E6-86AD6A91C712}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.77734375" customWidth="1"/>
     <col min="4" max="4" width="24.77734375" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" customWidth="1"/>
@@ -24687,7 +24696,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -24695,7 +24704,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -24703,7 +24712,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -24711,7 +24720,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -24719,7 +24728,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="E6" s="120"/>
     </row>
@@ -24728,7 +24737,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -24736,7 +24745,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -24744,7 +24753,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -24752,7 +24761,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -24760,7 +24769,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -24768,7 +24777,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -24776,7 +24785,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -24784,7 +24793,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -24792,7 +24801,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -24800,7 +24809,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -24808,7 +24817,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -24816,7 +24825,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -24824,7 +24833,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -24832,7 +24841,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -24840,7 +24849,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -24848,7 +24857,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -24856,7 +24865,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -24864,7 +24873,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -24872,7 +24881,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -24880,7 +24889,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -24888,7 +24897,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -24896,7 +24905,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -24904,7 +24913,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -24912,7 +24921,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -24920,7 +24929,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -24928,7 +24937,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -24936,7 +24945,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -24944,7 +24953,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -24952,7 +24961,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -24960,7 +24969,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -24968,7 +24977,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -24976,7 +24985,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -24984,7 +24993,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -24992,7 +25001,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -25000,7 +25009,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -25008,7 +25017,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -25016,7 +25025,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -25024,7 +25033,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -25032,7 +25041,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -25040,7 +25049,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -25048,7 +25057,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -25056,7 +25065,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -25064,7 +25073,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -25072,7 +25081,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -25080,7 +25089,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -25088,7 +25097,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -25096,7 +25105,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -25104,7 +25113,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -25112,7 +25121,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -25120,7 +25129,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -25128,7 +25137,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -25136,7 +25145,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -25144,7 +25153,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -25152,7 +25161,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -25160,7 +25169,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -25168,7 +25177,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -25176,7 +25185,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -25184,7 +25193,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -25192,7 +25201,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -25200,7 +25209,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -25208,7 +25217,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -25216,7 +25225,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -25224,7 +25233,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -25232,7 +25241,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -25240,7 +25249,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -25248,7 +25257,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -25256,7 +25265,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -25264,7 +25273,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -25272,7 +25281,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -25280,7 +25289,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -25288,7 +25297,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -25296,7 +25305,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -25304,7 +25313,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -25312,7 +25321,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -25320,7 +25329,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -25328,7 +25337,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -25336,7 +25345,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -25344,7 +25353,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -25352,7 +25361,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -25360,7 +25369,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -25368,7 +25377,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C87" t="s">
         <v>349</v>
@@ -25391,7 +25400,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -25399,7 +25408,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C89" t="s">
         <v>349</v>
@@ -25422,7 +25431,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -25430,7 +25439,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C91" t="s">
         <v>349</v>
@@ -25453,7 +25462,7 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -25461,7 +25470,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C93" t="s">
         <v>349</v>
@@ -25484,7 +25493,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -25492,7 +25501,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -25500,7 +25509,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -25508,7 +25517,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C97" t="s">
         <v>349</v>
@@ -25531,7 +25540,7 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -25539,13 +25548,13 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C99" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D99" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E99">
         <v>120</v>
@@ -25554,7 +25563,7 @@
         <v>250</v>
       </c>
       <c r="G99" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -25562,7 +25571,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C100" t="s">
         <v>349</v>
@@ -25585,7 +25594,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -25593,7 +25602,7 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C102" t="s">
         <v>349</v>
@@ -25616,7 +25625,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -25624,7 +25633,7 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C104" t="s">
         <v>349</v>
@@ -25647,7 +25656,7 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C105" t="s">
         <v>349</v>
@@ -25670,7 +25679,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -25678,7 +25687,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C107" t="s">
         <v>349</v>
@@ -25701,7 +25710,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -25709,13 +25718,13 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C109" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D109" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E109">
         <v>120</v>
@@ -25724,7 +25733,7 @@
         <v>400</v>
       </c>
       <c r="G109" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -25732,7 +25741,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C110" t="s">
         <v>349</v>
@@ -25755,13 +25764,13 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C111" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D111" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E111">
         <v>120</v>
@@ -25770,7 +25779,7 @@
         <v>400</v>
       </c>
       <c r="G111" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -25778,13 +25787,13 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C112" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D112" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E112">
         <v>137.5</v>
@@ -25793,7 +25802,7 @@
         <v>1000</v>
       </c>
       <c r="G112" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -25801,7 +25810,7 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -25809,13 +25818,13 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C114" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D114" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E114">
         <v>116</v>
@@ -25824,7 +25833,7 @@
         <v>250</v>
       </c>
       <c r="G114" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -25832,7 +25841,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -25840,7 +25849,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -25848,7 +25857,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -25856,7 +25865,7 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -25864,13 +25873,13 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C119" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D119" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E119">
         <v>110</v>
@@ -25879,7 +25888,7 @@
         <v>400</v>
       </c>
       <c r="G119" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -25887,13 +25896,13 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
+        <v>401</v>
+      </c>
+      <c r="C120" t="s">
         <v>370</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>371</v>
-      </c>
-      <c r="D120" t="s">
-        <v>372</v>
       </c>
       <c r="E120">
         <v>102</v>
@@ -25902,7 +25911,7 @@
         <v>360</v>
       </c>
       <c r="G120" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -25910,7 +25919,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -25918,7 +25927,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -25926,7 +25935,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -25934,7 +25943,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -25942,13 +25951,13 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
+        <v>401</v>
+      </c>
+      <c r="C125" t="s">
         <v>370</v>
       </c>
-      <c r="C125" t="s">
-        <v>371</v>
-      </c>
       <c r="D125" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E125">
         <v>104</v>
@@ -25957,7 +25966,7 @@
         <v>250</v>
       </c>
       <c r="G125" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -25965,7 +25974,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -25973,13 +25982,13 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C127" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D127" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E127">
         <v>139</v>
@@ -25988,7 +25997,7 @@
         <v>1000</v>
       </c>
       <c r="G127" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -25996,7 +26005,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -26004,7 +26013,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -26012,7 +26021,7 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -26020,7 +26029,7 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -26028,7 +26037,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -26036,7 +26045,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -26044,13 +26053,13 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="C134" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D134" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E134">
         <v>85</v>
@@ -26059,7 +26068,7 @@
         <v>100</v>
       </c>
       <c r="G134" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -26067,7 +26076,7 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -26075,7 +26084,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -26083,7 +26092,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -26091,7 +26100,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -26099,7 +26108,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -26107,7 +26116,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -26115,7 +26124,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -26123,7 +26132,7 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -26136,13 +26145,13 @@
   <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" customWidth="1"/>
     <col min="5" max="5" width="24.77734375" customWidth="1"/>
@@ -26181,7 +26190,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -26189,7 +26198,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -26197,7 +26206,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -26205,7 +26214,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -26213,7 +26222,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="F6" s="120"/>
     </row>
@@ -26222,7 +26231,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -26230,7 +26239,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -26238,7 +26247,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -26246,7 +26255,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -26254,7 +26263,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -26262,7 +26271,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -26270,7 +26279,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -26278,7 +26287,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -26286,7 +26295,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -26294,7 +26303,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -26302,7 +26311,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -26310,7 +26319,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -26318,7 +26327,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -26326,7 +26335,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -26334,7 +26343,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -26342,7 +26351,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -26350,7 +26359,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -26358,7 +26367,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -26366,7 +26375,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -26374,7 +26383,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -26382,7 +26391,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -26390,7 +26399,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -26398,7 +26407,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -26406,7 +26415,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -26414,7 +26423,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -26422,7 +26431,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -26430,7 +26439,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -26438,7 +26447,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -26446,7 +26455,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -26454,7 +26463,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -26462,7 +26471,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -26470,7 +26479,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -26478,7 +26487,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -26486,7 +26495,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -26494,7 +26503,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -26502,7 +26511,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -26510,7 +26519,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -26518,7 +26527,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -26526,7 +26535,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -26534,7 +26543,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -26542,7 +26551,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -26550,7 +26559,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -26558,7 +26567,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -26566,7 +26575,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -26574,7 +26583,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -26582,7 +26591,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -26590,7 +26599,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -26598,7 +26607,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -26606,7 +26615,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -26614,7 +26623,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -26622,7 +26631,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -26630,7 +26639,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -26638,7 +26647,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -26646,7 +26655,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -26654,7 +26663,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -26662,7 +26671,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -26670,7 +26679,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -26678,7 +26687,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -26686,7 +26695,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -26694,7 +26703,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -26702,7 +26711,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -26710,7 +26719,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -26718,7 +26727,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -26726,7 +26735,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -26734,7 +26743,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -26742,7 +26751,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -26750,7 +26759,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -26758,7 +26767,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -26766,7 +26775,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -26774,7 +26783,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -26782,7 +26791,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -26790,7 +26799,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -26798,7 +26807,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -26806,7 +26815,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -26814,7 +26823,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -26822,7 +26831,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -26830,7 +26839,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -26838,7 +26847,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -26846,7 +26855,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -26854,7 +26863,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -26862,7 +26871,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -26870,7 +26879,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -26878,7 +26887,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -26886,7 +26895,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -26894,7 +26903,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -26902,7 +26911,7 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -26910,7 +26919,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -26918,7 +26927,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -26926,7 +26935,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -26934,7 +26943,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -26942,7 +26951,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -26950,7 +26959,7 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="C98" t="s">
         <v>247</v>
@@ -26973,7 +26982,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -26981,7 +26990,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -26989,7 +26998,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -26997,7 +27006,7 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="C102" t="s">
         <v>247</v>
@@ -27020,7 +27029,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -27028,7 +27037,7 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="C104" t="s">
         <v>247</v>
@@ -27051,7 +27060,7 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -27059,7 +27068,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -27067,7 +27076,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -27075,7 +27084,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -27083,7 +27092,7 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -27091,7 +27100,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="C110" t="s">
         <v>244</v>
@@ -27114,7 +27123,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -27122,7 +27131,7 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="C112" t="s">
         <v>247</v>
@@ -27145,7 +27154,7 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -27153,7 +27162,7 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -27161,7 +27170,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -27169,7 +27178,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -27177,7 +27186,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="C117" t="s">
         <v>244</v>
@@ -27200,7 +27209,7 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -27208,7 +27217,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -27216,7 +27225,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="C120" t="s">
         <v>244</v>
@@ -27239,7 +27248,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="C121" s="10" t="s">
         <v>244</v>
@@ -27262,7 +27271,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -27270,7 +27279,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="C123" t="s">
         <v>120</v>
@@ -27290,7 +27299,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -27298,7 +27307,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="C125" t="s">
         <v>244</v>
@@ -27321,7 +27330,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="C126" t="s">
         <v>244</v>
@@ -27344,7 +27353,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="C127" t="s">
         <v>244</v>
@@ -27367,7 +27376,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -27375,7 +27384,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -27383,7 +27392,7 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -27391,7 +27400,7 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -27399,7 +27408,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="C132" t="s">
         <v>120</v>
@@ -27419,7 +27428,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -27427,13 +27436,13 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="C134" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D134" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E134">
         <v>61.1</v>
@@ -27442,7 +27451,7 @@
         <v>9</v>
       </c>
       <c r="G134" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -27450,7 +27459,7 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -27458,7 +27467,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -27466,7 +27475,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="C137" t="s">
         <v>120</v>
@@ -27486,7 +27495,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="C138" t="s">
         <v>47</v>
@@ -27509,7 +27518,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
       <c r="C139" t="s">
         <v>47</v>
@@ -27532,7 +27541,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -27540,7 +27549,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -27548,7 +27557,7 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>90</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -27561,13 +27570,13 @@
   <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" customWidth="1"/>
     <col min="5" max="6" width="24.77734375" customWidth="1"/>
     <col min="7" max="7" width="25.88671875" customWidth="1"/>
@@ -27605,7 +27614,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -27613,7 +27622,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -27621,7 +27630,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -27629,7 +27638,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -27637,7 +27646,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="G6" s="120"/>
     </row>
@@ -27646,7 +27655,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -27654,7 +27663,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -27662,7 +27671,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -27670,7 +27679,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -27678,7 +27687,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -27686,7 +27695,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -27694,7 +27703,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -27702,7 +27711,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -27710,7 +27719,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -27718,7 +27727,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -27726,7 +27735,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -27734,7 +27743,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -27742,7 +27751,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -27750,7 +27759,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -27758,7 +27767,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -27766,7 +27775,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -27774,7 +27783,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -27782,7 +27791,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -27790,7 +27799,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -27798,7 +27807,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -27806,7 +27815,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -27814,7 +27823,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -27822,7 +27831,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -27830,7 +27839,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -27838,7 +27847,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -27846,7 +27855,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -27854,7 +27863,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -27862,7 +27871,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -27870,7 +27879,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -27878,7 +27887,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -27886,7 +27895,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -27894,7 +27903,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -27902,7 +27911,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -27910,7 +27919,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -27918,7 +27927,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -27926,7 +27935,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -27934,7 +27943,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -27942,7 +27951,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -27950,7 +27959,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -27958,7 +27967,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -27966,7 +27975,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -27974,7 +27983,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -27982,7 +27991,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -27990,7 +27999,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -27998,7 +28007,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -28006,7 +28015,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -28014,7 +28023,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -28022,7 +28031,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -28030,7 +28039,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -28038,7 +28047,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -28046,7 +28055,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -28054,7 +28063,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -28062,7 +28071,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -28070,7 +28079,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -28078,7 +28087,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -28086,7 +28095,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -28094,7 +28103,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -28102,7 +28111,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -28110,7 +28119,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -28118,7 +28127,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -28126,7 +28135,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -28134,7 +28143,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -28142,7 +28151,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -28150,7 +28159,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -28158,7 +28167,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -28166,7 +28175,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -28174,7 +28183,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -28182,7 +28191,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -28190,7 +28199,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -28198,7 +28207,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -28206,7 +28215,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -28214,7 +28223,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -28222,7 +28231,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -28230,7 +28239,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -28238,7 +28247,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -28246,7 +28255,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -28254,7 +28263,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -28262,7 +28271,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -28270,7 +28279,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -28278,7 +28287,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -28286,7 +28295,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -28294,7 +28303,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -28302,7 +28311,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -28310,7 +28319,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -28318,7 +28327,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -28326,7 +28335,7 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -28334,7 +28343,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -28342,7 +28351,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="C94" t="s">
         <v>226</v>
@@ -28365,7 +28374,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="C95" t="s">
         <v>226</v>
@@ -28388,7 +28397,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -28396,7 +28405,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -28404,7 +28413,7 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -28412,7 +28421,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -28420,7 +28429,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -28428,7 +28437,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -28436,7 +28445,7 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -28444,7 +28453,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -28452,7 +28461,7 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -28460,7 +28469,7 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -28468,7 +28477,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -28476,7 +28485,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -28484,7 +28493,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -28492,7 +28501,7 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -28500,7 +28509,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -28508,7 +28517,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -28516,7 +28525,7 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -28524,7 +28533,7 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -28532,7 +28541,7 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -28540,7 +28549,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -28548,7 +28557,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -28556,7 +28565,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -28564,7 +28573,7 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -28572,7 +28581,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -28580,7 +28589,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -28588,7 +28597,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -28596,7 +28605,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -28604,10 +28613,10 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="C123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D123" t="s">
         <v>218</v>
@@ -28624,7 +28633,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -28632,7 +28641,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -28640,7 +28649,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -28648,7 +28657,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -28656,7 +28665,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -28664,7 +28673,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -28672,7 +28681,7 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -28680,10 +28689,10 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="C131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D131" t="s">
         <v>220</v>
@@ -28703,10 +28712,10 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="C132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D132" t="s">
         <v>218</v>
@@ -28723,7 +28732,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -28731,7 +28740,7 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -28739,7 +28748,7 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -28747,13 +28756,13 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="C136" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D136" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E136">
         <v>75.5</v>
@@ -28762,7 +28771,7 @@
         <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -28770,10 +28779,10 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="C137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D137" t="s">
         <v>218</v>
@@ -28790,10 +28799,10 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="C138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D138" t="s">
         <v>218</v>
@@ -28813,10 +28822,10 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="C139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D139" t="s">
         <v>218</v>
@@ -28836,10 +28845,10 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="C140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D140" t="s">
         <v>218</v>
@@ -28859,10 +28868,10 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="C141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D141" t="s">
         <v>218</v>
@@ -28882,10 +28891,10 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="C142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D142" t="s">
         <v>218</v>

--- a/Data/Lighting_Efficacy_Data.xlsx
+++ b/Data/Lighting_Efficacy_Data.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LightingPaper2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362DF4E5-CAE8-43EA-A30E-780CE0946987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A7BD44-FFC0-46A4-BBB6-2B411D69E259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="1512" windowWidth="11508" windowHeight="9420" tabRatio="712" activeTab="1" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="712" activeTab="4" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
   </bookViews>
   <sheets>
     <sheet name="le_Inc" sheetId="15" r:id="rId1"/>
-    <sheet name="HPS200+" sheetId="20" r:id="rId2"/>
-    <sheet name="le_HPS&lt;100W" sheetId="22" r:id="rId3"/>
-    <sheet name="le_CFL" sheetId="16" r:id="rId4"/>
-    <sheet name="le_LED" sheetId="19" r:id="rId5"/>
-    <sheet name="Hal" sheetId="18" r:id="rId6"/>
+    <sheet name="le_HPS&lt;100W" sheetId="22" r:id="rId2"/>
+    <sheet name="le_CFL" sheetId="16" r:id="rId3"/>
+    <sheet name="le_LED" sheetId="19" r:id="rId4"/>
+    <sheet name="Hal" sheetId="18" r:id="rId5"/>
+    <sheet name="HPS200+" sheetId="20" r:id="rId6"/>
     <sheet name="Fl" sheetId="17" r:id="rId7"/>
     <sheet name="Figures" sheetId="21" r:id="rId8"/>
     <sheet name="Long-Run" sheetId="2" r:id="rId9"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3972" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3972" uniqueCount="426">
   <si>
     <t>Tallow</t>
   </si>
@@ -1244,45 +1244,18 @@
     <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2536</t>
   </si>
   <si>
-    <t>Phillips Helios</t>
-  </si>
-  <si>
-    <t>Globe Twister Energy Saver</t>
-  </si>
-  <si>
     <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2533</t>
   </si>
   <si>
     <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2550</t>
   </si>
   <si>
-    <t>Globe A19</t>
-  </si>
-  <si>
     <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2512</t>
   </si>
   <si>
-    <t>Phillips A19</t>
-  </si>
-  <si>
     <t>LSPDD</t>
   </si>
   <si>
-    <t>Incandescent (INC)</t>
-  </si>
-  <si>
-    <t>High Pressure Sodium (HPS) (&gt;200W)</t>
-  </si>
-  <si>
-    <t>Compact Fluorescent (CFL)</t>
-  </si>
-  <si>
-    <t>Light-emitting Diode (LED)</t>
-  </si>
-  <si>
-    <t>High Pressure Sodium (HPS) (&lt;100W)</t>
-  </si>
-  <si>
     <t>GE Lucalox Low Power Prototype LU125/BD?</t>
   </si>
   <si>
@@ -1356,6 +1329,21 @@
   </si>
   <si>
     <t>http://www.lamptech.co.uk/Spec%20Sheets/D%20SHP%20GE%20LU70I.htm</t>
+  </si>
+  <si>
+    <t>High pressure sodium (HPS) (&gt;200W)</t>
+  </si>
+  <si>
+    <t>INC</t>
+  </si>
+  <si>
+    <t>HPS</t>
+  </si>
+  <si>
+    <t>CFL</t>
+  </si>
+  <si>
+    <t>Light-emitting diode</t>
   </si>
 </sst>
 </file>
@@ -12254,8 +12242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB9D9AE-BEA5-4CF9-A363-2955BA21CAB2}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView topLeftCell="A108" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12299,7 +12287,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
         <v>253</v>
@@ -12319,7 +12307,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -12327,7 +12315,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>253</v>
@@ -12350,7 +12338,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>253</v>
@@ -12373,7 +12361,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
         <v>253</v>
@@ -12396,7 +12384,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>253</v>
@@ -12419,7 +12407,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -12427,7 +12415,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -12435,7 +12423,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -12443,7 +12431,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -12451,7 +12439,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -12459,7 +12447,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -12467,7 +12455,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>253</v>
@@ -12490,7 +12478,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>253</v>
@@ -12513,7 +12501,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -12521,7 +12509,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -12529,7 +12517,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -12537,7 +12525,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
         <v>253</v>
@@ -12560,7 +12548,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -12568,7 +12556,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -12576,7 +12564,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -12584,7 +12572,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
         <v>253</v>
@@ -12607,7 +12595,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -12615,7 +12603,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -12623,7 +12611,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -12631,7 +12619,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -12639,7 +12627,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -12647,7 +12635,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
         <v>262</v>
@@ -12670,7 +12658,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>262</v>
@@ -12693,7 +12681,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>262</v>
@@ -12716,7 +12704,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -12724,7 +12712,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
         <v>308</v>
@@ -12747,7 +12735,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>262</v>
@@ -12767,7 +12755,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
         <v>262</v>
@@ -12790,7 +12778,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -12798,7 +12786,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
         <v>310</v>
@@ -12818,7 +12806,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -12826,7 +12814,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -12834,7 +12822,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -12842,7 +12830,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
         <v>308</v>
@@ -12862,7 +12850,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -12870,7 +12858,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -12878,7 +12866,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -12886,7 +12874,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -12894,7 +12882,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -12902,7 +12890,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
         <v>341</v>
@@ -12925,7 +12913,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -12933,7 +12921,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -12941,7 +12929,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -12949,7 +12937,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -12957,7 +12945,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -12965,7 +12953,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -12973,7 +12961,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -12981,7 +12969,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -12989,7 +12977,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -12997,7 +12985,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C57" t="s">
         <v>302</v>
@@ -13020,7 +13008,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -13028,7 +13016,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -13036,7 +13024,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -13044,7 +13032,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
         <v>302</v>
@@ -13067,7 +13055,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -13075,7 +13063,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -13083,7 +13071,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -13091,7 +13079,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -13099,7 +13087,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -13107,7 +13095,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -13115,7 +13103,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -13123,7 +13111,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -13131,7 +13119,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -13139,7 +13127,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -13147,7 +13135,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C72" t="s">
         <v>341</v>
@@ -13170,7 +13158,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -13178,7 +13166,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -13186,7 +13174,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -13194,7 +13182,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -13202,7 +13190,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C77" t="s">
         <v>303</v>
@@ -13225,7 +13213,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -13233,7 +13221,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -13241,7 +13229,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -13249,7 +13237,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -13257,7 +13245,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -13265,7 +13253,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -13273,7 +13261,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -13281,7 +13269,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -13289,7 +13277,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -13297,7 +13285,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -13305,7 +13293,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -13313,7 +13301,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -13321,7 +13309,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -13329,7 +13317,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -13337,7 +13325,7 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -13345,7 +13333,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -13353,7 +13341,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -13361,7 +13349,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -13369,7 +13357,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C96" t="s">
         <v>341</v>
@@ -13392,7 +13380,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -13400,7 +13388,7 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -13408,7 +13396,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -13416,7 +13404,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -13424,7 +13412,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C101" t="s">
         <v>308</v>
@@ -13444,7 +13432,7 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -13452,7 +13440,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -13460,7 +13448,7 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -13468,7 +13456,7 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -13476,7 +13464,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -13484,7 +13472,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -13492,7 +13480,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -13500,7 +13488,7 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -13508,7 +13496,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -13516,7 +13504,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -13524,7 +13512,7 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C112" t="s">
         <v>302</v>
@@ -13547,7 +13535,7 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -13555,7 +13543,7 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -13563,7 +13551,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -13571,7 +13559,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C116" t="s">
         <v>303</v>
@@ -13594,7 +13582,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -13602,7 +13590,7 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -13610,7 +13598,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -13618,7 +13606,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -13626,7 +13614,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -13634,7 +13622,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -13642,7 +13630,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C123" t="s">
         <v>271</v>
@@ -13662,7 +13650,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -13670,7 +13658,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -13678,7 +13666,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -13686,7 +13674,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -13694,7 +13682,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -13702,7 +13690,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -13710,7 +13698,7 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -13718,7 +13706,7 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -13726,7 +13714,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C132" t="s">
         <v>272</v>
@@ -13746,7 +13734,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -13754,7 +13742,7 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -13762,13 +13750,13 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C135" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D135" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="E135">
         <v>8.1</v>
@@ -13777,7 +13765,7 @@
         <v>40</v>
       </c>
       <c r="G135" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -13785,7 +13773,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -13793,7 +13781,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="C137" t="s">
         <v>273</v>
@@ -13813,7 +13801,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -13821,7 +13809,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -13829,7 +13817,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -13837,7 +13825,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -13845,7 +13833,7 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -31503,1505 +31491,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0149D0B9-E1D4-4002-B3E6-86AD6A91C712}">
-  <dimension ref="A1:H142"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1880</v>
-      </c>
-      <c r="B2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>1881</v>
-      </c>
-      <c r="B3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>1882</v>
-      </c>
-      <c r="B4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>1883</v>
-      </c>
-      <c r="B5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>1884</v>
-      </c>
-      <c r="B6" t="s">
-        <v>401</v>
-      </c>
-      <c r="E6" s="120"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>1885</v>
-      </c>
-      <c r="B7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>1886</v>
-      </c>
-      <c r="B8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>1887</v>
-      </c>
-      <c r="B9" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>1888</v>
-      </c>
-      <c r="B10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>1889</v>
-      </c>
-      <c r="B11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>1890</v>
-      </c>
-      <c r="B12" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>1891</v>
-      </c>
-      <c r="B13" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>1892</v>
-      </c>
-      <c r="B14" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>1893</v>
-      </c>
-      <c r="B15" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>1894</v>
-      </c>
-      <c r="B16" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>1895</v>
-      </c>
-      <c r="B17" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>1896</v>
-      </c>
-      <c r="B18" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1897</v>
-      </c>
-      <c r="B19" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1898</v>
-      </c>
-      <c r="B20" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>1899</v>
-      </c>
-      <c r="B21" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1900</v>
-      </c>
-      <c r="B22" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1901</v>
-      </c>
-      <c r="B23" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>1902</v>
-      </c>
-      <c r="B24" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>1903</v>
-      </c>
-      <c r="B25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>1904</v>
-      </c>
-      <c r="B26" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>1905</v>
-      </c>
-      <c r="B27" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>1906</v>
-      </c>
-      <c r="B28" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>1907</v>
-      </c>
-      <c r="B29" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>1908</v>
-      </c>
-      <c r="B30" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>1909</v>
-      </c>
-      <c r="B31" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>1910</v>
-      </c>
-      <c r="B32" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>1911</v>
-      </c>
-      <c r="B33" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>1912</v>
-      </c>
-      <c r="B34" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>1913</v>
-      </c>
-      <c r="B35" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>1914</v>
-      </c>
-      <c r="B36" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>1915</v>
-      </c>
-      <c r="B37" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>1916</v>
-      </c>
-      <c r="B38" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>1917</v>
-      </c>
-      <c r="B39" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>1918</v>
-      </c>
-      <c r="B40" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>1919</v>
-      </c>
-      <c r="B41" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>1920</v>
-      </c>
-      <c r="B42" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>1921</v>
-      </c>
-      <c r="B43" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>1922</v>
-      </c>
-      <c r="B44" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>1923</v>
-      </c>
-      <c r="B45" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>1924</v>
-      </c>
-      <c r="B46" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>1925</v>
-      </c>
-      <c r="B47" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>1926</v>
-      </c>
-      <c r="B48" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>1927</v>
-      </c>
-      <c r="B49" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>1928</v>
-      </c>
-      <c r="B50" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>1929</v>
-      </c>
-      <c r="B51" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>1930</v>
-      </c>
-      <c r="B52" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>1931</v>
-      </c>
-      <c r="B53" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>1932</v>
-      </c>
-      <c r="B54" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>1933</v>
-      </c>
-      <c r="B55" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>1934</v>
-      </c>
-      <c r="B56" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>1935</v>
-      </c>
-      <c r="B57" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>1936</v>
-      </c>
-      <c r="B58" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>1937</v>
-      </c>
-      <c r="B59" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>1938</v>
-      </c>
-      <c r="B60" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>1939</v>
-      </c>
-      <c r="B61" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>1940</v>
-      </c>
-      <c r="B62" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>1941</v>
-      </c>
-      <c r="B63" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>1942</v>
-      </c>
-      <c r="B64" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>1943</v>
-      </c>
-      <c r="B65" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>1944</v>
-      </c>
-      <c r="B66" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>1945</v>
-      </c>
-      <c r="B67" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>1946</v>
-      </c>
-      <c r="B68" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>1947</v>
-      </c>
-      <c r="B69" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>1948</v>
-      </c>
-      <c r="B70" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>1949</v>
-      </c>
-      <c r="B71" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>1950</v>
-      </c>
-      <c r="B72" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>1951</v>
-      </c>
-      <c r="B73" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>1952</v>
-      </c>
-      <c r="B74" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>1953</v>
-      </c>
-      <c r="B75" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>1954</v>
-      </c>
-      <c r="B76" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>1955</v>
-      </c>
-      <c r="B77" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>1956</v>
-      </c>
-      <c r="B78" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <v>1957</v>
-      </c>
-      <c r="B79" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>1958</v>
-      </c>
-      <c r="B80" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81">
-        <v>1959</v>
-      </c>
-      <c r="B81" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82">
-        <v>1960</v>
-      </c>
-      <c r="B82" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83">
-        <v>1961</v>
-      </c>
-      <c r="B83" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84">
-        <v>1962</v>
-      </c>
-      <c r="B84" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85">
-        <v>1963</v>
-      </c>
-      <c r="B85" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86">
-        <v>1964</v>
-      </c>
-      <c r="B86" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87">
-        <v>1965</v>
-      </c>
-      <c r="B87" t="s">
-        <v>401</v>
-      </c>
-      <c r="C87" t="s">
-        <v>349</v>
-      </c>
-      <c r="D87" t="s">
-        <v>347</v>
-      </c>
-      <c r="E87">
-        <v>100</v>
-      </c>
-      <c r="F87">
-        <v>500</v>
-      </c>
-      <c r="G87" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88">
-        <v>1966</v>
-      </c>
-      <c r="B88" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89">
-        <v>1967</v>
-      </c>
-      <c r="B89" t="s">
-        <v>401</v>
-      </c>
-      <c r="C89" t="s">
-        <v>349</v>
-      </c>
-      <c r="D89" t="s">
-        <v>356</v>
-      </c>
-      <c r="E89">
-        <v>110</v>
-      </c>
-      <c r="F89">
-        <v>400</v>
-      </c>
-      <c r="G89" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90">
-        <v>1968</v>
-      </c>
-      <c r="B90" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91">
-        <v>1969</v>
-      </c>
-      <c r="B91" t="s">
-        <v>401</v>
-      </c>
-      <c r="C91" t="s">
-        <v>349</v>
-      </c>
-      <c r="D91" t="s">
-        <v>358</v>
-      </c>
-      <c r="E91">
-        <v>100</v>
-      </c>
-      <c r="F91">
-        <v>250</v>
-      </c>
-      <c r="G91" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92">
-        <v>1970</v>
-      </c>
-      <c r="B92" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93">
-        <v>1971</v>
-      </c>
-      <c r="B93" t="s">
-        <v>401</v>
-      </c>
-      <c r="C93" t="s">
-        <v>349</v>
-      </c>
-      <c r="D93" t="s">
-        <v>350</v>
-      </c>
-      <c r="E93">
-        <v>117.5</v>
-      </c>
-      <c r="F93">
-        <v>400</v>
-      </c>
-      <c r="G93" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94">
-        <v>1972</v>
-      </c>
-      <c r="B94" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95">
-        <v>1973</v>
-      </c>
-      <c r="B95" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96">
-        <v>1974</v>
-      </c>
-      <c r="B96" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97">
-        <v>1975</v>
-      </c>
-      <c r="B97" t="s">
-        <v>401</v>
-      </c>
-      <c r="C97" t="s">
-        <v>349</v>
-      </c>
-      <c r="D97" t="s">
-        <v>360</v>
-      </c>
-      <c r="E97">
-        <v>110</v>
-      </c>
-      <c r="F97">
-        <v>400</v>
-      </c>
-      <c r="G97" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98">
-        <v>1976</v>
-      </c>
-      <c r="B98" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99">
-        <v>1977</v>
-      </c>
-      <c r="B99" t="s">
-        <v>401</v>
-      </c>
-      <c r="C99" t="s">
-        <v>390</v>
-      </c>
-      <c r="D99" t="s">
-        <v>389</v>
-      </c>
-      <c r="E99">
-        <v>120</v>
-      </c>
-      <c r="F99">
-        <v>250</v>
-      </c>
-      <c r="G99" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100">
-        <v>1978</v>
-      </c>
-      <c r="B100" t="s">
-        <v>401</v>
-      </c>
-      <c r="C100" t="s">
-        <v>349</v>
-      </c>
-      <c r="D100" t="s">
-        <v>362</v>
-      </c>
-      <c r="E100">
-        <v>110</v>
-      </c>
-      <c r="F100">
-        <v>400</v>
-      </c>
-      <c r="G100" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101">
-        <v>1979</v>
-      </c>
-      <c r="B101" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102">
-        <v>1980</v>
-      </c>
-      <c r="B102" t="s">
-        <v>401</v>
-      </c>
-      <c r="C102" t="s">
-        <v>349</v>
-      </c>
-      <c r="D102" t="s">
-        <v>354</v>
-      </c>
-      <c r="E102">
-        <v>140</v>
-      </c>
-      <c r="F102">
-        <v>1000</v>
-      </c>
-      <c r="G102" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103">
-        <v>1981</v>
-      </c>
-      <c r="B103" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104">
-        <v>1982</v>
-      </c>
-      <c r="B104" t="s">
-        <v>401</v>
-      </c>
-      <c r="C104" t="s">
-        <v>349</v>
-      </c>
-      <c r="D104" t="s">
-        <v>364</v>
-      </c>
-      <c r="E104">
-        <v>110</v>
-      </c>
-      <c r="F104">
-        <v>200</v>
-      </c>
-      <c r="G104" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105">
-        <v>1983</v>
-      </c>
-      <c r="B105" t="s">
-        <v>401</v>
-      </c>
-      <c r="C105" t="s">
-        <v>349</v>
-      </c>
-      <c r="D105" t="s">
-        <v>352</v>
-      </c>
-      <c r="E105">
-        <v>110</v>
-      </c>
-      <c r="F105">
-        <v>250</v>
-      </c>
-      <c r="G105" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106">
-        <v>1984</v>
-      </c>
-      <c r="B106" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107">
-        <v>1985</v>
-      </c>
-      <c r="B107" t="s">
-        <v>401</v>
-      </c>
-      <c r="C107" t="s">
-        <v>349</v>
-      </c>
-      <c r="D107" t="s">
-        <v>366</v>
-      </c>
-      <c r="E107">
-        <v>108</v>
-      </c>
-      <c r="F107">
-        <v>250</v>
-      </c>
-      <c r="G107" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108">
-        <v>1986</v>
-      </c>
-      <c r="B108" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109">
-        <v>1987</v>
-      </c>
-      <c r="B109" t="s">
-        <v>401</v>
-      </c>
-      <c r="C109" t="s">
-        <v>377</v>
-      </c>
-      <c r="D109" t="s">
-        <v>380</v>
-      </c>
-      <c r="E109">
-        <v>120</v>
-      </c>
-      <c r="F109">
-        <v>400</v>
-      </c>
-      <c r="G109" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110">
-        <v>1988</v>
-      </c>
-      <c r="B110" t="s">
-        <v>401</v>
-      </c>
-      <c r="C110" t="s">
-        <v>349</v>
-      </c>
-      <c r="D110" t="s">
-        <v>368</v>
-      </c>
-      <c r="E110">
-        <v>130</v>
-      </c>
-      <c r="F110">
-        <v>1000</v>
-      </c>
-      <c r="G110" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111">
-        <v>1989</v>
-      </c>
-      <c r="B111" t="s">
-        <v>401</v>
-      </c>
-      <c r="C111" t="s">
-        <v>377</v>
-      </c>
-      <c r="D111" t="s">
-        <v>382</v>
-      </c>
-      <c r="E111">
-        <v>120</v>
-      </c>
-      <c r="F111">
-        <v>400</v>
-      </c>
-      <c r="G111" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112">
-        <v>1990</v>
-      </c>
-      <c r="B112" t="s">
-        <v>401</v>
-      </c>
-      <c r="C112" t="s">
-        <v>377</v>
-      </c>
-      <c r="D112" t="s">
-        <v>376</v>
-      </c>
-      <c r="E112">
-        <v>137.5</v>
-      </c>
-      <c r="F112">
-        <v>1000</v>
-      </c>
-      <c r="G112" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113">
-        <v>1991</v>
-      </c>
-      <c r="B113" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114">
-        <v>1992</v>
-      </c>
-      <c r="B114" t="s">
-        <v>401</v>
-      </c>
-      <c r="C114" t="s">
-        <v>377</v>
-      </c>
-      <c r="D114" t="s">
-        <v>379</v>
-      </c>
-      <c r="E114">
-        <v>116</v>
-      </c>
-      <c r="F114">
-        <v>250</v>
-      </c>
-      <c r="G114" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115">
-        <v>1993</v>
-      </c>
-      <c r="B115" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116">
-        <v>1994</v>
-      </c>
-      <c r="B116" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117">
-        <v>1995</v>
-      </c>
-      <c r="B117" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118">
-        <v>1996</v>
-      </c>
-      <c r="B118" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119">
-        <v>1997</v>
-      </c>
-      <c r="B119" t="s">
-        <v>401</v>
-      </c>
-      <c r="C119" t="s">
-        <v>377</v>
-      </c>
-      <c r="D119" t="s">
-        <v>384</v>
-      </c>
-      <c r="E119">
-        <v>110</v>
-      </c>
-      <c r="F119">
-        <v>400</v>
-      </c>
-      <c r="G119" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120">
-        <v>1998</v>
-      </c>
-      <c r="B120" t="s">
-        <v>401</v>
-      </c>
-      <c r="C120" t="s">
-        <v>370</v>
-      </c>
-      <c r="D120" t="s">
-        <v>371</v>
-      </c>
-      <c r="E120">
-        <v>102</v>
-      </c>
-      <c r="F120">
-        <v>360</v>
-      </c>
-      <c r="G120" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121">
-        <v>1999</v>
-      </c>
-      <c r="B121" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122">
-        <v>2000</v>
-      </c>
-      <c r="B122" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123">
-        <v>2001</v>
-      </c>
-      <c r="B123" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124">
-        <v>2002</v>
-      </c>
-      <c r="B124" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
-      <c r="A125">
-        <v>2003</v>
-      </c>
-      <c r="B125" t="s">
-        <v>401</v>
-      </c>
-      <c r="C125" t="s">
-        <v>370</v>
-      </c>
-      <c r="D125" t="s">
-        <v>372</v>
-      </c>
-      <c r="E125">
-        <v>104</v>
-      </c>
-      <c r="F125">
-        <v>250</v>
-      </c>
-      <c r="G125" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126">
-        <v>2004</v>
-      </c>
-      <c r="B126" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127">
-        <v>2005</v>
-      </c>
-      <c r="B127" t="s">
-        <v>401</v>
-      </c>
-      <c r="C127" t="s">
-        <v>377</v>
-      </c>
-      <c r="D127" t="s">
-        <v>386</v>
-      </c>
-      <c r="E127">
-        <v>139</v>
-      </c>
-      <c r="F127">
-        <v>1000</v>
-      </c>
-      <c r="G127" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128">
-        <v>2006</v>
-      </c>
-      <c r="B128" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129">
-        <v>2007</v>
-      </c>
-      <c r="B129" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130">
-        <v>2008</v>
-      </c>
-      <c r="B130" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131">
-        <v>2009</v>
-      </c>
-      <c r="B131" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132">
-        <v>2010</v>
-      </c>
-      <c r="B132" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
-      <c r="A133">
-        <v>2011</v>
-      </c>
-      <c r="B133" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134">
-        <v>2012</v>
-      </c>
-      <c r="B134" t="s">
-        <v>401</v>
-      </c>
-      <c r="C134" t="s">
-        <v>399</v>
-      </c>
-      <c r="D134" t="s">
-        <v>392</v>
-      </c>
-      <c r="E134">
-        <v>85</v>
-      </c>
-      <c r="F134">
-        <v>100</v>
-      </c>
-      <c r="G134" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135">
-        <v>2013</v>
-      </c>
-      <c r="B135" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136">
-        <v>2014</v>
-      </c>
-      <c r="B136" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137">
-        <v>2015</v>
-      </c>
-      <c r="B137" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138">
-        <v>2016</v>
-      </c>
-      <c r="B138" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
-      <c r="A139">
-        <v>2017</v>
-      </c>
-      <c r="B139" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140">
-        <v>2018</v>
-      </c>
-      <c r="B140" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141">
-        <v>2019</v>
-      </c>
-      <c r="B141" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142">
-        <v>2020</v>
-      </c>
-      <c r="B142" t="s">
-        <v>401</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B60507-60AE-40C8-BF7F-ED247905C63D}">
   <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E128" sqref="E128"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33045,7 +31540,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -33053,7 +31548,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -33061,7 +31556,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -33069,7 +31564,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -33077,7 +31572,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="E6" s="120"/>
     </row>
@@ -33086,7 +31581,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -33094,7 +31589,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -33102,7 +31597,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -33110,7 +31605,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -33118,7 +31613,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -33126,7 +31621,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -33134,7 +31629,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -33142,7 +31637,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -33150,7 +31645,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -33158,7 +31653,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -33166,7 +31661,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -33174,7 +31669,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -33182,7 +31677,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -33190,7 +31685,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -33198,7 +31693,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -33206,7 +31701,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -33214,7 +31709,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -33222,7 +31717,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -33230,7 +31725,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -33238,7 +31733,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -33246,7 +31741,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -33254,7 +31749,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -33262,7 +31757,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -33270,7 +31765,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -33278,7 +31773,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -33286,7 +31781,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -33294,7 +31789,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -33302,7 +31797,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -33310,7 +31805,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -33318,7 +31813,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -33326,7 +31821,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -33334,7 +31829,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -33342,7 +31837,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -33350,7 +31845,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -33358,7 +31853,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -33366,7 +31861,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -33374,7 +31869,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -33382,7 +31877,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -33390,7 +31885,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -33398,7 +31893,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -33406,7 +31901,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -33414,7 +31909,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -33422,7 +31917,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -33430,7 +31925,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -33438,7 +31933,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -33446,7 +31941,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -33454,7 +31949,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -33462,7 +31957,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -33470,7 +31965,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -33478,7 +31973,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -33486,7 +31981,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -33494,7 +31989,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -33502,7 +31997,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -33510,7 +32005,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -33518,7 +32013,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -33526,7 +32021,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -33534,7 +32029,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -33542,7 +32037,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -33550,7 +32045,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -33558,7 +32053,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -33566,7 +32061,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -33574,7 +32069,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -33582,7 +32077,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -33590,7 +32085,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -33598,7 +32093,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -33606,7 +32101,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -33614,7 +32109,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -33622,7 +32117,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -33630,7 +32125,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -33638,7 +32133,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -33646,7 +32141,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -33654,7 +32149,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -33662,7 +32157,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -33670,7 +32165,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -33678,7 +32173,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -33686,7 +32181,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -33694,7 +32189,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -33702,7 +32197,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -33710,7 +32205,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -33718,7 +32213,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -33726,7 +32221,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -33734,7 +32229,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -33742,7 +32237,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -33750,7 +32245,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -33758,7 +32253,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -33766,13 +32261,13 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="C92" t="s">
         <v>349</v>
       </c>
       <c r="D92" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E92">
         <v>80</v>
@@ -33781,7 +32276,7 @@
         <v>125</v>
       </c>
       <c r="G92" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -33789,7 +32284,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -33797,7 +32292,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -33805,7 +32300,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -33813,7 +32308,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -33821,7 +32316,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -33829,13 +32324,13 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="C98" t="s">
         <v>349</v>
       </c>
       <c r="D98" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="E98">
         <v>82.9</v>
@@ -33844,7 +32339,7 @@
         <v>70</v>
       </c>
       <c r="G98" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -33852,7 +32347,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -33860,7 +32355,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -33868,7 +32363,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -33876,13 +32371,13 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="C102" t="s">
         <v>349</v>
       </c>
       <c r="D102" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E102">
         <v>66</v>
@@ -33891,7 +32386,7 @@
         <v>50</v>
       </c>
       <c r="G102" s="120" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -33899,7 +32394,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -33907,13 +32402,13 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="C104" t="s">
         <v>370</v>
       </c>
       <c r="D104" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="E104">
         <v>57.1</v>
@@ -33922,7 +32417,7 @@
         <v>70</v>
       </c>
       <c r="G104" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -33930,13 +32425,13 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="C105" t="s">
         <v>349</v>
       </c>
       <c r="D105" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E105">
         <v>82.9</v>
@@ -33945,7 +32440,7 @@
         <v>70</v>
       </c>
       <c r="G105" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -33953,7 +32448,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -33961,7 +32456,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -33969,7 +32464,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -33977,13 +32472,13 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="C109" t="s">
         <v>349</v>
       </c>
       <c r="D109" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E109">
         <v>70</v>
@@ -33992,7 +32487,7 @@
         <v>50</v>
       </c>
       <c r="G109" s="120" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -34000,7 +32495,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -34008,7 +32503,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -34016,13 +32511,13 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="C112" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D112" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="E112">
         <v>82.8</v>
@@ -34031,7 +32526,7 @@
         <v>70</v>
       </c>
       <c r="G112" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -34039,13 +32534,13 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="C113" t="s">
         <v>349</v>
       </c>
       <c r="D113" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E113">
         <v>85.7</v>
@@ -34054,7 +32549,7 @@
         <v>70</v>
       </c>
       <c r="G113" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -34062,13 +32557,13 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="C114" t="s">
         <v>349</v>
       </c>
       <c r="D114" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E114">
         <v>85.7</v>
@@ -34077,7 +32572,7 @@
         <v>70</v>
       </c>
       <c r="G114" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -34085,7 +32580,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -34093,7 +32588,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -34101,7 +32596,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -34109,13 +32604,13 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="C118" t="s">
         <v>390</v>
       </c>
       <c r="D118" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E118">
         <v>100</v>
@@ -34124,7 +32619,7 @@
         <v>100</v>
       </c>
       <c r="G118" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -34132,7 +32627,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -34140,7 +32635,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -34148,7 +32643,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -34156,7 +32651,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -34164,7 +32659,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -34172,7 +32667,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -34180,7 +32675,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -34188,7 +32683,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -34196,7 +32691,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -34204,7 +32699,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -34212,7 +32707,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -34220,13 +32715,13 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="C130" t="s">
         <v>390</v>
       </c>
       <c r="D130" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E130">
         <v>94.3</v>
@@ -34235,7 +32730,7 @@
         <v>70</v>
       </c>
       <c r="G130" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -34243,13 +32738,13 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="C131" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D131" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E131">
         <v>62.3</v>
@@ -34258,7 +32753,7 @@
         <v>69</v>
       </c>
       <c r="G131" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -34266,7 +32761,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -34274,7 +32769,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -34282,13 +32777,13 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="C134" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D134" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="E134">
         <v>85</v>
@@ -34305,7 +32800,7 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -34313,7 +32808,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -34321,7 +32816,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -34329,7 +32824,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -34337,7 +32832,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -34345,7 +32840,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -34353,7 +32848,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -34361,7 +32856,7 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>404</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -34373,13 +32868,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892130B0-4D3E-4381-8355-A56FEEA0ADAB}">
   <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80:B142"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -34423,7 +32918,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -34431,7 +32926,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -34439,7 +32934,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -34447,7 +32942,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -34455,7 +32950,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="F6" s="120"/>
     </row>
@@ -34464,7 +32959,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -34472,7 +32967,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -34480,7 +32975,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -34488,7 +32983,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -34496,7 +32991,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -34504,7 +32999,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -34512,7 +33007,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -34520,7 +33015,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -34528,7 +33023,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -34536,7 +33031,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -34544,7 +33039,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -34552,7 +33047,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -34560,7 +33055,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -34568,7 +33063,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -34576,7 +33071,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -34584,7 +33079,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -34592,7 +33087,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -34600,7 +33095,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -34608,7 +33103,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -34616,7 +33111,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -34624,7 +33119,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -34632,7 +33127,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -34640,7 +33135,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -34648,7 +33143,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -34656,7 +33151,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -34664,7 +33159,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -34672,7 +33167,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -34680,7 +33175,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -34688,7 +33183,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -34696,7 +33191,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -34704,7 +33199,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -34712,7 +33207,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -34720,7 +33215,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -34728,7 +33223,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -34736,7 +33231,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -34744,7 +33239,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -34752,7 +33247,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -34760,7 +33255,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -34768,7 +33263,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -34776,7 +33271,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -34784,7 +33279,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -34792,7 +33287,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -34800,7 +33295,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -34808,7 +33303,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -34816,7 +33311,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -34824,7 +33319,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -34832,7 +33327,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -34840,7 +33335,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -34848,7 +33343,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -34856,7 +33351,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -34864,7 +33359,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -34872,7 +33367,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -34880,7 +33375,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -34888,7 +33383,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -34896,7 +33391,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -34904,7 +33399,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -34912,7 +33407,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -34920,7 +33415,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -34928,7 +33423,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -34936,7 +33431,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -34944,7 +33439,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -34952,7 +33447,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -34960,7 +33455,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -34968,7 +33463,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -34976,7 +33471,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -34984,7 +33479,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -34992,7 +33487,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -35000,7 +33495,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -35008,7 +33503,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -35016,7 +33511,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -35024,7 +33519,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -35032,7 +33527,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -35040,7 +33535,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -35048,7 +33543,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -35056,7 +33551,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -35064,7 +33559,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -35072,7 +33567,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -35080,7 +33575,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -35088,7 +33583,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -35096,7 +33591,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -35104,7 +33599,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -35112,7 +33607,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -35120,7 +33615,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -35128,7 +33623,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -35136,7 +33631,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -35144,7 +33639,7 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -35152,7 +33647,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -35160,7 +33655,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -35168,7 +33663,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -35176,7 +33671,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -35184,7 +33679,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -35192,7 +33687,7 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="C98" t="s">
         <v>247</v>
@@ -35215,7 +33710,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -35223,7 +33718,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -35231,7 +33726,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -35239,7 +33734,7 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="C102" t="s">
         <v>247</v>
@@ -35262,7 +33757,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -35270,7 +33765,7 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="C104" t="s">
         <v>247</v>
@@ -35293,7 +33788,7 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -35301,7 +33796,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -35309,7 +33804,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -35317,7 +33812,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -35325,7 +33820,7 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -35333,7 +33828,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="C110" t="s">
         <v>244</v>
@@ -35356,7 +33851,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -35364,7 +33859,7 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="C112" t="s">
         <v>247</v>
@@ -35387,7 +33882,7 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -35395,7 +33890,7 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -35403,7 +33898,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -35411,7 +33906,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -35419,7 +33914,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="C117" t="s">
         <v>244</v>
@@ -35442,7 +33937,7 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -35450,7 +33945,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -35458,7 +33953,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="C120" t="s">
         <v>244</v>
@@ -35481,7 +33976,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="C121" s="10" t="s">
         <v>244</v>
@@ -35504,7 +33999,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -35512,7 +34007,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="C123" t="s">
         <v>120</v>
@@ -35532,7 +34027,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -35540,7 +34035,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="C125" t="s">
         <v>244</v>
@@ -35563,7 +34058,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="C126" t="s">
         <v>244</v>
@@ -35586,7 +34081,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="C127" t="s">
         <v>244</v>
@@ -35609,7 +34104,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -35617,7 +34112,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -35625,7 +34120,7 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -35633,7 +34128,7 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -35641,7 +34136,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="C132" t="s">
         <v>120</v>
@@ -35661,7 +34156,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -35669,13 +34164,13 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D134" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="E134">
         <v>61.1</v>
@@ -35684,7 +34179,7 @@
         <v>9</v>
       </c>
       <c r="G134" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -35692,7 +34187,7 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -35700,7 +34195,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -35708,7 +34203,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="C137" t="s">
         <v>120</v>
@@ -35728,7 +34223,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="C138" t="s">
         <v>47</v>
@@ -35751,7 +34246,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
       <c r="C139" t="s">
         <v>47</v>
@@ -35774,7 +34269,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -35782,7 +34277,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -35790,7 +34285,7 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>402</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -35798,13 +34293,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDB671D-7717-4C97-9193-8C24EFD9DC8A}">
   <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D125" sqref="D125"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -35847,7 +34342,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -35855,7 +34350,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -35863,7 +34358,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -35871,7 +34366,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -35879,7 +34374,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="G6" s="120"/>
     </row>
@@ -35888,7 +34383,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -35896,7 +34391,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -35904,7 +34399,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -35912,7 +34407,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -35920,7 +34415,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -35928,7 +34423,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -35936,7 +34431,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -35944,7 +34439,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -35952,7 +34447,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -35960,7 +34455,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -35968,7 +34463,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -35976,7 +34471,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -35984,7 +34479,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -35992,7 +34487,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -36000,7 +34495,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -36008,7 +34503,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -36016,7 +34511,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -36024,7 +34519,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -36032,7 +34527,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -36040,7 +34535,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -36048,7 +34543,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -36056,7 +34551,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -36064,7 +34559,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -36072,7 +34567,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -36080,7 +34575,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -36088,7 +34583,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -36096,7 +34591,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -36104,7 +34599,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -36112,7 +34607,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -36120,7 +34615,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -36128,7 +34623,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -36136,7 +34631,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -36144,7 +34639,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -36152,7 +34647,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -36160,7 +34655,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -36168,7 +34663,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -36176,7 +34671,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -36184,7 +34679,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -36192,7 +34687,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -36200,7 +34695,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -36208,7 +34703,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -36216,7 +34711,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -36224,7 +34719,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -36232,7 +34727,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -36240,7 +34735,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -36248,7 +34743,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -36256,7 +34751,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -36264,7 +34759,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -36272,7 +34767,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -36280,7 +34775,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -36288,7 +34783,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -36296,7 +34791,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -36304,7 +34799,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -36312,7 +34807,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -36320,7 +34815,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -36328,7 +34823,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -36336,7 +34831,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -36344,7 +34839,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -36352,7 +34847,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -36360,7 +34855,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -36368,7 +34863,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -36376,7 +34871,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -36384,7 +34879,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -36392,7 +34887,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -36400,7 +34895,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -36408,7 +34903,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -36416,7 +34911,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -36424,7 +34919,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -36432,7 +34927,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -36440,7 +34935,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -36448,7 +34943,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -36456,7 +34951,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -36464,7 +34959,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -36472,7 +34967,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -36480,7 +34975,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -36488,7 +34983,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -36496,7 +34991,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -36504,7 +34999,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -36512,7 +35007,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -36520,7 +35015,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -36528,7 +35023,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -36536,7 +35031,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -36544,7 +35039,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -36552,7 +35047,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -36560,7 +35055,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -36568,7 +35063,7 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -36576,7 +35071,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -36584,7 +35079,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="C94" t="s">
         <v>226</v>
@@ -36607,7 +35102,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="C95" t="s">
         <v>226</v>
@@ -36630,7 +35125,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -36638,7 +35133,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -36646,7 +35141,7 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -36654,7 +35149,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -36662,7 +35157,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -36670,7 +35165,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -36678,7 +35173,7 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -36686,7 +35181,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -36694,7 +35189,7 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -36702,7 +35197,7 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -36710,7 +35205,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -36718,7 +35213,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -36726,7 +35221,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -36734,7 +35229,7 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -36742,7 +35237,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -36750,7 +35245,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -36758,7 +35253,7 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -36766,7 +35261,7 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -36774,7 +35269,7 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -36782,7 +35277,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -36790,7 +35285,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -36798,7 +35293,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -36806,7 +35301,7 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -36814,7 +35309,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -36822,7 +35317,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -36830,7 +35325,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -36838,7 +35333,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -36846,7 +35341,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="C123" t="s">
         <v>47</v>
@@ -36866,7 +35361,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -36874,7 +35369,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -36882,7 +35377,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -36890,7 +35385,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -36898,7 +35393,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -36906,7 +35401,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -36914,7 +35409,7 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -36922,7 +35417,7 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="C131" t="s">
         <v>47</v>
@@ -36945,7 +35440,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="C132" t="s">
         <v>47</v>
@@ -36965,7 +35460,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -36973,7 +35468,7 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -36981,7 +35476,7 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -36989,13 +35484,13 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="C136" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D136" t="s">
-        <v>398</v>
+        <v>46</v>
       </c>
       <c r="E136">
         <v>75.5</v>
@@ -37004,7 +35499,7 @@
         <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -37012,7 +35507,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="C137" t="s">
         <v>47</v>
@@ -37032,7 +35527,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="C138" t="s">
         <v>47</v>
@@ -37055,7 +35550,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="C139" t="s">
         <v>47</v>
@@ -37078,7 +35573,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="C140" t="s">
         <v>47</v>
@@ -37101,7 +35596,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="C141" t="s">
         <v>47</v>
@@ -37124,7 +35619,7 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="C142" t="s">
         <v>47</v>
@@ -37147,11 +35642,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727D1E04-31A3-4998-85D9-AF32A9D150AF}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B142"/>
     </sheetView>
@@ -38617,6 +37112,1499 @@
   <hyperlinks>
     <hyperlink ref="G126" r:id="rId1" xr:uid="{26AF3C9A-8692-410D-95F0-DE82A7A6CAB4}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0149D0B9-E1D4-4002-B3E6-86AD6A91C712}">
+  <dimension ref="A1:H142"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D135" sqref="D135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1880</v>
+      </c>
+      <c r="B2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1881</v>
+      </c>
+      <c r="B3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1882</v>
+      </c>
+      <c r="B4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>1883</v>
+      </c>
+      <c r="B5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>1884</v>
+      </c>
+      <c r="B6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E6" s="120"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>1885</v>
+      </c>
+      <c r="B7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>1886</v>
+      </c>
+      <c r="B8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>1887</v>
+      </c>
+      <c r="B9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>1888</v>
+      </c>
+      <c r="B10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>1889</v>
+      </c>
+      <c r="B11" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>1890</v>
+      </c>
+      <c r="B12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>1891</v>
+      </c>
+      <c r="B13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>1892</v>
+      </c>
+      <c r="B14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>1893</v>
+      </c>
+      <c r="B15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>1894</v>
+      </c>
+      <c r="B16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1895</v>
+      </c>
+      <c r="B17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1896</v>
+      </c>
+      <c r="B18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1897</v>
+      </c>
+      <c r="B19" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1898</v>
+      </c>
+      <c r="B20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1899</v>
+      </c>
+      <c r="B21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1900</v>
+      </c>
+      <c r="B22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>1901</v>
+      </c>
+      <c r="B23" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1902</v>
+      </c>
+      <c r="B24" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1903</v>
+      </c>
+      <c r="B25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>1904</v>
+      </c>
+      <c r="B26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>1905</v>
+      </c>
+      <c r="B27" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1906</v>
+      </c>
+      <c r="B28" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1907</v>
+      </c>
+      <c r="B29" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>1908</v>
+      </c>
+      <c r="B30" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>1909</v>
+      </c>
+      <c r="B31" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>1910</v>
+      </c>
+      <c r="B32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>1911</v>
+      </c>
+      <c r="B33" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>1912</v>
+      </c>
+      <c r="B34" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>1913</v>
+      </c>
+      <c r="B35" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>1914</v>
+      </c>
+      <c r="B36" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>1915</v>
+      </c>
+      <c r="B37" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>1916</v>
+      </c>
+      <c r="B38" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>1917</v>
+      </c>
+      <c r="B39" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>1918</v>
+      </c>
+      <c r="B40" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>1919</v>
+      </c>
+      <c r="B41" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>1920</v>
+      </c>
+      <c r="B42" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>1921</v>
+      </c>
+      <c r="B43" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>1922</v>
+      </c>
+      <c r="B44" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>1923</v>
+      </c>
+      <c r="B45" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>1924</v>
+      </c>
+      <c r="B46" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>1925</v>
+      </c>
+      <c r="B47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>1926</v>
+      </c>
+      <c r="B48" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>1927</v>
+      </c>
+      <c r="B49" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>1928</v>
+      </c>
+      <c r="B50" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>1929</v>
+      </c>
+      <c r="B51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>1930</v>
+      </c>
+      <c r="B52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>1931</v>
+      </c>
+      <c r="B53" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>1932</v>
+      </c>
+      <c r="B54" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>1933</v>
+      </c>
+      <c r="B55" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>1934</v>
+      </c>
+      <c r="B56" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>1935</v>
+      </c>
+      <c r="B57" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>1936</v>
+      </c>
+      <c r="B58" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>1937</v>
+      </c>
+      <c r="B59" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>1938</v>
+      </c>
+      <c r="B60" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>1939</v>
+      </c>
+      <c r="B61" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>1940</v>
+      </c>
+      <c r="B62" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>1941</v>
+      </c>
+      <c r="B63" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>1942</v>
+      </c>
+      <c r="B64" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>1943</v>
+      </c>
+      <c r="B65" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>1944</v>
+      </c>
+      <c r="B66" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>1945</v>
+      </c>
+      <c r="B67" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>1946</v>
+      </c>
+      <c r="B68" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>1947</v>
+      </c>
+      <c r="B69" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>1948</v>
+      </c>
+      <c r="B70" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>1949</v>
+      </c>
+      <c r="B71" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>1950</v>
+      </c>
+      <c r="B72" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>1951</v>
+      </c>
+      <c r="B73" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>1952</v>
+      </c>
+      <c r="B74" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>1953</v>
+      </c>
+      <c r="B75" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>1954</v>
+      </c>
+      <c r="B76" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>1955</v>
+      </c>
+      <c r="B77" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>1956</v>
+      </c>
+      <c r="B78" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>1957</v>
+      </c>
+      <c r="B79" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>1958</v>
+      </c>
+      <c r="B80" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>1959</v>
+      </c>
+      <c r="B81" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>1960</v>
+      </c>
+      <c r="B82" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>1961</v>
+      </c>
+      <c r="B83" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>1962</v>
+      </c>
+      <c r="B84" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>1963</v>
+      </c>
+      <c r="B85" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>1964</v>
+      </c>
+      <c r="B86" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>1965</v>
+      </c>
+      <c r="B87" t="s">
+        <v>421</v>
+      </c>
+      <c r="C87" t="s">
+        <v>349</v>
+      </c>
+      <c r="D87" t="s">
+        <v>347</v>
+      </c>
+      <c r="E87">
+        <v>100</v>
+      </c>
+      <c r="F87">
+        <v>500</v>
+      </c>
+      <c r="G87" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>1966</v>
+      </c>
+      <c r="B88" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>1967</v>
+      </c>
+      <c r="B89" t="s">
+        <v>421</v>
+      </c>
+      <c r="C89" t="s">
+        <v>349</v>
+      </c>
+      <c r="D89" t="s">
+        <v>356</v>
+      </c>
+      <c r="E89">
+        <v>110</v>
+      </c>
+      <c r="F89">
+        <v>400</v>
+      </c>
+      <c r="G89" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>1968</v>
+      </c>
+      <c r="B90" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>1969</v>
+      </c>
+      <c r="B91" t="s">
+        <v>421</v>
+      </c>
+      <c r="C91" t="s">
+        <v>349</v>
+      </c>
+      <c r="D91" t="s">
+        <v>358</v>
+      </c>
+      <c r="E91">
+        <v>100</v>
+      </c>
+      <c r="F91">
+        <v>250</v>
+      </c>
+      <c r="G91" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>1970</v>
+      </c>
+      <c r="B92" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>1971</v>
+      </c>
+      <c r="B93" t="s">
+        <v>421</v>
+      </c>
+      <c r="C93" t="s">
+        <v>349</v>
+      </c>
+      <c r="D93" t="s">
+        <v>350</v>
+      </c>
+      <c r="E93">
+        <v>117.5</v>
+      </c>
+      <c r="F93">
+        <v>400</v>
+      </c>
+      <c r="G93" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>1972</v>
+      </c>
+      <c r="B94" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>1973</v>
+      </c>
+      <c r="B95" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>1974</v>
+      </c>
+      <c r="B96" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>1975</v>
+      </c>
+      <c r="B97" t="s">
+        <v>421</v>
+      </c>
+      <c r="C97" t="s">
+        <v>349</v>
+      </c>
+      <c r="D97" t="s">
+        <v>360</v>
+      </c>
+      <c r="E97">
+        <v>110</v>
+      </c>
+      <c r="F97">
+        <v>400</v>
+      </c>
+      <c r="G97" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>1976</v>
+      </c>
+      <c r="B98" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>1977</v>
+      </c>
+      <c r="B99" t="s">
+        <v>421</v>
+      </c>
+      <c r="C99" t="s">
+        <v>390</v>
+      </c>
+      <c r="D99" t="s">
+        <v>389</v>
+      </c>
+      <c r="E99">
+        <v>120</v>
+      </c>
+      <c r="F99">
+        <v>250</v>
+      </c>
+      <c r="G99" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>1978</v>
+      </c>
+      <c r="B100" t="s">
+        <v>421</v>
+      </c>
+      <c r="C100" t="s">
+        <v>349</v>
+      </c>
+      <c r="D100" t="s">
+        <v>362</v>
+      </c>
+      <c r="E100">
+        <v>110</v>
+      </c>
+      <c r="F100">
+        <v>400</v>
+      </c>
+      <c r="G100" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>1979</v>
+      </c>
+      <c r="B101" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>1980</v>
+      </c>
+      <c r="B102" t="s">
+        <v>421</v>
+      </c>
+      <c r="C102" t="s">
+        <v>349</v>
+      </c>
+      <c r="D102" t="s">
+        <v>354</v>
+      </c>
+      <c r="E102">
+        <v>140</v>
+      </c>
+      <c r="F102">
+        <v>1000</v>
+      </c>
+      <c r="G102" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>1981</v>
+      </c>
+      <c r="B103" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>1982</v>
+      </c>
+      <c r="B104" t="s">
+        <v>421</v>
+      </c>
+      <c r="C104" t="s">
+        <v>349</v>
+      </c>
+      <c r="D104" t="s">
+        <v>364</v>
+      </c>
+      <c r="E104">
+        <v>110</v>
+      </c>
+      <c r="F104">
+        <v>200</v>
+      </c>
+      <c r="G104" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>1983</v>
+      </c>
+      <c r="B105" t="s">
+        <v>421</v>
+      </c>
+      <c r="C105" t="s">
+        <v>349</v>
+      </c>
+      <c r="D105" t="s">
+        <v>352</v>
+      </c>
+      <c r="E105">
+        <v>110</v>
+      </c>
+      <c r="F105">
+        <v>250</v>
+      </c>
+      <c r="G105" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>1984</v>
+      </c>
+      <c r="B106" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>1985</v>
+      </c>
+      <c r="B107" t="s">
+        <v>421</v>
+      </c>
+      <c r="C107" t="s">
+        <v>349</v>
+      </c>
+      <c r="D107" t="s">
+        <v>366</v>
+      </c>
+      <c r="E107">
+        <v>108</v>
+      </c>
+      <c r="F107">
+        <v>250</v>
+      </c>
+      <c r="G107" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>1986</v>
+      </c>
+      <c r="B108" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>1987</v>
+      </c>
+      <c r="B109" t="s">
+        <v>421</v>
+      </c>
+      <c r="C109" t="s">
+        <v>377</v>
+      </c>
+      <c r="D109" t="s">
+        <v>380</v>
+      </c>
+      <c r="E109">
+        <v>120</v>
+      </c>
+      <c r="F109">
+        <v>400</v>
+      </c>
+      <c r="G109" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>1988</v>
+      </c>
+      <c r="B110" t="s">
+        <v>421</v>
+      </c>
+      <c r="C110" t="s">
+        <v>349</v>
+      </c>
+      <c r="D110" t="s">
+        <v>368</v>
+      </c>
+      <c r="E110">
+        <v>130</v>
+      </c>
+      <c r="F110">
+        <v>1000</v>
+      </c>
+      <c r="G110" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>1989</v>
+      </c>
+      <c r="B111" t="s">
+        <v>421</v>
+      </c>
+      <c r="C111" t="s">
+        <v>377</v>
+      </c>
+      <c r="D111" t="s">
+        <v>382</v>
+      </c>
+      <c r="E111">
+        <v>120</v>
+      </c>
+      <c r="F111">
+        <v>400</v>
+      </c>
+      <c r="G111" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>1990</v>
+      </c>
+      <c r="B112" t="s">
+        <v>421</v>
+      </c>
+      <c r="C112" t="s">
+        <v>377</v>
+      </c>
+      <c r="D112" t="s">
+        <v>376</v>
+      </c>
+      <c r="E112">
+        <v>137.5</v>
+      </c>
+      <c r="F112">
+        <v>1000</v>
+      </c>
+      <c r="G112" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>1991</v>
+      </c>
+      <c r="B113" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>1992</v>
+      </c>
+      <c r="B114" t="s">
+        <v>421</v>
+      </c>
+      <c r="C114" t="s">
+        <v>377</v>
+      </c>
+      <c r="D114" t="s">
+        <v>379</v>
+      </c>
+      <c r="E114">
+        <v>116</v>
+      </c>
+      <c r="F114">
+        <v>250</v>
+      </c>
+      <c r="G114" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>1993</v>
+      </c>
+      <c r="B115" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>1994</v>
+      </c>
+      <c r="B116" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>1995</v>
+      </c>
+      <c r="B117" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>1996</v>
+      </c>
+      <c r="B118" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>1997</v>
+      </c>
+      <c r="B119" t="s">
+        <v>421</v>
+      </c>
+      <c r="C119" t="s">
+        <v>377</v>
+      </c>
+      <c r="D119" t="s">
+        <v>384</v>
+      </c>
+      <c r="E119">
+        <v>110</v>
+      </c>
+      <c r="F119">
+        <v>400</v>
+      </c>
+      <c r="G119" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>1998</v>
+      </c>
+      <c r="B120" t="s">
+        <v>421</v>
+      </c>
+      <c r="C120" t="s">
+        <v>370</v>
+      </c>
+      <c r="D120" t="s">
+        <v>371</v>
+      </c>
+      <c r="E120">
+        <v>102</v>
+      </c>
+      <c r="F120">
+        <v>360</v>
+      </c>
+      <c r="G120" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>1999</v>
+      </c>
+      <c r="B121" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>2000</v>
+      </c>
+      <c r="B122" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>2001</v>
+      </c>
+      <c r="B123" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>2002</v>
+      </c>
+      <c r="B124" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>2003</v>
+      </c>
+      <c r="B125" t="s">
+        <v>421</v>
+      </c>
+      <c r="C125" t="s">
+        <v>370</v>
+      </c>
+      <c r="D125" t="s">
+        <v>372</v>
+      </c>
+      <c r="E125">
+        <v>104</v>
+      </c>
+      <c r="F125">
+        <v>250</v>
+      </c>
+      <c r="G125" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>2004</v>
+      </c>
+      <c r="B126" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>2005</v>
+      </c>
+      <c r="B127" t="s">
+        <v>421</v>
+      </c>
+      <c r="C127" t="s">
+        <v>377</v>
+      </c>
+      <c r="D127" t="s">
+        <v>386</v>
+      </c>
+      <c r="E127">
+        <v>139</v>
+      </c>
+      <c r="F127">
+        <v>1000</v>
+      </c>
+      <c r="G127" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>2006</v>
+      </c>
+      <c r="B128" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>2007</v>
+      </c>
+      <c r="B129" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>2008</v>
+      </c>
+      <c r="B130" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>2009</v>
+      </c>
+      <c r="B131" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>2010</v>
+      </c>
+      <c r="B132" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>2011</v>
+      </c>
+      <c r="B133" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>2012</v>
+      </c>
+      <c r="B134" t="s">
+        <v>421</v>
+      </c>
+      <c r="C134" t="s">
+        <v>395</v>
+      </c>
+      <c r="D134" t="s">
+        <v>423</v>
+      </c>
+      <c r="E134">
+        <v>85</v>
+      </c>
+      <c r="F134">
+        <v>100</v>
+      </c>
+      <c r="G134" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>2013</v>
+      </c>
+      <c r="B135" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>2014</v>
+      </c>
+      <c r="B136" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>2015</v>
+      </c>
+      <c r="B137" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>2016</v>
+      </c>
+      <c r="B138" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>2017</v>
+      </c>
+      <c r="B139" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>2018</v>
+      </c>
+      <c r="B140" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>2019</v>
+      </c>
+      <c r="B141" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>2020</v>
+      </c>
+      <c r="B142" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data/Lighting_Efficacy_Data.xlsx
+++ b/Data/Lighting_Efficacy_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LightingPaper2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A7BD44-FFC0-46A4-BBB6-2B411D69E259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7D36A2-A7E8-492C-8BF1-BC736EE9DE14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="712" activeTab="4" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="712" activeTab="3" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
   </bookViews>
   <sheets>
     <sheet name="le_Inc" sheetId="15" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3972" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3972" uniqueCount="429">
   <si>
     <t>Tallow</t>
   </si>
@@ -1343,7 +1343,16 @@
     <t>CFL</t>
   </si>
   <si>
-    <t>Light-emitting diode</t>
+    <t>Incandescent (INC)</t>
+  </si>
+  <si>
+    <t>High pressure sodium (HPS)</t>
+  </si>
+  <si>
+    <t>Compact fluorescent (CFL)</t>
+  </si>
+  <si>
+    <t>Light-emitting diode (LED)</t>
   </si>
 </sst>
 </file>
@@ -12242,8 +12251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB9D9AE-BEA5-4CF9-A363-2955BA21CAB2}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView topLeftCell="A107" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12287,7 +12296,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C2" t="s">
         <v>253</v>
@@ -12307,7 +12316,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -12315,7 +12324,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C4" t="s">
         <v>253</v>
@@ -12338,7 +12347,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C5" t="s">
         <v>253</v>
@@ -12361,7 +12370,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C6" t="s">
         <v>253</v>
@@ -12384,7 +12393,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C7" t="s">
         <v>253</v>
@@ -12407,7 +12416,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -12415,7 +12424,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -12423,7 +12432,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -12431,7 +12440,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -12439,7 +12448,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -12447,7 +12456,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -12455,7 +12464,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C14" t="s">
         <v>253</v>
@@ -12478,7 +12487,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C15" t="s">
         <v>253</v>
@@ -12501,7 +12510,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -12509,7 +12518,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -12517,7 +12526,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -12525,7 +12534,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C19" t="s">
         <v>253</v>
@@ -12548,7 +12557,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -12556,7 +12565,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -12564,7 +12573,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -12572,7 +12581,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C23" t="s">
         <v>253</v>
@@ -12595,7 +12604,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -12603,7 +12612,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -12611,7 +12620,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -12619,7 +12628,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -12627,7 +12636,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -12635,7 +12644,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C29" t="s">
         <v>262</v>
@@ -12658,7 +12667,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C30" t="s">
         <v>262</v>
@@ -12681,7 +12690,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C31" t="s">
         <v>262</v>
@@ -12704,7 +12713,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -12712,7 +12721,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C33" t="s">
         <v>308</v>
@@ -12735,7 +12744,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C34" t="s">
         <v>262</v>
@@ -12755,7 +12764,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C35" t="s">
         <v>262</v>
@@ -12778,7 +12787,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -12786,7 +12795,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C37" t="s">
         <v>310</v>
@@ -12806,7 +12815,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -12814,7 +12823,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -12822,7 +12831,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -12830,7 +12839,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C41" t="s">
         <v>308</v>
@@ -12850,7 +12859,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -12858,7 +12867,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -12866,7 +12875,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -12874,7 +12883,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -12882,7 +12891,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -12890,7 +12899,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C47" t="s">
         <v>341</v>
@@ -12913,7 +12922,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -12921,7 +12930,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -12929,7 +12938,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -12937,7 +12946,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -12945,7 +12954,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -12953,7 +12962,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -12961,7 +12970,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -12969,7 +12978,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -12977,7 +12986,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -12985,7 +12994,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C57" t="s">
         <v>302</v>
@@ -13008,7 +13017,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -13016,7 +13025,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -13024,7 +13033,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -13032,7 +13041,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C61" t="s">
         <v>302</v>
@@ -13055,7 +13064,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -13063,7 +13072,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -13071,7 +13080,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -13079,7 +13088,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -13087,7 +13096,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -13095,7 +13104,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -13103,7 +13112,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -13111,7 +13120,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -13119,7 +13128,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -13127,7 +13136,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -13135,7 +13144,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C72" t="s">
         <v>341</v>
@@ -13158,7 +13167,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -13166,7 +13175,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -13174,7 +13183,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -13182,7 +13191,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -13190,7 +13199,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C77" t="s">
         <v>303</v>
@@ -13213,7 +13222,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -13221,7 +13230,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -13229,7 +13238,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -13237,7 +13246,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -13245,7 +13254,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -13253,7 +13262,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -13261,7 +13270,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -13269,7 +13278,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -13277,7 +13286,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -13285,7 +13294,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -13293,7 +13302,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -13301,7 +13310,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -13309,7 +13318,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -13317,7 +13326,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -13325,7 +13334,7 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -13333,7 +13342,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -13341,7 +13350,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -13349,7 +13358,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -13357,7 +13366,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C96" t="s">
         <v>341</v>
@@ -13380,7 +13389,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -13388,7 +13397,7 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -13396,7 +13405,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -13404,7 +13413,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -13412,7 +13421,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C101" t="s">
         <v>308</v>
@@ -13432,7 +13441,7 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -13440,7 +13449,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -13448,7 +13457,7 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -13456,7 +13465,7 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -13464,7 +13473,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -13472,7 +13481,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -13480,7 +13489,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -13488,7 +13497,7 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -13496,7 +13505,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -13504,7 +13513,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -13512,7 +13521,7 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C112" t="s">
         <v>302</v>
@@ -13535,7 +13544,7 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -13543,7 +13552,7 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -13551,7 +13560,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -13559,7 +13568,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C116" t="s">
         <v>303</v>
@@ -13582,7 +13591,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -13590,7 +13599,7 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -13598,7 +13607,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -13606,7 +13615,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -13614,7 +13623,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -13622,7 +13631,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -13630,7 +13639,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C123" t="s">
         <v>271</v>
@@ -13650,7 +13659,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -13658,7 +13667,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -13666,7 +13675,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -13674,7 +13683,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -13682,7 +13691,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -13690,7 +13699,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -13698,7 +13707,7 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -13706,7 +13715,7 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -13714,7 +13723,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C132" t="s">
         <v>272</v>
@@ -13734,7 +13743,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -13742,7 +13751,7 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -13750,7 +13759,7 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C135" t="s">
         <v>395</v>
@@ -13773,7 +13782,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -13781,7 +13790,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="C137" t="s">
         <v>273</v>
@@ -13801,7 +13810,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -13809,7 +13818,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -13817,7 +13826,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -13825,7 +13834,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -13833,7 +13842,7 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>42</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -31495,7 +31504,7 @@
   <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B142"/>
     </sheetView>
   </sheetViews>
@@ -31540,7 +31549,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -31548,7 +31557,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -31556,7 +31565,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -31564,7 +31573,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -31572,7 +31581,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="E6" s="120"/>
     </row>
@@ -31581,7 +31590,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -31589,7 +31598,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -31597,7 +31606,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -31605,7 +31614,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -31613,7 +31622,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -31621,7 +31630,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -31629,7 +31638,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -31637,7 +31646,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -31645,7 +31654,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -31653,7 +31662,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -31661,7 +31670,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -31669,7 +31678,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -31677,7 +31686,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -31685,7 +31694,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -31693,7 +31702,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -31701,7 +31710,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -31709,7 +31718,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -31717,7 +31726,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -31725,7 +31734,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -31733,7 +31742,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -31741,7 +31750,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -31749,7 +31758,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -31757,7 +31766,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -31765,7 +31774,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -31773,7 +31782,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -31781,7 +31790,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -31789,7 +31798,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -31797,7 +31806,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -31805,7 +31814,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -31813,7 +31822,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -31821,7 +31830,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -31829,7 +31838,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -31837,7 +31846,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -31845,7 +31854,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -31853,7 +31862,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -31861,7 +31870,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -31869,7 +31878,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -31877,7 +31886,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -31885,7 +31894,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -31893,7 +31902,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -31901,7 +31910,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -31909,7 +31918,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -31917,7 +31926,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -31925,7 +31934,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -31933,7 +31942,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -31941,7 +31950,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -31949,7 +31958,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -31957,7 +31966,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -31965,7 +31974,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -31973,7 +31982,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -31981,7 +31990,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -31989,7 +31998,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -31997,7 +32006,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -32005,7 +32014,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -32013,7 +32022,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -32021,7 +32030,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -32029,7 +32038,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -32037,7 +32046,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -32045,7 +32054,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -32053,7 +32062,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -32061,7 +32070,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -32069,7 +32078,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -32077,7 +32086,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -32085,7 +32094,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -32093,7 +32102,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -32101,7 +32110,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -32109,7 +32118,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -32117,7 +32126,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -32125,7 +32134,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -32133,7 +32142,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -32141,7 +32150,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -32149,7 +32158,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -32157,7 +32166,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -32165,7 +32174,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -32173,7 +32182,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -32181,7 +32190,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -32189,7 +32198,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -32197,7 +32206,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -32205,7 +32214,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -32213,7 +32222,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -32221,7 +32230,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -32229,7 +32238,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -32237,7 +32246,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -32245,7 +32254,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -32253,7 +32262,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -32261,7 +32270,7 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="C92" t="s">
         <v>349</v>
@@ -32284,7 +32293,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -32292,7 +32301,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -32300,7 +32309,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -32308,7 +32317,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -32316,7 +32325,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -32324,7 +32333,7 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="C98" t="s">
         <v>349</v>
@@ -32347,7 +32356,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -32355,7 +32364,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -32363,7 +32372,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -32371,7 +32380,7 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="C102" t="s">
         <v>349</v>
@@ -32394,7 +32403,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -32402,7 +32411,7 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="C104" t="s">
         <v>370</v>
@@ -32425,7 +32434,7 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="C105" t="s">
         <v>349</v>
@@ -32448,7 +32457,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -32456,7 +32465,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -32464,7 +32473,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -32472,7 +32481,7 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="C109" t="s">
         <v>349</v>
@@ -32495,7 +32504,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -32503,7 +32512,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -32511,7 +32520,7 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="C112" t="s">
         <v>410</v>
@@ -32534,7 +32543,7 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="C113" t="s">
         <v>349</v>
@@ -32557,7 +32566,7 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="C114" t="s">
         <v>349</v>
@@ -32580,7 +32589,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -32588,7 +32597,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -32596,7 +32605,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -32604,7 +32613,7 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="C118" t="s">
         <v>390</v>
@@ -32627,7 +32636,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -32635,7 +32644,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -32643,7 +32652,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -32651,7 +32660,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -32659,7 +32668,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -32667,7 +32676,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -32675,7 +32684,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -32683,7 +32692,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -32691,7 +32700,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -32699,7 +32708,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -32707,7 +32716,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -32715,7 +32724,7 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="C130" t="s">
         <v>390</v>
@@ -32738,7 +32747,7 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="C131" t="s">
         <v>410</v>
@@ -32761,7 +32770,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -32769,7 +32778,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -32777,7 +32786,7 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="C134" t="s">
         <v>395</v>
@@ -32800,7 +32809,7 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -32808,7 +32817,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -32816,7 +32825,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -32824,7 +32833,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -32832,7 +32841,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -32840,7 +32849,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -32848,7 +32857,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -32856,7 +32865,7 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>82</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -32873,7 +32882,7 @@
   <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B142"/>
     </sheetView>
   </sheetViews>
@@ -32918,7 +32927,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -32926,7 +32935,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -32934,7 +32943,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -32942,7 +32951,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -32950,7 +32959,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="F6" s="120"/>
     </row>
@@ -32959,7 +32968,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -32967,7 +32976,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -32975,7 +32984,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -32983,7 +32992,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -32991,7 +33000,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -32999,7 +33008,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -33007,7 +33016,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -33015,7 +33024,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -33023,7 +33032,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -33031,7 +33040,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -33039,7 +33048,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -33047,7 +33056,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -33055,7 +33064,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -33063,7 +33072,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -33071,7 +33080,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -33079,7 +33088,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -33087,7 +33096,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -33095,7 +33104,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -33103,7 +33112,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -33111,7 +33120,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -33119,7 +33128,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -33127,7 +33136,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -33135,7 +33144,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -33143,7 +33152,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -33151,7 +33160,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -33159,7 +33168,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -33167,7 +33176,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -33175,7 +33184,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -33183,7 +33192,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -33191,7 +33200,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -33199,7 +33208,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -33207,7 +33216,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -33215,7 +33224,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -33223,7 +33232,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -33231,7 +33240,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -33239,7 +33248,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -33247,7 +33256,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -33255,7 +33264,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -33263,7 +33272,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -33271,7 +33280,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -33279,7 +33288,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -33287,7 +33296,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -33295,7 +33304,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -33303,7 +33312,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -33311,7 +33320,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -33319,7 +33328,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -33327,7 +33336,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -33335,7 +33344,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -33343,7 +33352,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -33351,7 +33360,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -33359,7 +33368,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -33367,7 +33376,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -33375,7 +33384,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -33383,7 +33392,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -33391,7 +33400,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -33399,7 +33408,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -33407,7 +33416,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -33415,7 +33424,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -33423,7 +33432,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -33431,7 +33440,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -33439,7 +33448,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -33447,7 +33456,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -33455,7 +33464,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -33463,7 +33472,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -33471,7 +33480,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -33479,7 +33488,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -33487,7 +33496,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -33495,7 +33504,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -33503,7 +33512,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -33511,7 +33520,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -33519,7 +33528,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -33527,7 +33536,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -33535,7 +33544,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -33543,7 +33552,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -33551,7 +33560,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -33559,7 +33568,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -33567,7 +33576,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -33575,7 +33584,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -33583,7 +33592,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -33591,7 +33600,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -33599,7 +33608,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -33607,7 +33616,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -33615,7 +33624,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -33623,7 +33632,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -33631,7 +33640,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -33639,7 +33648,7 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -33647,7 +33656,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -33655,7 +33664,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -33663,7 +33672,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -33671,7 +33680,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -33679,7 +33688,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -33687,7 +33696,7 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="C98" t="s">
         <v>247</v>
@@ -33710,7 +33719,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -33718,7 +33727,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -33726,7 +33735,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -33734,7 +33743,7 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="C102" t="s">
         <v>247</v>
@@ -33757,7 +33766,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -33765,7 +33774,7 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="C104" t="s">
         <v>247</v>
@@ -33788,7 +33797,7 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -33796,7 +33805,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -33804,7 +33813,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -33812,7 +33821,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -33820,7 +33829,7 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -33828,7 +33837,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="C110" t="s">
         <v>244</v>
@@ -33851,7 +33860,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -33859,7 +33868,7 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="C112" t="s">
         <v>247</v>
@@ -33882,7 +33891,7 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -33890,7 +33899,7 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -33898,7 +33907,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -33906,7 +33915,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -33914,7 +33923,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="C117" t="s">
         <v>244</v>
@@ -33937,7 +33946,7 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -33945,7 +33954,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -33953,7 +33962,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="C120" t="s">
         <v>244</v>
@@ -33976,7 +33985,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="C121" s="10" t="s">
         <v>244</v>
@@ -33999,7 +34008,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -34007,7 +34016,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="C123" t="s">
         <v>120</v>
@@ -34027,7 +34036,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -34035,7 +34044,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="C125" t="s">
         <v>244</v>
@@ -34058,7 +34067,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="C126" t="s">
         <v>244</v>
@@ -34081,7 +34090,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="C127" t="s">
         <v>244</v>
@@ -34104,7 +34113,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -34112,7 +34121,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -34120,7 +34129,7 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -34128,7 +34137,7 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -34136,7 +34145,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="C132" t="s">
         <v>120</v>
@@ -34156,7 +34165,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -34164,7 +34173,7 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="C134" t="s">
         <v>395</v>
@@ -34187,7 +34196,7 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -34195,7 +34204,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -34203,7 +34212,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="C137" t="s">
         <v>120</v>
@@ -34223,7 +34232,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="C138" t="s">
         <v>47</v>
@@ -34246,7 +34255,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="C139" t="s">
         <v>47</v>
@@ -34269,7 +34278,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -34277,7 +34286,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -34285,7 +34294,7 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -34297,9 +34306,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDB671D-7717-4C97-9193-8C24EFD9DC8A}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
+      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -34342,7 +34351,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -34350,7 +34359,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -34358,7 +34367,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -34366,7 +34375,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -34374,7 +34383,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G6" s="120"/>
     </row>
@@ -34383,7 +34392,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -34391,7 +34400,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -34399,7 +34408,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -34407,7 +34416,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -34415,7 +34424,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -34423,7 +34432,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -34431,7 +34440,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -34439,7 +34448,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -34447,7 +34456,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -34455,7 +34464,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -34463,7 +34472,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -34471,7 +34480,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -34479,7 +34488,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -34487,7 +34496,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -34495,7 +34504,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -34503,7 +34512,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -34511,7 +34520,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -34519,7 +34528,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -34527,7 +34536,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -34535,7 +34544,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -34543,7 +34552,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -34551,7 +34560,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -34559,7 +34568,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -34567,7 +34576,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -34575,7 +34584,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -34583,7 +34592,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -34591,7 +34600,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -34599,7 +34608,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -34607,7 +34616,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -34615,7 +34624,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -34623,7 +34632,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -34631,7 +34640,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -34639,7 +34648,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -34647,7 +34656,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -34655,7 +34664,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -34663,7 +34672,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -34671,7 +34680,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -34679,7 +34688,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -34687,7 +34696,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -34695,7 +34704,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -34703,7 +34712,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -34711,7 +34720,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -34719,7 +34728,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -34727,7 +34736,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -34735,7 +34744,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -34743,7 +34752,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -34751,7 +34760,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -34759,7 +34768,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -34767,7 +34776,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -34775,7 +34784,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -34783,7 +34792,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -34791,7 +34800,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -34799,7 +34808,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -34807,7 +34816,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -34815,7 +34824,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -34823,7 +34832,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -34831,7 +34840,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -34839,7 +34848,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -34847,7 +34856,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -34855,7 +34864,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -34863,7 +34872,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -34871,7 +34880,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -34879,7 +34888,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -34887,7 +34896,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -34895,7 +34904,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -34903,7 +34912,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -34911,7 +34920,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -34919,7 +34928,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -34927,7 +34936,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -34935,7 +34944,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -34943,7 +34952,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -34951,7 +34960,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -34959,7 +34968,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -34967,7 +34976,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -34975,7 +34984,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -34983,7 +34992,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -34991,7 +35000,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -34999,7 +35008,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -35007,7 +35016,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -35015,7 +35024,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -35023,7 +35032,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -35031,7 +35040,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -35039,7 +35048,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -35047,7 +35056,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -35055,7 +35064,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -35063,7 +35072,7 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -35071,7 +35080,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -35079,7 +35088,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C94" t="s">
         <v>226</v>
@@ -35102,7 +35111,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C95" t="s">
         <v>226</v>
@@ -35125,7 +35134,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -35133,7 +35142,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -35141,7 +35150,7 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -35149,7 +35158,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -35157,7 +35166,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -35165,7 +35174,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -35173,7 +35182,7 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -35181,7 +35190,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -35189,7 +35198,7 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -35197,7 +35206,7 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -35205,7 +35214,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -35213,7 +35222,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -35221,7 +35230,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -35229,7 +35238,7 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -35237,7 +35246,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -35245,7 +35254,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -35253,7 +35262,7 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -35261,7 +35270,7 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -35269,7 +35278,7 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -35277,7 +35286,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -35285,7 +35294,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -35293,7 +35302,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -35301,7 +35310,7 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -35309,7 +35318,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -35317,7 +35326,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -35325,7 +35334,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -35333,7 +35342,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -35341,7 +35350,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C123" t="s">
         <v>47</v>
@@ -35361,7 +35370,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -35369,7 +35378,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -35377,7 +35386,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -35385,7 +35394,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -35393,7 +35402,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -35401,7 +35410,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -35409,7 +35418,7 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -35417,7 +35426,7 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C131" t="s">
         <v>47</v>
@@ -35440,7 +35449,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C132" t="s">
         <v>47</v>
@@ -35460,7 +35469,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -35468,7 +35477,7 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -35476,7 +35485,7 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -35484,7 +35493,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C136" t="s">
         <v>395</v>
@@ -35507,7 +35516,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C137" t="s">
         <v>47</v>
@@ -35527,7 +35536,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C138" t="s">
         <v>47</v>
@@ -35550,7 +35559,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C139" t="s">
         <v>47</v>
@@ -35573,7 +35582,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C140" t="s">
         <v>47</v>
@@ -35596,7 +35605,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C141" t="s">
         <v>47</v>
@@ -35619,7 +35628,7 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C142" t="s">
         <v>47</v>
@@ -35646,7 +35655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727D1E04-31A3-4998-85D9-AF32A9D150AF}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B142"/>
     </sheetView>

--- a/Data/Lighting_Efficacy_Data.xlsx
+++ b/Data/Lighting_Efficacy_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LightingPaper2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7D36A2-A7E8-492C-8BF1-BC736EE9DE14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4804A61A-D057-48CF-AB55-BA91F6F837F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="712" activeTab="3" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
+    <workbookView xWindow="11532" yWindow="2184" windowWidth="11508" windowHeight="9420" tabRatio="712" activeTab="3" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
   </bookViews>
   <sheets>
     <sheet name="le_Inc" sheetId="15" r:id="rId1"/>
@@ -1244,15 +1244,6 @@
     <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2536</t>
   </si>
   <si>
-    <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2533</t>
-  </si>
-  <si>
-    <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2550</t>
-  </si>
-  <si>
-    <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2512</t>
-  </si>
-  <si>
     <t>LSPDD</t>
   </si>
   <si>
@@ -1353,6 +1344,15 @@
   </si>
   <si>
     <t>Light-emitting diode (LED)</t>
+  </si>
+  <si>
+    <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2557</t>
+  </si>
+  <si>
+    <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2538</t>
+  </si>
+  <si>
+    <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2492</t>
   </si>
 </sst>
 </file>
@@ -2822,7 +2822,7 @@
                   <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>8.1</c:v>
+                  <c:v>17.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>10.3</c:v>
@@ -3878,8 +3878,8 @@
                 <c:pt idx="130">
                   <c:v>68.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="132">
-                  <c:v>61.1</c:v>
+                <c:pt idx="134">
+                  <c:v>63.3</c:v>
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>73.400000000000006</c:v>
@@ -4899,8 +4899,8 @@
                 <c:pt idx="130">
                   <c:v>55.8</c:v>
                 </c:pt>
-                <c:pt idx="134">
-                  <c:v>75.5</c:v>
+                <c:pt idx="133">
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>106.8</c:v>
@@ -12252,7 +12252,7 @@
   <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView topLeftCell="A107" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+      <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12296,7 +12296,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C2" t="s">
         <v>253</v>
@@ -12316,7 +12316,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -12324,7 +12324,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C4" t="s">
         <v>253</v>
@@ -12347,7 +12347,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C5" t="s">
         <v>253</v>
@@ -12370,7 +12370,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C6" t="s">
         <v>253</v>
@@ -12393,7 +12393,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C7" t="s">
         <v>253</v>
@@ -12416,7 +12416,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -12424,7 +12424,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -12432,7 +12432,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -12440,7 +12440,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -12448,7 +12448,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -12464,7 +12464,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C14" t="s">
         <v>253</v>
@@ -12487,7 +12487,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C15" t="s">
         <v>253</v>
@@ -12510,7 +12510,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -12518,7 +12518,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -12526,7 +12526,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -12534,7 +12534,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C19" t="s">
         <v>253</v>
@@ -12557,7 +12557,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -12565,7 +12565,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -12573,7 +12573,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -12581,7 +12581,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C23" t="s">
         <v>253</v>
@@ -12604,7 +12604,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -12612,7 +12612,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -12620,7 +12620,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -12628,7 +12628,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -12636,7 +12636,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -12644,7 +12644,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C29" t="s">
         <v>262</v>
@@ -12667,7 +12667,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C30" t="s">
         <v>262</v>
@@ -12690,7 +12690,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C31" t="s">
         <v>262</v>
@@ -12713,7 +12713,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -12721,7 +12721,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C33" t="s">
         <v>308</v>
@@ -12744,7 +12744,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C34" t="s">
         <v>262</v>
@@ -12764,7 +12764,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C35" t="s">
         <v>262</v>
@@ -12787,7 +12787,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -12795,7 +12795,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C37" t="s">
         <v>310</v>
@@ -12815,7 +12815,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -12823,7 +12823,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -12831,7 +12831,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -12839,7 +12839,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C41" t="s">
         <v>308</v>
@@ -12859,7 +12859,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -12867,7 +12867,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -12875,7 +12875,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -12883,7 +12883,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -12891,7 +12891,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -12899,7 +12899,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C47" t="s">
         <v>341</v>
@@ -12922,7 +12922,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -12930,7 +12930,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -12938,7 +12938,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -12946,7 +12946,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -12954,7 +12954,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -12962,7 +12962,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -12970,7 +12970,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -12978,7 +12978,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -12986,7 +12986,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -12994,7 +12994,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C57" t="s">
         <v>302</v>
@@ -13017,7 +13017,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -13025,7 +13025,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -13033,7 +13033,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -13041,7 +13041,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C61" t="s">
         <v>302</v>
@@ -13064,7 +13064,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -13072,7 +13072,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -13080,7 +13080,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -13088,7 +13088,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -13096,7 +13096,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -13104,7 +13104,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -13112,7 +13112,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -13120,7 +13120,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -13128,7 +13128,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -13136,7 +13136,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -13144,7 +13144,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C72" t="s">
         <v>341</v>
@@ -13167,7 +13167,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -13175,7 +13175,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -13183,7 +13183,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -13191,7 +13191,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -13199,7 +13199,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C77" t="s">
         <v>303</v>
@@ -13222,7 +13222,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -13230,7 +13230,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -13238,7 +13238,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -13246,7 +13246,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -13254,7 +13254,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -13262,7 +13262,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -13270,7 +13270,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -13278,7 +13278,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -13286,7 +13286,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -13294,7 +13294,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -13302,7 +13302,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -13310,7 +13310,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -13318,7 +13318,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -13326,7 +13326,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -13334,7 +13334,7 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -13342,7 +13342,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -13350,7 +13350,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -13358,7 +13358,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -13366,7 +13366,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C96" t="s">
         <v>341</v>
@@ -13389,7 +13389,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -13397,7 +13397,7 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -13405,7 +13405,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -13413,7 +13413,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -13421,7 +13421,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C101" t="s">
         <v>308</v>
@@ -13441,7 +13441,7 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -13449,7 +13449,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -13457,7 +13457,7 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -13465,7 +13465,7 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -13473,7 +13473,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -13481,7 +13481,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -13489,7 +13489,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -13497,7 +13497,7 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -13505,7 +13505,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -13513,7 +13513,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -13521,7 +13521,7 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C112" t="s">
         <v>302</v>
@@ -13544,7 +13544,7 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -13552,7 +13552,7 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -13560,7 +13560,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -13568,7 +13568,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C116" t="s">
         <v>303</v>
@@ -13591,7 +13591,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -13599,7 +13599,7 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -13607,7 +13607,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -13615,7 +13615,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -13623,7 +13623,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -13631,7 +13631,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -13639,7 +13639,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C123" t="s">
         <v>271</v>
@@ -13659,7 +13659,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -13667,7 +13667,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -13675,7 +13675,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -13683,7 +13683,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -13691,7 +13691,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -13699,7 +13699,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -13707,7 +13707,7 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -13715,7 +13715,7 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -13723,7 +13723,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C132" t="s">
         <v>272</v>
@@ -13743,7 +13743,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -13751,7 +13751,7 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -13759,22 +13759,22 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C135" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D135" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E135">
-        <v>8.1</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F135">
-        <v>40</v>
-      </c>
-      <c r="G135" t="s">
-        <v>393</v>
+        <v>150</v>
+      </c>
+      <c r="G135" s="120" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -13782,7 +13782,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -13790,7 +13790,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C137" t="s">
         <v>273</v>
@@ -13810,7 +13810,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -13818,7 +13818,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -13826,7 +13826,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -13834,7 +13834,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -13842,7 +13842,7 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -13856,6 +13856,7 @@
     <hyperlink ref="G112" r:id="rId7" xr:uid="{4E67B11E-2CAD-4D19-BCCE-959A0E4359B8}"/>
     <hyperlink ref="G57" r:id="rId8" xr:uid="{55B98824-5519-41A0-96BA-BD12BCACFAE5}"/>
     <hyperlink ref="G47" r:id="rId9" xr:uid="{C4C7DE45-5EA8-4FDB-A560-444F5C59CD9B}"/>
+    <hyperlink ref="G135" r:id="rId10" xr:uid="{6B978241-D7F8-4FFC-A991-6E2D75773435}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31549,7 +31550,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -31557,7 +31558,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -31565,7 +31566,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -31573,7 +31574,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -31581,7 +31582,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E6" s="120"/>
     </row>
@@ -31590,7 +31591,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -31598,7 +31599,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -31606,7 +31607,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -31614,7 +31615,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -31622,7 +31623,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -31630,7 +31631,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -31638,7 +31639,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -31646,7 +31647,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -31654,7 +31655,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -31662,7 +31663,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -31670,7 +31671,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -31678,7 +31679,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -31686,7 +31687,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -31694,7 +31695,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -31702,7 +31703,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -31710,7 +31711,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -31718,7 +31719,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -31726,7 +31727,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -31734,7 +31735,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -31742,7 +31743,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -31750,7 +31751,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -31758,7 +31759,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -31766,7 +31767,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -31774,7 +31775,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -31782,7 +31783,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -31790,7 +31791,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -31798,7 +31799,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -31806,7 +31807,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -31814,7 +31815,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -31822,7 +31823,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -31830,7 +31831,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -31838,7 +31839,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -31846,7 +31847,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -31854,7 +31855,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -31862,7 +31863,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -31870,7 +31871,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -31878,7 +31879,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -31886,7 +31887,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -31894,7 +31895,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -31902,7 +31903,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -31910,7 +31911,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -31918,7 +31919,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -31926,7 +31927,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -31934,7 +31935,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -31942,7 +31943,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -31950,7 +31951,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -31958,7 +31959,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -31966,7 +31967,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -31974,7 +31975,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -31982,7 +31983,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -31990,7 +31991,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -31998,7 +31999,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -32006,7 +32007,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -32014,7 +32015,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -32022,7 +32023,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -32030,7 +32031,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -32038,7 +32039,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -32046,7 +32047,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -32054,7 +32055,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -32062,7 +32063,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -32070,7 +32071,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -32078,7 +32079,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -32086,7 +32087,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -32094,7 +32095,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -32102,7 +32103,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -32110,7 +32111,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -32118,7 +32119,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -32126,7 +32127,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -32134,7 +32135,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -32142,7 +32143,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -32150,7 +32151,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -32158,7 +32159,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -32166,7 +32167,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -32174,7 +32175,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -32182,7 +32183,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -32190,7 +32191,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -32198,7 +32199,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -32206,7 +32207,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -32214,7 +32215,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -32222,7 +32223,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -32230,7 +32231,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -32238,7 +32239,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -32246,7 +32247,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -32254,7 +32255,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -32262,7 +32263,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -32270,13 +32271,13 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C92" t="s">
         <v>349</v>
       </c>
       <c r="D92" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E92">
         <v>80</v>
@@ -32285,7 +32286,7 @@
         <v>125</v>
       </c>
       <c r="G92" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -32293,7 +32294,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -32301,7 +32302,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -32309,7 +32310,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -32317,7 +32318,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -32325,7 +32326,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -32333,13 +32334,13 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C98" t="s">
         <v>349</v>
       </c>
       <c r="D98" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E98">
         <v>82.9</v>
@@ -32348,7 +32349,7 @@
         <v>70</v>
       </c>
       <c r="G98" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -32356,7 +32357,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -32364,7 +32365,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -32372,7 +32373,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -32380,13 +32381,13 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C102" t="s">
         <v>349</v>
       </c>
       <c r="D102" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E102">
         <v>66</v>
@@ -32395,7 +32396,7 @@
         <v>50</v>
       </c>
       <c r="G102" s="120" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -32403,7 +32404,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -32411,13 +32412,13 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C104" t="s">
         <v>370</v>
       </c>
       <c r="D104" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E104">
         <v>57.1</v>
@@ -32426,7 +32427,7 @@
         <v>70</v>
       </c>
       <c r="G104" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -32434,13 +32435,13 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C105" t="s">
         <v>349</v>
       </c>
       <c r="D105" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E105">
         <v>82.9</v>
@@ -32449,7 +32450,7 @@
         <v>70</v>
       </c>
       <c r="G105" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -32457,7 +32458,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -32465,7 +32466,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -32473,7 +32474,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -32481,13 +32482,13 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C109" t="s">
         <v>349</v>
       </c>
       <c r="D109" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E109">
         <v>70</v>
@@ -32496,7 +32497,7 @@
         <v>50</v>
       </c>
       <c r="G109" s="120" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -32504,7 +32505,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -32512,7 +32513,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -32520,13 +32521,13 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C112" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D112" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E112">
         <v>82.8</v>
@@ -32535,7 +32536,7 @@
         <v>70</v>
       </c>
       <c r="G112" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -32543,13 +32544,13 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C113" t="s">
         <v>349</v>
       </c>
       <c r="D113" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E113">
         <v>85.7</v>
@@ -32558,7 +32559,7 @@
         <v>70</v>
       </c>
       <c r="G113" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -32566,13 +32567,13 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C114" t="s">
         <v>349</v>
       </c>
       <c r="D114" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E114">
         <v>85.7</v>
@@ -32581,7 +32582,7 @@
         <v>70</v>
       </c>
       <c r="G114" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -32589,7 +32590,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -32597,7 +32598,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -32605,7 +32606,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -32613,13 +32614,13 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C118" t="s">
         <v>390</v>
       </c>
       <c r="D118" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E118">
         <v>100</v>
@@ -32628,7 +32629,7 @@
         <v>100</v>
       </c>
       <c r="G118" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -32636,7 +32637,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -32644,7 +32645,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -32652,7 +32653,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -32660,7 +32661,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -32668,7 +32669,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -32676,7 +32677,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -32684,7 +32685,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -32692,7 +32693,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -32700,7 +32701,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -32708,7 +32709,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -32716,7 +32717,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -32724,13 +32725,13 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C130" t="s">
         <v>390</v>
       </c>
       <c r="D130" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E130">
         <v>94.3</v>
@@ -32739,7 +32740,7 @@
         <v>70</v>
       </c>
       <c r="G130" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -32747,13 +32748,13 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C131" t="s">
+        <v>407</v>
+      </c>
+      <c r="D131" t="s">
         <v>410</v>
-      </c>
-      <c r="D131" t="s">
-        <v>413</v>
       </c>
       <c r="E131">
         <v>62.3</v>
@@ -32762,7 +32763,7 @@
         <v>69</v>
       </c>
       <c r="G131" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -32770,7 +32771,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -32778,7 +32779,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -32786,13 +32787,13 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C134" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D134" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E134">
         <v>85</v>
@@ -32809,7 +32810,7 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -32817,7 +32818,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -32825,7 +32826,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -32833,7 +32834,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -32841,7 +32842,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -32849,7 +32850,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -32857,7 +32858,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -32865,7 +32866,7 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -32881,9 +32882,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892130B0-4D3E-4381-8355-A56FEEA0ADAB}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B142"/>
+      <selection pane="bottomLeft" activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -32927,7 +32928,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -32935,7 +32936,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -32943,7 +32944,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -32951,7 +32952,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -32959,7 +32960,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F6" s="120"/>
     </row>
@@ -32968,7 +32969,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -32976,7 +32977,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -32984,7 +32985,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -32992,7 +32993,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -33000,7 +33001,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -33008,7 +33009,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -33016,7 +33017,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -33024,7 +33025,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -33032,7 +33033,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -33040,7 +33041,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -33048,7 +33049,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -33056,7 +33057,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -33064,7 +33065,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -33072,7 +33073,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -33080,7 +33081,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -33088,7 +33089,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -33096,7 +33097,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -33104,7 +33105,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -33112,7 +33113,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -33120,7 +33121,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -33128,7 +33129,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -33136,7 +33137,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -33144,7 +33145,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -33152,7 +33153,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -33160,7 +33161,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -33168,7 +33169,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -33176,7 +33177,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -33184,7 +33185,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -33192,7 +33193,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -33200,7 +33201,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -33208,7 +33209,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -33216,7 +33217,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -33224,7 +33225,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -33232,7 +33233,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -33240,7 +33241,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -33248,7 +33249,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -33256,7 +33257,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -33264,7 +33265,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -33272,7 +33273,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -33280,7 +33281,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -33288,7 +33289,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -33296,7 +33297,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -33304,7 +33305,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -33312,7 +33313,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -33320,7 +33321,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -33328,7 +33329,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -33336,7 +33337,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -33344,7 +33345,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -33352,7 +33353,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -33360,7 +33361,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -33368,7 +33369,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -33376,7 +33377,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -33384,7 +33385,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -33392,7 +33393,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -33400,7 +33401,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -33408,7 +33409,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -33416,7 +33417,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -33424,7 +33425,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -33432,7 +33433,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -33440,7 +33441,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -33448,7 +33449,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -33456,7 +33457,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -33464,7 +33465,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -33472,7 +33473,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -33480,7 +33481,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -33488,7 +33489,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -33496,7 +33497,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -33504,7 +33505,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -33512,7 +33513,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -33520,7 +33521,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -33528,7 +33529,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -33536,7 +33537,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -33544,7 +33545,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -33552,7 +33553,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -33560,7 +33561,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -33568,7 +33569,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -33576,7 +33577,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -33584,7 +33585,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -33592,7 +33593,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -33600,7 +33601,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -33608,7 +33609,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -33616,7 +33617,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -33624,7 +33625,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -33632,7 +33633,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -33640,7 +33641,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -33648,7 +33649,7 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -33656,7 +33657,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -33664,7 +33665,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -33672,7 +33673,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -33680,7 +33681,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -33688,7 +33689,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -33696,7 +33697,7 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C98" t="s">
         <v>247</v>
@@ -33719,7 +33720,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -33727,7 +33728,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -33735,7 +33736,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -33743,7 +33744,7 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C102" t="s">
         <v>247</v>
@@ -33766,7 +33767,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -33774,7 +33775,7 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C104" t="s">
         <v>247</v>
@@ -33797,7 +33798,7 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -33805,7 +33806,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -33813,7 +33814,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -33821,7 +33822,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -33829,7 +33830,7 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -33837,7 +33838,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C110" t="s">
         <v>244</v>
@@ -33860,7 +33861,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -33868,7 +33869,7 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C112" t="s">
         <v>247</v>
@@ -33891,7 +33892,7 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -33899,7 +33900,7 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -33907,7 +33908,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -33915,7 +33916,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -33923,7 +33924,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C117" t="s">
         <v>244</v>
@@ -33946,7 +33947,7 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -33954,7 +33955,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -33962,7 +33963,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C120" t="s">
         <v>244</v>
@@ -33985,7 +33986,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C121" s="10" t="s">
         <v>244</v>
@@ -34008,7 +34009,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -34016,7 +34017,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C123" t="s">
         <v>120</v>
@@ -34036,7 +34037,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -34044,7 +34045,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C125" t="s">
         <v>244</v>
@@ -34067,7 +34068,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C126" t="s">
         <v>244</v>
@@ -34090,7 +34091,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C127" t="s">
         <v>244</v>
@@ -34113,7 +34114,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -34121,7 +34122,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -34129,7 +34130,7 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -34137,7 +34138,7 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -34145,7 +34146,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C132" t="s">
         <v>120</v>
@@ -34165,7 +34166,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -34173,22 +34174,7 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>427</v>
-      </c>
-      <c r="C134" t="s">
-        <v>395</v>
-      </c>
-      <c r="D134" t="s">
         <v>424</v>
-      </c>
-      <c r="E134">
-        <v>61.1</v>
-      </c>
-      <c r="F134">
-        <v>9</v>
-      </c>
-      <c r="G134" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -34196,7 +34182,7 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -34204,6 +34190,21 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
+        <v>424</v>
+      </c>
+      <c r="C136" t="s">
+        <v>392</v>
+      </c>
+      <c r="D136" t="s">
+        <v>421</v>
+      </c>
+      <c r="E136">
+        <v>63.3</v>
+      </c>
+      <c r="F136">
+        <v>15</v>
+      </c>
+      <c r="G136" s="120" t="s">
         <v>427</v>
       </c>
     </row>
@@ -34212,7 +34213,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C137" t="s">
         <v>120</v>
@@ -34232,7 +34233,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C138" t="s">
         <v>47</v>
@@ -34255,7 +34256,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C139" t="s">
         <v>47</v>
@@ -34278,7 +34279,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -34286,7 +34287,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -34294,10 +34295,13 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G136" r:id="rId1" xr:uid="{D80F5635-30CC-49EF-84A9-78CA339328E3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34306,9 +34310,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDB671D-7717-4C97-9193-8C24EFD9DC8A}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
+      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -34351,7 +34355,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -34359,7 +34363,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -34367,7 +34371,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -34375,7 +34379,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -34383,7 +34387,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G6" s="120"/>
     </row>
@@ -34392,7 +34396,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -34400,7 +34404,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -34408,7 +34412,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -34416,7 +34420,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -34424,7 +34428,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -34432,7 +34436,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -34440,7 +34444,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -34448,7 +34452,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -34456,7 +34460,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -34464,7 +34468,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -34472,7 +34476,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -34480,7 +34484,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -34488,7 +34492,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -34496,7 +34500,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -34504,7 +34508,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -34512,7 +34516,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -34520,7 +34524,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -34528,7 +34532,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -34536,7 +34540,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -34544,7 +34548,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -34552,7 +34556,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -34560,7 +34564,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -34568,7 +34572,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -34576,7 +34580,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -34584,7 +34588,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -34592,7 +34596,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -34600,7 +34604,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -34608,7 +34612,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -34616,7 +34620,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -34624,7 +34628,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -34632,7 +34636,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -34640,7 +34644,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -34648,7 +34652,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -34656,7 +34660,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -34664,7 +34668,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -34672,7 +34676,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -34680,7 +34684,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -34688,7 +34692,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -34696,7 +34700,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -34704,7 +34708,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -34712,7 +34716,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -34720,7 +34724,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -34728,7 +34732,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -34736,7 +34740,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -34744,7 +34748,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -34752,7 +34756,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -34760,7 +34764,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -34768,7 +34772,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -34776,7 +34780,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -34784,7 +34788,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -34792,7 +34796,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -34800,7 +34804,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -34808,7 +34812,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -34816,7 +34820,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -34824,7 +34828,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -34832,7 +34836,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -34840,7 +34844,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -34848,7 +34852,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -34856,7 +34860,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -34864,7 +34868,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -34872,7 +34876,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -34880,7 +34884,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -34888,7 +34892,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -34896,7 +34900,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -34904,7 +34908,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -34912,7 +34916,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -34920,7 +34924,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -34928,7 +34932,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -34936,7 +34940,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -34944,7 +34948,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -34952,7 +34956,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -34960,7 +34964,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -34968,7 +34972,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -34976,7 +34980,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -34984,7 +34988,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -34992,7 +34996,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -35000,7 +35004,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -35008,7 +35012,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -35016,7 +35020,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -35024,7 +35028,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -35032,7 +35036,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -35040,7 +35044,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -35048,7 +35052,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -35056,7 +35060,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -35064,7 +35068,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -35072,7 +35076,7 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -35080,7 +35084,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -35088,7 +35092,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C94" t="s">
         <v>226</v>
@@ -35111,7 +35115,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C95" t="s">
         <v>226</v>
@@ -35134,7 +35138,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -35142,7 +35146,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -35150,7 +35154,7 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -35158,7 +35162,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -35166,7 +35170,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -35174,7 +35178,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -35182,7 +35186,7 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -35190,7 +35194,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -35198,7 +35202,7 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -35206,7 +35210,7 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -35214,7 +35218,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -35222,7 +35226,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -35230,7 +35234,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -35238,7 +35242,7 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -35246,7 +35250,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -35254,7 +35258,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -35262,7 +35266,7 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -35270,7 +35274,7 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -35278,7 +35282,7 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -35286,7 +35290,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -35294,7 +35298,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -35302,7 +35306,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -35310,7 +35314,7 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -35318,7 +35322,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -35326,7 +35330,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -35334,7 +35338,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -35342,7 +35346,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -35350,7 +35354,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C123" t="s">
         <v>47</v>
@@ -35370,7 +35374,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -35378,7 +35382,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -35386,7 +35390,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -35394,7 +35398,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -35402,7 +35406,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -35410,7 +35414,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -35418,7 +35422,7 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -35426,7 +35430,7 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C131" t="s">
         <v>47</v>
@@ -35449,7 +35453,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C132" t="s">
         <v>47</v>
@@ -35469,7 +35473,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -35477,7 +35481,7 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -35485,6 +35489,21 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
+        <v>425</v>
+      </c>
+      <c r="C135" t="s">
+        <v>392</v>
+      </c>
+      <c r="D135" t="s">
+        <v>46</v>
+      </c>
+      <c r="E135">
+        <v>70</v>
+      </c>
+      <c r="F135">
+        <v>10</v>
+      </c>
+      <c r="G135" s="120" t="s">
         <v>428</v>
       </c>
     </row>
@@ -35493,22 +35512,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>428</v>
-      </c>
-      <c r="C136" t="s">
-        <v>395</v>
-      </c>
-      <c r="D136" t="s">
-        <v>46</v>
-      </c>
-      <c r="E136">
-        <v>75.5</v>
-      </c>
-      <c r="F136">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -35516,7 +35520,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C137" t="s">
         <v>47</v>
@@ -35536,7 +35540,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C138" t="s">
         <v>47</v>
@@ -35559,7 +35563,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C139" t="s">
         <v>47</v>
@@ -35582,7 +35586,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C140" t="s">
         <v>47</v>
@@ -35605,7 +35609,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C141" t="s">
         <v>47</v>
@@ -35628,7 +35632,7 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C142" t="s">
         <v>47</v>
@@ -35647,6 +35651,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G135" r:id="rId1" xr:uid="{F9C925D5-0538-4888-93BF-C5A940C52A88}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -37174,7 +37181,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -37182,7 +37189,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -37190,7 +37197,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -37198,7 +37205,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -37206,7 +37213,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E6" s="120"/>
     </row>
@@ -37215,7 +37222,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -37223,7 +37230,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -37231,7 +37238,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -37239,7 +37246,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -37247,7 +37254,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -37255,7 +37262,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -37263,7 +37270,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -37271,7 +37278,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -37279,7 +37286,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -37287,7 +37294,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -37295,7 +37302,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -37303,7 +37310,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -37311,7 +37318,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -37319,7 +37326,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -37327,7 +37334,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -37335,7 +37342,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -37343,7 +37350,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -37351,7 +37358,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -37359,7 +37366,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -37367,7 +37374,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -37375,7 +37382,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -37383,7 +37390,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -37391,7 +37398,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -37399,7 +37406,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -37407,7 +37414,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -37415,7 +37422,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -37423,7 +37430,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -37431,7 +37438,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -37439,7 +37446,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -37447,7 +37454,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -37455,7 +37462,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -37463,7 +37470,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -37471,7 +37478,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -37479,7 +37486,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -37487,7 +37494,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -37495,7 +37502,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -37503,7 +37510,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -37511,7 +37518,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -37519,7 +37526,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -37527,7 +37534,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -37535,7 +37542,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -37543,7 +37550,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -37551,7 +37558,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -37559,7 +37566,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -37567,7 +37574,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -37575,7 +37582,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -37583,7 +37590,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -37591,7 +37598,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -37599,7 +37606,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -37607,7 +37614,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -37615,7 +37622,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -37623,7 +37630,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -37631,7 +37638,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -37639,7 +37646,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -37647,7 +37654,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -37655,7 +37662,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -37663,7 +37670,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -37671,7 +37678,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -37679,7 +37686,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -37687,7 +37694,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -37695,7 +37702,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -37703,7 +37710,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -37711,7 +37718,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -37719,7 +37726,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -37727,7 +37734,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -37735,7 +37742,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -37743,7 +37750,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -37751,7 +37758,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -37759,7 +37766,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -37767,7 +37774,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -37775,7 +37782,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -37783,7 +37790,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -37791,7 +37798,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -37799,7 +37806,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -37807,7 +37814,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -37815,7 +37822,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -37823,7 +37830,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -37831,7 +37838,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -37839,7 +37846,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -37847,7 +37854,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -37855,7 +37862,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C87" t="s">
         <v>349</v>
@@ -37878,7 +37885,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -37886,7 +37893,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C89" t="s">
         <v>349</v>
@@ -37909,7 +37916,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -37917,7 +37924,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C91" t="s">
         <v>349</v>
@@ -37940,7 +37947,7 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -37948,7 +37955,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C93" t="s">
         <v>349</v>
@@ -37971,7 +37978,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -37979,7 +37986,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -37987,7 +37994,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -37995,7 +38002,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C97" t="s">
         <v>349</v>
@@ -38018,7 +38025,7 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -38026,7 +38033,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C99" t="s">
         <v>390</v>
@@ -38049,7 +38056,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C100" t="s">
         <v>349</v>
@@ -38072,7 +38079,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -38080,7 +38087,7 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C102" t="s">
         <v>349</v>
@@ -38103,7 +38110,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -38111,7 +38118,7 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C104" t="s">
         <v>349</v>
@@ -38134,7 +38141,7 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C105" t="s">
         <v>349</v>
@@ -38157,7 +38164,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -38165,7 +38172,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C107" t="s">
         <v>349</v>
@@ -38188,7 +38195,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -38196,7 +38203,7 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C109" t="s">
         <v>377</v>
@@ -38219,7 +38226,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C110" t="s">
         <v>349</v>
@@ -38242,7 +38249,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C111" t="s">
         <v>377</v>
@@ -38265,7 +38272,7 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C112" t="s">
         <v>377</v>
@@ -38288,7 +38295,7 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -38296,7 +38303,7 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C114" t="s">
         <v>377</v>
@@ -38319,7 +38326,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -38327,7 +38334,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -38335,7 +38342,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -38343,7 +38350,7 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -38351,7 +38358,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C119" t="s">
         <v>377</v>
@@ -38374,7 +38381,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C120" t="s">
         <v>370</v>
@@ -38397,7 +38404,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -38405,7 +38412,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -38413,7 +38420,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -38421,7 +38428,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -38429,7 +38436,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C125" t="s">
         <v>370</v>
@@ -38452,7 +38459,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -38460,7 +38467,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C127" t="s">
         <v>377</v>
@@ -38483,7 +38490,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -38491,7 +38498,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -38499,7 +38506,7 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -38507,7 +38514,7 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -38515,7 +38522,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -38523,7 +38530,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -38531,13 +38538,13 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C134" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D134" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E134">
         <v>85</v>
@@ -38554,7 +38561,7 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -38562,7 +38569,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -38570,7 +38577,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -38578,7 +38585,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -38586,7 +38593,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -38594,7 +38601,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -38602,7 +38609,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -38610,7 +38617,7 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Lighting_Efficacy_Data.xlsx
+++ b/Data/Lighting_Efficacy_Data.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LightingPaper2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4804A61A-D057-48CF-AB55-BA91F6F837F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA23385-954F-492E-AA3C-78527C4241B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11532" yWindow="2184" windowWidth="11508" windowHeight="9420" tabRatio="712" activeTab="3" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="11508" windowHeight="9420" tabRatio="712" activeTab="1" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
   </bookViews>
   <sheets>
     <sheet name="le_Inc" sheetId="15" r:id="rId1"/>
-    <sheet name="le_HPS&lt;100W" sheetId="22" r:id="rId2"/>
+    <sheet name="le_Hal" sheetId="18" r:id="rId2"/>
     <sheet name="le_CFL" sheetId="16" r:id="rId3"/>
     <sheet name="le_LED" sheetId="19" r:id="rId4"/>
-    <sheet name="Hal" sheetId="18" r:id="rId5"/>
+    <sheet name="HPS&lt;100W" sheetId="22" r:id="rId5"/>
     <sheet name="HPS200+" sheetId="20" r:id="rId6"/>
     <sheet name="Fl" sheetId="17" r:id="rId7"/>
     <sheet name="Figures" sheetId="21" r:id="rId8"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3972" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3975" uniqueCount="431">
   <si>
     <t>Tallow</t>
   </si>
@@ -1353,6 +1353,12 @@
   </si>
   <si>
     <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2492</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2514</t>
   </si>
 </sst>
 </file>
@@ -2867,7 +2873,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hal!$A$2:$A$142</c:f>
+              <c:f>le_Hal!$A$2:$A$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -3299,7 +3305,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hal!$E$2:$E$142</c:f>
+              <c:f>le_Hal!$E$2:$E$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="141"/>
@@ -3359,6 +3365,9 @@
                 </c:pt>
                 <c:pt idx="130">
                   <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>17.5</c:v>
@@ -31501,22 +31510,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B60507-60AE-40C8-BF7F-ED247905C63D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727D1E04-31A3-4998-85D9-AF32A9D150AF}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B142"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -31550,7 +31560,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -31558,7 +31568,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -31566,7 +31576,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -31574,7 +31584,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -31582,7 +31592,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
       <c r="E6" s="120"/>
     </row>
@@ -31591,7 +31601,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -31599,7 +31609,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -31607,7 +31617,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -31615,7 +31625,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -31623,7 +31633,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -31631,7 +31641,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -31639,7 +31649,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -31647,7 +31657,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -31655,7 +31665,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -31663,7 +31673,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -31671,7 +31681,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -31679,7 +31689,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -31687,7 +31697,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -31695,7 +31705,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -31703,7 +31713,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -31711,7 +31721,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -31719,7 +31729,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -31727,7 +31737,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -31735,7 +31745,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -31743,7 +31753,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -31751,7 +31761,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -31759,7 +31769,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -31767,7 +31777,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -31775,7 +31785,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -31783,7 +31793,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -31791,7 +31801,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -31799,7 +31809,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -31807,7 +31817,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -31815,7 +31825,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -31823,7 +31833,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -31831,7 +31841,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -31839,7 +31849,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -31847,7 +31857,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -31855,7 +31865,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -31863,7 +31873,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -31871,7 +31881,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -31879,7 +31889,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -31887,7 +31897,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -31895,7 +31905,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -31903,7 +31913,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -31911,7 +31921,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -31919,7 +31929,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -31927,7 +31937,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -31935,7 +31945,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -31943,7 +31953,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -31951,7 +31961,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -31959,7 +31969,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -31967,7 +31977,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -31975,7 +31985,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -31983,7 +31993,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -31991,7 +32001,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -31999,7 +32009,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -32007,7 +32017,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -32015,7 +32025,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -32023,7 +32033,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -32031,7 +32041,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -32039,7 +32049,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -32047,7 +32057,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -32055,7 +32065,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -32063,7 +32073,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -32071,7 +32081,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -32079,7 +32089,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -32087,7 +32097,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -32095,7 +32105,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -32103,7 +32113,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -32111,7 +32121,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -32119,7 +32129,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -32127,7 +32137,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -32135,7 +32145,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -32143,7 +32153,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -32151,7 +32161,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -32159,7 +32169,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -32167,7 +32177,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -32175,7 +32185,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -32183,7 +32193,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -32191,7 +32201,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -32199,7 +32209,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -32207,7 +32217,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -32215,7 +32225,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -32223,7 +32233,22 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>423</v>
+        <v>43</v>
+      </c>
+      <c r="C86" t="s">
+        <v>278</v>
+      </c>
+      <c r="D86" t="s">
+        <v>279</v>
+      </c>
+      <c r="E86">
+        <v>21</v>
+      </c>
+      <c r="F86">
+        <v>500</v>
+      </c>
+      <c r="G86" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -32231,7 +32256,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -32239,7 +32264,22 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>423</v>
+        <v>43</v>
+      </c>
+      <c r="C88" t="s">
+        <v>278</v>
+      </c>
+      <c r="D88" t="s">
+        <v>283</v>
+      </c>
+      <c r="E88">
+        <v>26.2</v>
+      </c>
+      <c r="F88">
+        <v>420</v>
+      </c>
+      <c r="G88" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -32247,7 +32287,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -32255,7 +32295,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -32263,7 +32303,22 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>423</v>
+        <v>43</v>
+      </c>
+      <c r="C91" t="s">
+        <v>287</v>
+      </c>
+      <c r="D91" t="s">
+        <v>285</v>
+      </c>
+      <c r="E91">
+        <v>18</v>
+      </c>
+      <c r="F91">
+        <v>50</v>
+      </c>
+      <c r="G91" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -32271,22 +32326,7 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>423</v>
-      </c>
-      <c r="C92" t="s">
-        <v>349</v>
-      </c>
-      <c r="D92" t="s">
-        <v>393</v>
-      </c>
-      <c r="E92">
-        <v>80</v>
-      </c>
-      <c r="F92">
-        <v>125</v>
-      </c>
-      <c r="G92" t="s">
-        <v>394</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -32294,7 +32334,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -32302,7 +32342,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -32310,7 +32350,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -32318,7 +32358,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -32326,7 +32366,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -32334,22 +32374,7 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>423</v>
-      </c>
-      <c r="C98" t="s">
-        <v>349</v>
-      </c>
-      <c r="D98" t="s">
-        <v>395</v>
-      </c>
-      <c r="E98">
-        <v>82.9</v>
-      </c>
-      <c r="F98">
-        <v>70</v>
-      </c>
-      <c r="G98" t="s">
-        <v>396</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -32357,7 +32382,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -32365,7 +32390,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -32373,7 +32398,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -32381,22 +32406,7 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>423</v>
-      </c>
-      <c r="C102" t="s">
-        <v>349</v>
-      </c>
-      <c r="D102" t="s">
-        <v>397</v>
-      </c>
-      <c r="E102">
-        <v>66</v>
-      </c>
-      <c r="F102">
-        <v>50</v>
-      </c>
-      <c r="G102" s="120" t="s">
-        <v>399</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -32404,7 +32414,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -32412,22 +32422,7 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>423</v>
-      </c>
-      <c r="C104" t="s">
-        <v>370</v>
-      </c>
-      <c r="D104" t="s">
-        <v>414</v>
-      </c>
-      <c r="E104">
-        <v>57.1</v>
-      </c>
-      <c r="F104">
-        <v>70</v>
-      </c>
-      <c r="G104" t="s">
-        <v>415</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -32435,22 +32430,7 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>423</v>
-      </c>
-      <c r="C105" t="s">
-        <v>349</v>
-      </c>
-      <c r="D105" t="s">
-        <v>402</v>
-      </c>
-      <c r="E105">
-        <v>82.9</v>
-      </c>
-      <c r="F105">
-        <v>70</v>
-      </c>
-      <c r="G105" t="s">
-        <v>401</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -32458,7 +32438,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -32466,7 +32446,22 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>423</v>
+        <v>43</v>
+      </c>
+      <c r="C107" t="s">
+        <v>278</v>
+      </c>
+      <c r="D107" t="s">
+        <v>281</v>
+      </c>
+      <c r="E107">
+        <v>17</v>
+      </c>
+      <c r="F107">
+        <v>300</v>
+      </c>
+      <c r="G107" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -32474,7 +32469,22 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>423</v>
+        <v>43</v>
+      </c>
+      <c r="C108" t="s">
+        <v>291</v>
+      </c>
+      <c r="D108" t="s">
+        <v>294</v>
+      </c>
+      <c r="E108">
+        <v>16.8</v>
+      </c>
+      <c r="F108">
+        <v>250</v>
+      </c>
+      <c r="G108" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -32482,22 +32492,22 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="D109" t="s">
-        <v>404</v>
+        <v>324</v>
       </c>
       <c r="E109">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F109">
         <v>50</v>
       </c>
-      <c r="G109" s="120" t="s">
-        <v>403</v>
+      <c r="G109" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -32505,7 +32515,22 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>423</v>
+        <v>43</v>
+      </c>
+      <c r="C110" t="s">
+        <v>323</v>
+      </c>
+      <c r="D110" t="s">
+        <v>328</v>
+      </c>
+      <c r="E110">
+        <v>18</v>
+      </c>
+      <c r="F110">
+        <v>50</v>
+      </c>
+      <c r="G110" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -32513,7 +32538,22 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>423</v>
+        <v>43</v>
+      </c>
+      <c r="C111" t="s">
+        <v>291</v>
+      </c>
+      <c r="D111" t="s">
+        <v>292</v>
+      </c>
+      <c r="E111">
+        <v>24</v>
+      </c>
+      <c r="F111">
+        <v>1000</v>
+      </c>
+      <c r="G111" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -32521,22 +32561,22 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
       <c r="C112" t="s">
-        <v>407</v>
+        <v>291</v>
       </c>
       <c r="D112" t="s">
-        <v>408</v>
+        <v>297</v>
       </c>
       <c r="E112">
-        <v>82.8</v>
+        <v>16.8</v>
       </c>
       <c r="F112">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="G112" t="s">
-        <v>417</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -32544,22 +32584,22 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
       <c r="C113" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="D113" t="s">
-        <v>406</v>
+        <v>312</v>
       </c>
       <c r="E113">
-        <v>85.7</v>
+        <v>14.5</v>
       </c>
       <c r="F113">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G113" t="s">
-        <v>405</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -32567,22 +32607,22 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
       <c r="C114" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="D114" t="s">
-        <v>398</v>
+        <v>326</v>
       </c>
       <c r="E114">
-        <v>85.7</v>
+        <v>20</v>
       </c>
       <c r="F114">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="G114" t="s">
-        <v>400</v>
+        <v>327</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -32590,7 +32630,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -32598,7 +32638,22 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>423</v>
+        <v>43</v>
+      </c>
+      <c r="C116" t="s">
+        <v>311</v>
+      </c>
+      <c r="D116" t="s">
+        <v>314</v>
+      </c>
+      <c r="E116">
+        <v>14</v>
+      </c>
+      <c r="F116">
+        <v>60</v>
+      </c>
+      <c r="G116" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -32606,7 +32661,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -32614,22 +32669,7 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>423</v>
-      </c>
-      <c r="C118" t="s">
-        <v>390</v>
-      </c>
-      <c r="D118" t="s">
-        <v>412</v>
-      </c>
-      <c r="E118">
-        <v>100</v>
-      </c>
-      <c r="F118">
-        <v>100</v>
-      </c>
-      <c r="G118" t="s">
-        <v>411</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -32637,7 +32677,22 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>423</v>
+        <v>43</v>
+      </c>
+      <c r="C119" t="s">
+        <v>318</v>
+      </c>
+      <c r="D119" t="s">
+        <v>319</v>
+      </c>
+      <c r="E119">
+        <v>10.5</v>
+      </c>
+      <c r="F119">
+        <v>50</v>
+      </c>
+      <c r="G119" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -32645,7 +32700,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -32653,7 +32708,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -32661,7 +32716,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -32669,7 +32724,19 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>423</v>
+        <v>43</v>
+      </c>
+      <c r="C123" t="s">
+        <v>277</v>
+      </c>
+      <c r="D123" t="s">
+        <v>218</v>
+      </c>
+      <c r="E123">
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -32677,7 +32744,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -32685,7 +32752,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -32693,7 +32760,22 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>423</v>
+        <v>43</v>
+      </c>
+      <c r="C126" t="s">
+        <v>311</v>
+      </c>
+      <c r="D126" t="s">
+        <v>316</v>
+      </c>
+      <c r="E126">
+        <v>13.7</v>
+      </c>
+      <c r="F126">
+        <v>60</v>
+      </c>
+      <c r="G126" s="120" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -32701,7 +32783,22 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>423</v>
+        <v>43</v>
+      </c>
+      <c r="C127" t="s">
+        <v>288</v>
+      </c>
+      <c r="D127" t="s">
+        <v>289</v>
+      </c>
+      <c r="E127">
+        <v>13.7</v>
+      </c>
+      <c r="F127">
+        <v>60</v>
+      </c>
+      <c r="G127" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -32709,7 +32806,22 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>423</v>
+        <v>43</v>
+      </c>
+      <c r="C128" t="s">
+        <v>318</v>
+      </c>
+      <c r="D128" t="s">
+        <v>321</v>
+      </c>
+      <c r="E128">
+        <v>12.3</v>
+      </c>
+      <c r="F128">
+        <v>40</v>
+      </c>
+      <c r="G128" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -32717,7 +32829,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -32725,22 +32837,22 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
       <c r="C130" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="D130" t="s">
-        <v>413</v>
+        <v>299</v>
       </c>
       <c r="E130">
-        <v>94.3</v>
+        <v>20.7</v>
       </c>
       <c r="F130">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>416</v>
+        <v>300</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -32748,22 +32860,7 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>423</v>
-      </c>
-      <c r="C131" t="s">
-        <v>407</v>
-      </c>
-      <c r="D131" t="s">
-        <v>410</v>
-      </c>
-      <c r="E131">
-        <v>62.3</v>
-      </c>
-      <c r="F131">
-        <v>69</v>
-      </c>
-      <c r="G131" t="s">
-        <v>409</v>
+        <v>43</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -32771,7 +32868,19 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>423</v>
+        <v>43</v>
+      </c>
+      <c r="C132" t="s">
+        <v>276</v>
+      </c>
+      <c r="D132" t="s">
+        <v>218</v>
+      </c>
+      <c r="E132">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G132" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -32779,7 +32888,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -32787,22 +32896,22 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
       <c r="C134" t="s">
         <v>392</v>
       </c>
       <c r="D134" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="E134">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="F134">
-        <v>100</v>
-      </c>
-      <c r="G134" t="s">
-        <v>391</v>
+        <v>65</v>
+      </c>
+      <c r="G134" s="120" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -32810,7 +32919,7 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -32818,7 +32927,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -32826,7 +32935,19 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>423</v>
+        <v>43</v>
+      </c>
+      <c r="C137" t="s">
+        <v>273</v>
+      </c>
+      <c r="D137" t="s">
+        <v>218</v>
+      </c>
+      <c r="E137">
+        <v>17.5</v>
+      </c>
+      <c r="G137" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -32834,7 +32955,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -32842,7 +32963,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -32850,7 +32971,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -32858,7 +32979,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -32866,13 +32987,13 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>423</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G102" r:id="rId1" xr:uid="{497818AE-E34B-47DC-9D02-3D4211664C35}"/>
-    <hyperlink ref="G109" r:id="rId2" xr:uid="{B2DFE39E-FBF9-4AEF-8AB5-BBACAF19AB80}"/>
+    <hyperlink ref="G126" r:id="rId1" xr:uid="{26AF3C9A-8692-410D-95F0-DE82A7A6CAB4}"/>
+    <hyperlink ref="G134" r:id="rId2" xr:uid="{306F7BBF-1505-4F63-8A27-5FA1563D0899}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34310,7 +34431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EDB671D-7717-4C97-9193-8C24EFD9DC8A}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
     </sheetView>
@@ -35659,23 +35780,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727D1E04-31A3-4998-85D9-AF32A9D150AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B60507-60AE-40C8-BF7F-ED247905C63D}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
     <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -35709,7 +35829,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -35717,7 +35837,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -35725,7 +35845,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -35733,7 +35853,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -35741,7 +35861,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
       <c r="E6" s="120"/>
     </row>
@@ -35750,7 +35870,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -35758,7 +35878,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -35766,7 +35886,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -35774,7 +35894,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -35782,7 +35902,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -35790,7 +35910,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -35798,7 +35918,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -35806,7 +35926,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -35814,7 +35934,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -35822,7 +35942,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -35830,7 +35950,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -35838,7 +35958,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -35846,7 +35966,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -35854,7 +35974,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -35862,7 +35982,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -35870,7 +35990,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -35878,7 +35998,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -35886,7 +36006,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -35894,7 +36014,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -35902,7 +36022,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -35910,7 +36030,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -35918,7 +36038,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -35926,7 +36046,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -35934,7 +36054,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -35942,7 +36062,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -35950,7 +36070,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -35958,7 +36078,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -35966,7 +36086,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -35974,7 +36094,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -35982,7 +36102,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -35990,7 +36110,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -35998,7 +36118,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -36006,7 +36126,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -36014,7 +36134,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -36022,7 +36142,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -36030,7 +36150,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -36038,7 +36158,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -36046,7 +36166,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -36054,7 +36174,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -36062,7 +36182,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -36070,7 +36190,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -36078,7 +36198,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -36086,7 +36206,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -36094,7 +36214,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -36102,7 +36222,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -36110,7 +36230,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -36118,7 +36238,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -36126,7 +36246,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -36134,7 +36254,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -36142,7 +36262,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -36150,7 +36270,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -36158,7 +36278,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -36166,7 +36286,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -36174,7 +36294,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -36182,7 +36302,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -36190,7 +36310,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -36198,7 +36318,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -36206,7 +36326,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -36214,7 +36334,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -36222,7 +36342,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -36230,7 +36350,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -36238,7 +36358,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -36246,7 +36366,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -36254,7 +36374,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -36262,7 +36382,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -36270,7 +36390,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -36278,7 +36398,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -36286,7 +36406,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -36294,7 +36414,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -36302,7 +36422,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -36310,7 +36430,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -36318,7 +36438,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -36326,7 +36446,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -36334,7 +36454,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -36342,7 +36462,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -36350,7 +36470,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -36358,7 +36478,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -36366,7 +36486,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -36374,7 +36494,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -36382,22 +36502,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
-      </c>
-      <c r="C86" t="s">
-        <v>278</v>
-      </c>
-      <c r="D86" t="s">
-        <v>279</v>
-      </c>
-      <c r="E86">
-        <v>21</v>
-      </c>
-      <c r="F86">
-        <v>500</v>
-      </c>
-      <c r="G86" t="s">
-        <v>280</v>
+        <v>423</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -36405,7 +36510,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -36413,22 +36518,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
-      </c>
-      <c r="C88" t="s">
-        <v>278</v>
-      </c>
-      <c r="D88" t="s">
-        <v>283</v>
-      </c>
-      <c r="E88">
-        <v>26.2</v>
-      </c>
-      <c r="F88">
-        <v>420</v>
-      </c>
-      <c r="G88" t="s">
-        <v>284</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -36436,7 +36526,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -36444,7 +36534,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -36452,22 +36542,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
-      </c>
-      <c r="C91" t="s">
-        <v>287</v>
-      </c>
-      <c r="D91" t="s">
-        <v>285</v>
-      </c>
-      <c r="E91">
-        <v>18</v>
-      </c>
-      <c r="F91">
-        <v>50</v>
-      </c>
-      <c r="G91" t="s">
-        <v>286</v>
+        <v>423</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -36475,7 +36550,22 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>423</v>
+      </c>
+      <c r="C92" t="s">
+        <v>349</v>
+      </c>
+      <c r="D92" t="s">
+        <v>393</v>
+      </c>
+      <c r="E92">
+        <v>80</v>
+      </c>
+      <c r="F92">
+        <v>125</v>
+      </c>
+      <c r="G92" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -36483,7 +36573,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -36491,7 +36581,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -36499,7 +36589,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -36507,7 +36597,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -36515,7 +36605,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -36523,7 +36613,22 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>423</v>
+      </c>
+      <c r="C98" t="s">
+        <v>349</v>
+      </c>
+      <c r="D98" t="s">
+        <v>395</v>
+      </c>
+      <c r="E98">
+        <v>82.9</v>
+      </c>
+      <c r="F98">
+        <v>70</v>
+      </c>
+      <c r="G98" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -36531,7 +36636,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -36539,7 +36644,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -36547,7 +36652,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -36555,7 +36660,22 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>423</v>
+      </c>
+      <c r="C102" t="s">
+        <v>349</v>
+      </c>
+      <c r="D102" t="s">
+        <v>397</v>
+      </c>
+      <c r="E102">
+        <v>66</v>
+      </c>
+      <c r="F102">
+        <v>50</v>
+      </c>
+      <c r="G102" s="120" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -36563,7 +36683,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -36571,7 +36691,22 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>423</v>
+      </c>
+      <c r="C104" t="s">
+        <v>370</v>
+      </c>
+      <c r="D104" t="s">
+        <v>414</v>
+      </c>
+      <c r="E104">
+        <v>57.1</v>
+      </c>
+      <c r="F104">
+        <v>70</v>
+      </c>
+      <c r="G104" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -36579,7 +36714,22 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>423</v>
+      </c>
+      <c r="C105" t="s">
+        <v>349</v>
+      </c>
+      <c r="D105" t="s">
+        <v>402</v>
+      </c>
+      <c r="E105">
+        <v>82.9</v>
+      </c>
+      <c r="F105">
+        <v>70</v>
+      </c>
+      <c r="G105" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -36587,7 +36737,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -36595,22 +36745,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
-      </c>
-      <c r="C107" t="s">
-        <v>278</v>
-      </c>
-      <c r="D107" t="s">
-        <v>281</v>
-      </c>
-      <c r="E107">
-        <v>17</v>
-      </c>
-      <c r="F107">
-        <v>300</v>
-      </c>
-      <c r="G107" t="s">
-        <v>282</v>
+        <v>423</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -36618,22 +36753,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
-      </c>
-      <c r="C108" t="s">
-        <v>291</v>
-      </c>
-      <c r="D108" t="s">
-        <v>294</v>
-      </c>
-      <c r="E108">
-        <v>16.8</v>
-      </c>
-      <c r="F108">
-        <v>250</v>
-      </c>
-      <c r="G108" t="s">
-        <v>295</v>
+        <v>423</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -36641,22 +36761,22 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
       <c r="C109" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="D109" t="s">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="E109">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F109">
         <v>50</v>
       </c>
-      <c r="G109" t="s">
-        <v>325</v>
+      <c r="G109" s="120" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -36664,22 +36784,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
-      </c>
-      <c r="C110" t="s">
-        <v>323</v>
-      </c>
-      <c r="D110" t="s">
-        <v>328</v>
-      </c>
-      <c r="E110">
-        <v>18</v>
-      </c>
-      <c r="F110">
-        <v>50</v>
-      </c>
-      <c r="G110" t="s">
-        <v>329</v>
+        <v>423</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -36687,22 +36792,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
-      </c>
-      <c r="C111" t="s">
-        <v>291</v>
-      </c>
-      <c r="D111" t="s">
-        <v>292</v>
-      </c>
-      <c r="E111">
-        <v>24</v>
-      </c>
-      <c r="F111">
-        <v>1000</v>
-      </c>
-      <c r="G111" t="s">
-        <v>293</v>
+        <v>423</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -36710,22 +36800,22 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
       <c r="C112" t="s">
-        <v>291</v>
+        <v>407</v>
       </c>
       <c r="D112" t="s">
-        <v>297</v>
+        <v>408</v>
       </c>
       <c r="E112">
-        <v>16.8</v>
+        <v>82.8</v>
       </c>
       <c r="F112">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="G112" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -36733,22 +36823,22 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
       <c r="C113" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="D113" t="s">
-        <v>312</v>
+        <v>406</v>
       </c>
       <c r="E113">
-        <v>14.5</v>
+        <v>85.7</v>
       </c>
       <c r="F113">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G113" t="s">
-        <v>313</v>
+        <v>405</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -36756,22 +36846,22 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
       <c r="C114" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="D114" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="E114">
-        <v>20</v>
+        <v>85.7</v>
       </c>
       <c r="F114">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="G114" t="s">
-        <v>327</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -36779,7 +36869,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -36787,22 +36877,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
-      </c>
-      <c r="C116" t="s">
-        <v>311</v>
-      </c>
-      <c r="D116" t="s">
-        <v>314</v>
-      </c>
-      <c r="E116">
-        <v>14</v>
-      </c>
-      <c r="F116">
-        <v>60</v>
-      </c>
-      <c r="G116" t="s">
-        <v>315</v>
+        <v>423</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -36810,7 +36885,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -36818,7 +36893,22 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>423</v>
+      </c>
+      <c r="C118" t="s">
+        <v>390</v>
+      </c>
+      <c r="D118" t="s">
+        <v>412</v>
+      </c>
+      <c r="E118">
+        <v>100</v>
+      </c>
+      <c r="F118">
+        <v>100</v>
+      </c>
+      <c r="G118" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -36826,22 +36916,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
-      </c>
-      <c r="C119" t="s">
-        <v>318</v>
-      </c>
-      <c r="D119" t="s">
-        <v>319</v>
-      </c>
-      <c r="E119">
-        <v>10.5</v>
-      </c>
-      <c r="F119">
-        <v>50</v>
-      </c>
-      <c r="G119" t="s">
-        <v>320</v>
+        <v>423</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -36849,7 +36924,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -36857,7 +36932,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -36865,7 +36940,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -36873,19 +36948,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
-      </c>
-      <c r="C123" t="s">
-        <v>277</v>
-      </c>
-      <c r="D123" t="s">
-        <v>218</v>
-      </c>
-      <c r="E123">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>153</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -36893,7 +36956,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -36901,7 +36964,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -36909,22 +36972,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
-      </c>
-      <c r="C126" t="s">
-        <v>311</v>
-      </c>
-      <c r="D126" t="s">
-        <v>316</v>
-      </c>
-      <c r="E126">
-        <v>13.7</v>
-      </c>
-      <c r="F126">
-        <v>60</v>
-      </c>
-      <c r="G126" s="120" t="s">
-        <v>317</v>
+        <v>423</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -36932,22 +36980,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
-      </c>
-      <c r="C127" t="s">
-        <v>288</v>
-      </c>
-      <c r="D127" t="s">
-        <v>289</v>
-      </c>
-      <c r="E127">
-        <v>13.7</v>
-      </c>
-      <c r="F127">
-        <v>60</v>
-      </c>
-      <c r="G127" t="s">
-        <v>290</v>
+        <v>423</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -36955,22 +36988,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
-      </c>
-      <c r="C128" t="s">
-        <v>318</v>
-      </c>
-      <c r="D128" t="s">
-        <v>321</v>
-      </c>
-      <c r="E128">
-        <v>12.3</v>
-      </c>
-      <c r="F128">
-        <v>40</v>
-      </c>
-      <c r="G128" t="s">
-        <v>322</v>
+        <v>423</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -36978,7 +36996,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -36986,22 +37004,22 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
       <c r="C130" t="s">
-        <v>298</v>
+        <v>390</v>
       </c>
       <c r="D130" t="s">
-        <v>299</v>
+        <v>413</v>
       </c>
       <c r="E130">
-        <v>20.7</v>
+        <v>94.3</v>
       </c>
       <c r="F130">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="G130" t="s">
-        <v>300</v>
+        <v>416</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -37009,7 +37027,22 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>423</v>
+      </c>
+      <c r="C131" t="s">
+        <v>407</v>
+      </c>
+      <c r="D131" t="s">
+        <v>410</v>
+      </c>
+      <c r="E131">
+        <v>62.3</v>
+      </c>
+      <c r="F131">
+        <v>69</v>
+      </c>
+      <c r="G131" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -37017,19 +37050,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
-      </c>
-      <c r="C132" t="s">
-        <v>276</v>
-      </c>
-      <c r="D132" t="s">
-        <v>218</v>
-      </c>
-      <c r="E132">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="G132" t="s">
-        <v>227</v>
+        <v>423</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -37037,7 +37058,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -37045,7 +37066,22 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>423</v>
+      </c>
+      <c r="C134" t="s">
+        <v>392</v>
+      </c>
+      <c r="D134" t="s">
+        <v>420</v>
+      </c>
+      <c r="E134">
+        <v>85</v>
+      </c>
+      <c r="F134">
+        <v>100</v>
+      </c>
+      <c r="G134" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -37053,7 +37089,7 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -37061,7 +37097,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -37069,19 +37105,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
-      </c>
-      <c r="C137" t="s">
-        <v>273</v>
-      </c>
-      <c r="D137" t="s">
-        <v>218</v>
-      </c>
-      <c r="E137">
-        <v>17.5</v>
-      </c>
-      <c r="G137" t="s">
-        <v>228</v>
+        <v>423</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -37089,7 +37113,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -37097,7 +37121,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -37105,7 +37129,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -37113,7 +37137,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -37121,12 +37145,13 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>43</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G126" r:id="rId1" xr:uid="{26AF3C9A-8692-410D-95F0-DE82A7A6CAB4}"/>
+    <hyperlink ref="G102" r:id="rId1" xr:uid="{497818AE-E34B-47DC-9D02-3D4211664C35}"/>
+    <hyperlink ref="G109" r:id="rId2" xr:uid="{B2DFE39E-FBF9-4AEF-8AB5-BBACAF19AB80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Lighting_Efficacy_Data.xlsx
+++ b/Data/Lighting_Efficacy_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LightingPaper2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA23385-954F-492E-AA3C-78527C4241B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA36FFC-56D7-4058-88BF-775A4F84F3DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="11508" windowHeight="9420" tabRatio="712" activeTab="1" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="712" activeTab="1" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
   </bookViews>
   <sheets>
     <sheet name="le_Inc" sheetId="15" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3975" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3975" uniqueCount="432">
   <si>
     <t>Tallow</t>
   </si>
@@ -1359,6 +1359,9 @@
   </si>
   <si>
     <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2514</t>
+  </si>
+  <si>
+    <t>Halogen (HAL)</t>
   </si>
 </sst>
 </file>
@@ -31513,14 +31516,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727D1E04-31A3-4998-85D9-AF32A9D150AF}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G135" sqref="G135"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="24.77734375" customWidth="1"/>
     <col min="5" max="5" width="29.44140625" customWidth="1"/>
@@ -31560,7 +31563,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -31568,7 +31571,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -31576,7 +31579,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -31584,7 +31587,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -31592,7 +31595,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="E6" s="120"/>
     </row>
@@ -31601,7 +31604,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -31609,7 +31612,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -31617,7 +31620,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -31625,7 +31628,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -31633,7 +31636,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -31641,7 +31644,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -31649,7 +31652,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -31657,7 +31660,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -31665,7 +31668,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -31673,7 +31676,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -31681,7 +31684,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -31689,7 +31692,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -31697,7 +31700,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -31705,7 +31708,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -31713,7 +31716,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -31721,7 +31724,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -31729,7 +31732,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -31737,7 +31740,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -31745,7 +31748,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -31753,7 +31756,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -31761,7 +31764,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -31769,7 +31772,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -31777,7 +31780,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -31785,7 +31788,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -31793,7 +31796,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -31801,7 +31804,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -31809,7 +31812,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -31817,7 +31820,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -31825,7 +31828,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -31833,7 +31836,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -31841,7 +31844,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -31849,7 +31852,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -31857,7 +31860,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -31865,7 +31868,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -31873,7 +31876,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -31881,7 +31884,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -31889,7 +31892,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -31897,7 +31900,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -31905,7 +31908,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -31913,7 +31916,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -31921,7 +31924,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -31929,7 +31932,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -31937,7 +31940,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -31945,7 +31948,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -31953,7 +31956,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -31961,7 +31964,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -31969,7 +31972,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -31977,7 +31980,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -31985,7 +31988,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -31993,7 +31996,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -32001,7 +32004,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -32009,7 +32012,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -32017,7 +32020,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -32025,7 +32028,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -32033,7 +32036,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -32041,7 +32044,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -32049,7 +32052,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -32057,7 +32060,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -32065,7 +32068,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -32073,7 +32076,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -32081,7 +32084,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -32089,7 +32092,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -32097,7 +32100,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -32105,7 +32108,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -32113,7 +32116,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -32121,7 +32124,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -32129,7 +32132,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -32137,7 +32140,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -32145,7 +32148,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -32153,7 +32156,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -32161,7 +32164,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -32169,7 +32172,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -32177,7 +32180,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -32185,7 +32188,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -32193,7 +32196,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -32201,7 +32204,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -32209,7 +32212,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -32217,7 +32220,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -32225,7 +32228,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -32233,7 +32236,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C86" t="s">
         <v>278</v>
@@ -32256,7 +32259,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -32264,7 +32267,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C88" t="s">
         <v>278</v>
@@ -32287,7 +32290,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -32295,7 +32298,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -32303,7 +32306,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C91" t="s">
         <v>287</v>
@@ -32326,7 +32329,7 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -32334,7 +32337,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -32342,7 +32345,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -32350,7 +32353,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -32358,7 +32361,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -32366,7 +32369,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -32374,7 +32377,7 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -32382,7 +32385,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -32390,7 +32393,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -32398,7 +32401,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -32406,7 +32409,7 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -32414,7 +32417,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -32422,7 +32425,7 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -32430,7 +32433,7 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -32438,7 +32441,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -32446,7 +32449,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C107" t="s">
         <v>278</v>
@@ -32469,7 +32472,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C108" t="s">
         <v>291</v>
@@ -32492,7 +32495,7 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C109" t="s">
         <v>323</v>
@@ -32515,7 +32518,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C110" t="s">
         <v>323</v>
@@ -32538,7 +32541,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C111" t="s">
         <v>291</v>
@@ -32561,7 +32564,7 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C112" t="s">
         <v>291</v>
@@ -32584,7 +32587,7 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C113" t="s">
         <v>311</v>
@@ -32607,7 +32610,7 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C114" t="s">
         <v>323</v>
@@ -32630,7 +32633,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -32638,7 +32641,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C116" t="s">
         <v>311</v>
@@ -32661,7 +32664,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -32669,7 +32672,7 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -32677,7 +32680,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C119" t="s">
         <v>318</v>
@@ -32700,7 +32703,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -32708,7 +32711,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -32716,7 +32719,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -32724,7 +32727,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C123" t="s">
         <v>277</v>
@@ -32744,7 +32747,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -32752,7 +32755,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -32760,7 +32763,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C126" t="s">
         <v>311</v>
@@ -32783,7 +32786,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C127" t="s">
         <v>288</v>
@@ -32806,7 +32809,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C128" t="s">
         <v>318</v>
@@ -32829,7 +32832,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -32837,7 +32840,7 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C130" t="s">
         <v>298</v>
@@ -32860,7 +32863,7 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -32868,7 +32871,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C132" t="s">
         <v>276</v>
@@ -32888,7 +32891,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -32896,7 +32899,7 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C134" t="s">
         <v>392</v>
@@ -32919,7 +32922,7 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -32927,7 +32930,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -32935,7 +32938,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="C137" t="s">
         <v>273</v>
@@ -32955,7 +32958,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -32963,7 +32966,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -32971,7 +32974,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -32979,7 +32982,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -32987,7 +32990,7 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Lighting_Efficacy_Data.xlsx
+++ b/Data/Lighting_Efficacy_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\LightingPaper2020\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA36FFC-56D7-4058-88BF-775A4F84F3DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFCE287-683D-42C1-9B8D-BC8B5BE676F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="712" activeTab="1" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="712" xr2:uid="{846965A8-6FAB-48E0-BA8A-E1207C0888FB}"/>
   </bookViews>
   <sheets>
     <sheet name="le_Inc" sheetId="15" r:id="rId1"/>
@@ -1346,9 +1346,6 @@
     <t>Light-emitting diode (LED)</t>
   </si>
   <si>
-    <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2557</t>
-  </si>
-  <si>
     <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2538</t>
   </si>
   <si>
@@ -1362,6 +1359,9 @@
   </si>
   <si>
     <t>Halogen (HAL)</t>
+  </si>
+  <si>
+    <t>http://galileo.graphycs.cegepsherbrooke.qc.ca/app/en/lamps/2552</t>
   </si>
 </sst>
 </file>
@@ -2831,7 +2831,7 @@
                   <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>17.600000000000001</c:v>
+                  <c:v>14.1</c:v>
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>10.3</c:v>
@@ -12263,8 +12263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB9D9AE-BEA5-4CF9-A363-2955BA21CAB2}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G135" sqref="G135"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I129" sqref="I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13780,13 +13780,13 @@
         <v>419</v>
       </c>
       <c r="E135">
-        <v>17.600000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="F135">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G135" s="120" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -13868,7 +13868,6 @@
     <hyperlink ref="G112" r:id="rId7" xr:uid="{4E67B11E-2CAD-4D19-BCCE-959A0E4359B8}"/>
     <hyperlink ref="G57" r:id="rId8" xr:uid="{55B98824-5519-41A0-96BA-BD12BCACFAE5}"/>
     <hyperlink ref="G47" r:id="rId9" xr:uid="{C4C7DE45-5EA8-4FDB-A560-444F5C59CD9B}"/>
-    <hyperlink ref="G135" r:id="rId10" xr:uid="{6B978241-D7F8-4FFC-A991-6E2D75773435}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31516,9 +31515,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727D1E04-31A3-4998-85D9-AF32A9D150AF}">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B142"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -31563,7 +31562,7 @@
         <v>1880</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -31571,7 +31570,7 @@
         <v>1881</v>
       </c>
       <c r="B3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -31579,7 +31578,7 @@
         <v>1882</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -31587,7 +31586,7 @@
         <v>1883</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -31595,7 +31594,7 @@
         <v>1884</v>
       </c>
       <c r="B6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E6" s="120"/>
     </row>
@@ -31604,7 +31603,7 @@
         <v>1885</v>
       </c>
       <c r="B7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -31612,7 +31611,7 @@
         <v>1886</v>
       </c>
       <c r="B8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -31620,7 +31619,7 @@
         <v>1887</v>
       </c>
       <c r="B9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -31628,7 +31627,7 @@
         <v>1888</v>
       </c>
       <c r="B10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -31636,7 +31635,7 @@
         <v>1889</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -31644,7 +31643,7 @@
         <v>1890</v>
       </c>
       <c r="B12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -31652,7 +31651,7 @@
         <v>1891</v>
       </c>
       <c r="B13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -31660,7 +31659,7 @@
         <v>1892</v>
       </c>
       <c r="B14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -31668,7 +31667,7 @@
         <v>1893</v>
       </c>
       <c r="B15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -31676,7 +31675,7 @@
         <v>1894</v>
       </c>
       <c r="B16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -31684,7 +31683,7 @@
         <v>1895</v>
       </c>
       <c r="B17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -31692,7 +31691,7 @@
         <v>1896</v>
       </c>
       <c r="B18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -31700,7 +31699,7 @@
         <v>1897</v>
       </c>
       <c r="B19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -31708,7 +31707,7 @@
         <v>1898</v>
       </c>
       <c r="B20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -31716,7 +31715,7 @@
         <v>1899</v>
       </c>
       <c r="B21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -31724,7 +31723,7 @@
         <v>1900</v>
       </c>
       <c r="B22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -31732,7 +31731,7 @@
         <v>1901</v>
       </c>
       <c r="B23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -31740,7 +31739,7 @@
         <v>1902</v>
       </c>
       <c r="B24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -31748,7 +31747,7 @@
         <v>1903</v>
       </c>
       <c r="B25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -31756,7 +31755,7 @@
         <v>1904</v>
       </c>
       <c r="B26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -31764,7 +31763,7 @@
         <v>1905</v>
       </c>
       <c r="B27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -31772,7 +31771,7 @@
         <v>1906</v>
       </c>
       <c r="B28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -31780,7 +31779,7 @@
         <v>1907</v>
       </c>
       <c r="B29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -31788,7 +31787,7 @@
         <v>1908</v>
       </c>
       <c r="B30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -31796,7 +31795,7 @@
         <v>1909</v>
       </c>
       <c r="B31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -31804,7 +31803,7 @@
         <v>1910</v>
       </c>
       <c r="B32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -31812,7 +31811,7 @@
         <v>1911</v>
       </c>
       <c r="B33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -31820,7 +31819,7 @@
         <v>1912</v>
       </c>
       <c r="B34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -31828,7 +31827,7 @@
         <v>1913</v>
       </c>
       <c r="B35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -31836,7 +31835,7 @@
         <v>1914</v>
       </c>
       <c r="B36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -31844,7 +31843,7 @@
         <v>1915</v>
       </c>
       <c r="B37" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -31852,7 +31851,7 @@
         <v>1916</v>
       </c>
       <c r="B38" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -31860,7 +31859,7 @@
         <v>1917</v>
       </c>
       <c r="B39" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -31868,7 +31867,7 @@
         <v>1918</v>
       </c>
       <c r="B40" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -31876,7 +31875,7 @@
         <v>1919</v>
       </c>
       <c r="B41" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -31884,7 +31883,7 @@
         <v>1920</v>
       </c>
       <c r="B42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -31892,7 +31891,7 @@
         <v>1921</v>
       </c>
       <c r="B43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -31900,7 +31899,7 @@
         <v>1922</v>
       </c>
       <c r="B44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -31908,7 +31907,7 @@
         <v>1923</v>
       </c>
       <c r="B45" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -31916,7 +31915,7 @@
         <v>1924</v>
       </c>
       <c r="B46" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -31924,7 +31923,7 @@
         <v>1925</v>
       </c>
       <c r="B47" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -31932,7 +31931,7 @@
         <v>1926</v>
       </c>
       <c r="B48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -31940,7 +31939,7 @@
         <v>1927</v>
       </c>
       <c r="B49" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -31948,7 +31947,7 @@
         <v>1928</v>
       </c>
       <c r="B50" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -31956,7 +31955,7 @@
         <v>1929</v>
       </c>
       <c r="B51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -31964,7 +31963,7 @@
         <v>1930</v>
       </c>
       <c r="B52" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -31972,7 +31971,7 @@
         <v>1931</v>
       </c>
       <c r="B53" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -31980,7 +31979,7 @@
         <v>1932</v>
       </c>
       <c r="B54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -31988,7 +31987,7 @@
         <v>1933</v>
       </c>
       <c r="B55" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -31996,7 +31995,7 @@
         <v>1934</v>
       </c>
       <c r="B56" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -32004,7 +32003,7 @@
         <v>1935</v>
       </c>
       <c r="B57" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -32012,7 +32011,7 @@
         <v>1936</v>
       </c>
       <c r="B58" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -32020,7 +32019,7 @@
         <v>1937</v>
       </c>
       <c r="B59" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -32028,7 +32027,7 @@
         <v>1938</v>
       </c>
       <c r="B60" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -32036,7 +32035,7 @@
         <v>1939</v>
       </c>
       <c r="B61" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -32044,7 +32043,7 @@
         <v>1940</v>
       </c>
       <c r="B62" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -32052,7 +32051,7 @@
         <v>1941</v>
       </c>
       <c r="B63" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -32060,7 +32059,7 @@
         <v>1942</v>
       </c>
       <c r="B64" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -32068,7 +32067,7 @@
         <v>1943</v>
       </c>
       <c r="B65" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -32076,7 +32075,7 @@
         <v>1944</v>
       </c>
       <c r="B66" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -32084,7 +32083,7 @@
         <v>1945</v>
       </c>
       <c r="B67" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -32092,7 +32091,7 @@
         <v>1946</v>
       </c>
       <c r="B68" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -32100,7 +32099,7 @@
         <v>1947</v>
       </c>
       <c r="B69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -32108,7 +32107,7 @@
         <v>1948</v>
       </c>
       <c r="B70" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -32116,7 +32115,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -32124,7 +32123,7 @@
         <v>1950</v>
       </c>
       <c r="B72" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -32132,7 +32131,7 @@
         <v>1951</v>
       </c>
       <c r="B73" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -32140,7 +32139,7 @@
         <v>1952</v>
       </c>
       <c r="B74" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -32148,7 +32147,7 @@
         <v>1953</v>
       </c>
       <c r="B75" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -32156,7 +32155,7 @@
         <v>1954</v>
       </c>
       <c r="B76" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -32164,7 +32163,7 @@
         <v>1955</v>
       </c>
       <c r="B77" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -32172,7 +32171,7 @@
         <v>1956</v>
       </c>
       <c r="B78" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -32180,7 +32179,7 @@
         <v>1957</v>
       </c>
       <c r="B79" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -32188,7 +32187,7 @@
         <v>1958</v>
       </c>
       <c r="B80" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -32196,7 +32195,7 @@
         <v>1959</v>
       </c>
       <c r="B81" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -32204,7 +32203,7 @@
         <v>1960</v>
       </c>
       <c r="B82" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -32212,7 +32211,7 @@
         <v>1961</v>
       </c>
       <c r="B83" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -32220,7 +32219,7 @@
         <v>1962</v>
       </c>
       <c r="B84" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -32228,7 +32227,7 @@
         <v>1963</v>
       </c>
       <c r="B85" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -32236,7 +32235,7 @@
         <v>1964</v>
       </c>
       <c r="B86" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C86" t="s">
         <v>278</v>
@@ -32259,7 +32258,7 @@
         <v>1965</v>
       </c>
       <c r="B87" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -32267,7 +32266,7 @@
         <v>1966</v>
       </c>
       <c r="B88" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C88" t="s">
         <v>278</v>
@@ -32290,7 +32289,7 @@
         <v>1967</v>
       </c>
       <c r="B89" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -32298,7 +32297,7 @@
         <v>1968</v>
       </c>
       <c r="B90" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -32306,7 +32305,7 @@
         <v>1969</v>
       </c>
       <c r="B91" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C91" t="s">
         <v>287</v>
@@ -32329,7 +32328,7 @@
         <v>1970</v>
       </c>
       <c r="B92" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -32337,7 +32336,7 @@
         <v>1971</v>
       </c>
       <c r="B93" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -32345,7 +32344,7 @@
         <v>1972</v>
       </c>
       <c r="B94" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -32353,7 +32352,7 @@
         <v>1973</v>
       </c>
       <c r="B95" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -32361,7 +32360,7 @@
         <v>1974</v>
       </c>
       <c r="B96" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -32369,7 +32368,7 @@
         <v>1975</v>
       </c>
       <c r="B97" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -32377,7 +32376,7 @@
         <v>1976</v>
       </c>
       <c r="B98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -32385,7 +32384,7 @@
         <v>1977</v>
       </c>
       <c r="B99" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -32393,7 +32392,7 @@
         <v>1978</v>
       </c>
       <c r="B100" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -32401,7 +32400,7 @@
         <v>1979</v>
       </c>
       <c r="B101" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -32409,7 +32408,7 @@
         <v>1980</v>
       </c>
       <c r="B102" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -32417,7 +32416,7 @@
         <v>1981</v>
       </c>
       <c r="B103" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -32425,7 +32424,7 @@
         <v>1982</v>
       </c>
       <c r="B104" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -32433,7 +32432,7 @@
         <v>1983</v>
       </c>
       <c r="B105" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -32441,7 +32440,7 @@
         <v>1984</v>
       </c>
       <c r="B106" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -32449,7 +32448,7 @@
         <v>1985</v>
       </c>
       <c r="B107" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C107" t="s">
         <v>278</v>
@@ -32472,7 +32471,7 @@
         <v>1986</v>
       </c>
       <c r="B108" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C108" t="s">
         <v>291</v>
@@ -32495,7 +32494,7 @@
         <v>1987</v>
       </c>
       <c r="B109" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C109" t="s">
         <v>323</v>
@@ -32518,7 +32517,7 @@
         <v>1988</v>
       </c>
       <c r="B110" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C110" t="s">
         <v>323</v>
@@ -32541,7 +32540,7 @@
         <v>1989</v>
       </c>
       <c r="B111" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C111" t="s">
         <v>291</v>
@@ -32564,7 +32563,7 @@
         <v>1990</v>
       </c>
       <c r="B112" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C112" t="s">
         <v>291</v>
@@ -32587,7 +32586,7 @@
         <v>1991</v>
       </c>
       <c r="B113" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C113" t="s">
         <v>311</v>
@@ -32610,7 +32609,7 @@
         <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C114" t="s">
         <v>323</v>
@@ -32633,7 +32632,7 @@
         <v>1993</v>
       </c>
       <c r="B115" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -32641,7 +32640,7 @@
         <v>1994</v>
       </c>
       <c r="B116" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C116" t="s">
         <v>311</v>
@@ -32664,7 +32663,7 @@
         <v>1995</v>
       </c>
       <c r="B117" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -32672,7 +32671,7 @@
         <v>1996</v>
       </c>
       <c r="B118" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -32680,7 +32679,7 @@
         <v>1997</v>
       </c>
       <c r="B119" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C119" t="s">
         <v>318</v>
@@ -32703,7 +32702,7 @@
         <v>1998</v>
       </c>
       <c r="B120" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -32711,7 +32710,7 @@
         <v>1999</v>
       </c>
       <c r="B121" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -32719,7 +32718,7 @@
         <v>2000</v>
       </c>
       <c r="B122" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -32727,7 +32726,7 @@
         <v>2001</v>
       </c>
       <c r="B123" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C123" t="s">
         <v>277</v>
@@ -32747,7 +32746,7 @@
         <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -32755,7 +32754,7 @@
         <v>2003</v>
       </c>
       <c r="B125" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -32763,7 +32762,7 @@
         <v>2004</v>
       </c>
       <c r="B126" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C126" t="s">
         <v>311</v>
@@ -32786,7 +32785,7 @@
         <v>2005</v>
       </c>
       <c r="B127" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C127" t="s">
         <v>288</v>
@@ -32809,7 +32808,7 @@
         <v>2006</v>
       </c>
       <c r="B128" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C128" t="s">
         <v>318</v>
@@ -32832,7 +32831,7 @@
         <v>2007</v>
       </c>
       <c r="B129" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -32840,7 +32839,7 @@
         <v>2008</v>
       </c>
       <c r="B130" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C130" t="s">
         <v>298</v>
@@ -32863,7 +32862,7 @@
         <v>2009</v>
       </c>
       <c r="B131" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -32871,7 +32870,7 @@
         <v>2010</v>
       </c>
       <c r="B132" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C132" t="s">
         <v>276</v>
@@ -32891,7 +32890,7 @@
         <v>2011</v>
       </c>
       <c r="B133" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -32899,13 +32898,13 @@
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C134" t="s">
         <v>392</v>
       </c>
       <c r="D134" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E134">
         <v>11</v>
@@ -32914,7 +32913,7 @@
         <v>65</v>
       </c>
       <c r="G134" s="120" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -32922,7 +32921,7 @@
         <v>2013</v>
       </c>
       <c r="B135" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -32930,7 +32929,7 @@
         <v>2014</v>
       </c>
       <c r="B136" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -32938,7 +32937,7 @@
         <v>2015</v>
       </c>
       <c r="B137" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C137" t="s">
         <v>273</v>
@@ -32958,7 +32957,7 @@
         <v>2016</v>
       </c>
       <c r="B138" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -32966,7 +32965,7 @@
         <v>2017</v>
       </c>
       <c r="B139" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -32974,7 +32973,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -32982,7 +32981,7 @@
         <v>2019</v>
       </c>
       <c r="B141" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -32990,7 +32989,7 @@
         <v>2020</v>
       </c>
       <c r="B142" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -34329,7 +34328,7 @@
         <v>15</v>
       </c>
       <c r="G136" s="120" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -35628,7 +35627,7 @@
         <v>10</v>
       </c>
       <c r="G135" s="120" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="136" spans="1:7">
